--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="667">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4349,6 +4349,51 @@
   </si>
   <si>
     <t>9654640996;7042489399</t>
+  </si>
+  <si>
+    <t>lavin Katiyar</t>
+  </si>
+  <si>
+    <t>lavinkatiyar@gmail.com</t>
+  </si>
+  <si>
+    <t>Visited at shop</t>
+  </si>
+  <si>
+    <t>Akash Sharma</t>
+  </si>
+  <si>
+    <t>Neearj Prasad</t>
+  </si>
+  <si>
+    <t>neeraj.prasad1990@gmail.com</t>
+  </si>
+  <si>
+    <t>Kushagra Puri</t>
+  </si>
+  <si>
+    <t>kushagra789@gmail.com</t>
+  </si>
+  <si>
+    <t>Jatin</t>
+  </si>
+  <si>
+    <t>Govind</t>
+  </si>
+  <si>
+    <t>Dharmendra</t>
+  </si>
+  <si>
+    <t>dharmendrasingh.tomar84@gmail.com</t>
+  </si>
+  <si>
+    <t>Samarth Pratap Singh</t>
+  </si>
+  <si>
+    <t>Vinay Kumar Pandey</t>
+  </si>
+  <si>
+    <t>Surjeet Kumar</t>
   </si>
 </sst>
 </file>
@@ -6300,10 +6345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6728,6 +6773,142 @@
       </c>
       <c r="E23" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>652</v>
+      </c>
+      <c r="B24">
+        <v>9582374921</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E24" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>655</v>
+      </c>
+      <c r="B25">
+        <v>8750179299</v>
+      </c>
+      <c r="E25" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26">
+        <v>9810485613</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>658</v>
+      </c>
+      <c r="B27">
+        <v>87042408494</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>660</v>
+      </c>
+      <c r="B28">
+        <v>8745968272</v>
+      </c>
+      <c r="E28" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>661</v>
+      </c>
+      <c r="B29">
+        <v>9716246542</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E29" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>610</v>
+      </c>
+      <c r="B30">
+        <v>9458402916</v>
+      </c>
+      <c r="E30" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>662</v>
+      </c>
+      <c r="B31">
+        <v>7503087307</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E31" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>664</v>
+      </c>
+      <c r="B32">
+        <v>9582555570</v>
+      </c>
+      <c r="E32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>665</v>
+      </c>
+      <c r="B33">
+        <v>8130126766</v>
+      </c>
+      <c r="E33" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>666</v>
+      </c>
+      <c r="B34">
+        <v>9650234316</v>
+      </c>
+      <c r="E34" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6753,6 +6934,11 @@
     <hyperlink ref="C21" r:id="rId19"/>
     <hyperlink ref="C22" r:id="rId20"/>
     <hyperlink ref="C23" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22"/>
+    <hyperlink ref="C26" r:id="rId23"/>
+    <hyperlink ref="C27" r:id="rId24"/>
+    <hyperlink ref="C29" r:id="rId25"/>
+    <hyperlink ref="C31" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6762,7 +6948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -7004,10 +7190,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7221,6 +7407,11 @@
       </c>
       <c r="F13">
         <v>4485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7805,7 +7996,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -9246,7 +9437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="668">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4339,9 +4339,6 @@
     <t>Certificate</t>
   </si>
   <si>
-    <t>24nd feb 2015</t>
-  </si>
-  <si>
     <t>Ashok</t>
   </si>
   <si>
@@ -4394,6 +4391,12 @@
   </si>
   <si>
     <t>Surjeet Kumar</t>
+  </si>
+  <si>
+    <t>24th feb 2015</t>
+  </si>
+  <si>
+    <t>24yh feb 2015</t>
   </si>
 </sst>
 </file>
@@ -6297,13 +6300,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B28">
         <v>8750546916</v>
       </c>
       <c r="D28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E28" t="s">
         <v>634</v>
@@ -6777,71 +6780,71 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B24">
         <v>9582374921</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E24" t="s">
         <v>653</v>
-      </c>
-      <c r="E24" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B25">
         <v>8750179299</v>
       </c>
       <c r="E25" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B26">
         <v>9810485613</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B27">
         <v>87042408494</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E27" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B28">
         <v>8745968272</v>
       </c>
       <c r="E28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B29">
         <v>9716246542</v>
@@ -6850,7 +6853,7 @@
         <v>523</v>
       </c>
       <c r="E29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6861,54 +6864,54 @@
         <v>9458402916</v>
       </c>
       <c r="E30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B31">
         <v>7503087307</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E31" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B32">
         <v>9582555570</v>
       </c>
       <c r="E32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B33">
         <v>8130126766</v>
       </c>
       <c r="E33" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B34">
         <v>9650234316</v>
       </c>
       <c r="E34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -7193,7 +7196,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7397,7 +7400,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="C13">
         <v>2050</v>
@@ -7410,8 +7413,17 @@
       </c>
     </row>
     <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>667</v>
+      </c>
       <c r="D14">
         <v>30</v>
+      </c>
+      <c r="E14">
+        <v>4434</v>
+      </c>
+      <c r="F14">
+        <v>4455</v>
       </c>
     </row>
   </sheetData>
@@ -9341,7 +9353,7 @@
         <v>534</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H21" s="41">
         <v>3000</v>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="671">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4397,6 +4397,15 @@
   </si>
   <si>
     <t>24yh feb 2015</t>
+  </si>
+  <si>
+    <t>Sourav Srivastav</t>
+  </si>
+  <si>
+    <t>srivastav.saurav09@gmail.com</t>
+  </si>
+  <si>
+    <t>Wheel Chair</t>
   </si>
 </sst>
 </file>
@@ -6348,10 +6357,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6912,6 +6921,23 @@
       </c>
       <c r="E34" t="s">
         <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>668</v>
+      </c>
+      <c r="B35">
+        <v>9560108369</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -6942,6 +6968,7 @@
     <hyperlink ref="C27" r:id="rId24"/>
     <hyperlink ref="C29" r:id="rId25"/>
     <hyperlink ref="C31" r:id="rId26"/>
+    <hyperlink ref="C35" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7195,7 +7222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="672">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4396,9 +4396,6 @@
     <t>24th feb 2015</t>
   </si>
   <si>
-    <t>24yh feb 2015</t>
-  </si>
-  <si>
     <t>Sourav Srivastav</t>
   </si>
   <si>
@@ -4406,6 +4403,12 @@
   </si>
   <si>
     <t>Wheel Chair</t>
+  </si>
+  <si>
+    <t>26th feb 2015</t>
+  </si>
+  <si>
+    <t>25th feb 2015</t>
   </si>
 </sst>
 </file>
@@ -6359,7 +6362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -6925,19 +6928,19 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B35">
         <v>9560108369</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D35" t="s">
         <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -7220,10 +7223,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7441,7 +7444,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D14">
         <v>30</v>
@@ -7450,6 +7453,17 @@
         <v>4434</v>
       </c>
       <c r="F14">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>670</v>
+      </c>
+      <c r="E15">
+        <v>4434</v>
+      </c>
+      <c r="F15">
         <v>4455</v>
       </c>
     </row>
@@ -8035,8 +8049,8 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="673">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4409,6 +4409,9 @@
   </si>
   <si>
     <t>25th feb 2015</t>
+  </si>
+  <si>
+    <t>27th feb 2015</t>
   </si>
 </sst>
 </file>
@@ -7223,10 +7226,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7464,6 +7467,17 @@
         <v>4434</v>
       </c>
       <c r="F15">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>672</v>
+      </c>
+      <c r="E16">
+        <v>4434</v>
+      </c>
+      <c r="F16">
         <v>4455</v>
       </c>
     </row>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId8"/>
     <sheet name="Final Year Projects" sheetId="9" r:id="rId9"/>
     <sheet name="Training Weekend And Weekdays" sheetId="14" r:id="rId10"/>
+    <sheet name="Electricity bill" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="689">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4412,6 +4413,54 @@
   </si>
   <si>
     <t>27th feb 2015</t>
+  </si>
+  <si>
+    <t>MHD sobee</t>
+  </si>
+  <si>
+    <t>mohbsobee33326@gmail.com</t>
+  </si>
+  <si>
+    <t>G.L.B</t>
+  </si>
+  <si>
+    <t>OPAM</t>
+  </si>
+  <si>
+    <t>28th feb</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>28th feb 2015</t>
+  </si>
+  <si>
+    <t>Electricity bill</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>SHOP No</t>
+  </si>
+  <si>
+    <t>AMOUNT Rs/-</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>28Th Feb</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PAID</t>
   </si>
 </sst>
 </file>
@@ -4495,7 +4544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4583,6 +4632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4676,7 +4731,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4917,6 +4972,8 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5641,11 +5698,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="108" customFormat="1">
+      <c r="A1" s="108" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>687</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>684</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="109">
+        <v>42036</v>
+      </c>
+      <c r="C2">
+        <v>683</v>
+      </c>
+      <c r="E2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3" s="109">
+        <v>42036</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>1154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>54</v>
+      </c>
+      <c r="B4" s="109">
+        <v>42036</v>
+      </c>
+      <c r="C4">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>686</v>
+      </c>
+      <c r="F4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -6363,10 +6516,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6944,6 +7097,23 @@
       </c>
       <c r="E35" t="s">
         <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>673</v>
+      </c>
+      <c r="B36">
+        <v>9818655248</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D36" t="s">
+        <v>675</v>
+      </c>
+      <c r="E36" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -6975,6 +7145,7 @@
     <hyperlink ref="C29" r:id="rId25"/>
     <hyperlink ref="C31" r:id="rId26"/>
     <hyperlink ref="C35" r:id="rId27"/>
+    <hyperlink ref="C36" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7226,10 +7397,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7289,6 +7460,9 @@
       <c r="C3">
         <v>3080</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>5049</v>
       </c>
@@ -7303,6 +7477,9 @@
       <c r="C4">
         <v>5000</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>10049</v>
       </c>
@@ -7334,6 +7511,9 @@
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>1049</v>
       </c>
@@ -7348,6 +7528,9 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>1049</v>
       </c>
@@ -7379,6 +7562,9 @@
       <c r="C9">
         <v>1000</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9">
         <v>3614</v>
       </c>
@@ -7410,6 +7596,9 @@
       <c r="C11">
         <v>200</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>1014</v>
       </c>
@@ -7424,6 +7613,9 @@
       <c r="C12">
         <v>1400</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>2414</v>
       </c>
@@ -7438,6 +7630,9 @@
       <c r="C13">
         <v>2050</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>4464</v>
       </c>
@@ -7449,6 +7644,9 @@
       <c r="B14" t="s">
         <v>671</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
         <v>30</v>
       </c>
@@ -7463,6 +7661,12 @@
       <c r="B15" t="s">
         <v>670</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>4434</v>
       </c>
@@ -7474,11 +7678,34 @@
       <c r="B16" t="s">
         <v>672</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>4434</v>
       </c>
       <c r="F16">
         <v>4455</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>679</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1470</v>
+      </c>
+      <c r="E17">
+        <v>2964</v>
+      </c>
+      <c r="F17">
+        <v>2985</v>
       </c>
     </row>
   </sheetData>
@@ -7488,10 +7715,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7811,6 +8038,39 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>677</v>
+      </c>
+      <c r="B29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>677</v>
+      </c>
+      <c r="B30" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>677</v>
+      </c>
+      <c r="B31" t="s">
+        <v>680</v>
+      </c>
+      <c r="C31">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7820,7 +8080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -8063,8 +8323,8 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9477,10 +9737,10 @@
         <v>617</v>
       </c>
       <c r="H23" s="11">
+        <v>6000</v>
+      </c>
+      <c r="I23" s="11">
         <v>1000</v>
-      </c>
-      <c r="I23" s="11">
-        <v>6000</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>618</v>
@@ -9504,7 +9764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="694">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4461,6 +4461,21 @@
   </si>
   <si>
     <t>PAID</t>
+  </si>
+  <si>
+    <t>1st march 2015</t>
+  </si>
+  <si>
+    <t>2nd march 2015</t>
+  </si>
+  <si>
+    <t>3rd march 2015</t>
+  </si>
+  <si>
+    <t>3rf march</t>
+  </si>
+  <si>
+    <t>Décor india</t>
   </si>
 </sst>
 </file>
@@ -5702,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5798,7 +5813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -7397,10 +7412,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7708,6 +7723,57 @@
         <v>2985</v>
       </c>
     </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2964</v>
+      </c>
+      <c r="F18">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>690</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>1964</v>
+      </c>
+      <c r="F19">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>691</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2064</v>
+      </c>
+      <c r="F20">
+        <v>2085</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7715,10 +7781,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8069,6 +8135,17 @@
       </c>
       <c r="C31">
         <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>692</v>
+      </c>
+      <c r="B32" t="s">
+        <v>693</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="695">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4476,6 +4476,9 @@
   </si>
   <si>
     <t>Décor india</t>
+  </si>
+  <si>
+    <t>4th march 2015</t>
   </si>
 </sst>
 </file>
@@ -7412,10 +7415,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7771,6 +7774,23 @@
         <v>2064</v>
       </c>
       <c r="F20">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>694</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2064</v>
+      </c>
+      <c r="F21">
         <v>2085</v>
       </c>
     </row>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
-    <sheet name="Daily Project Status" sheetId="2" r:id="rId2"/>
-    <sheet name="Student Visited In Lab" sheetId="3" r:id="rId3"/>
-    <sheet name="Celeab Responsibilities" sheetId="12" r:id="rId4"/>
-    <sheet name="Balance" sheetId="10" r:id="rId5"/>
+    <sheet name="Balance Sheet" sheetId="17" r:id="rId2"/>
+    <sheet name="Daily Project Status" sheetId="2" r:id="rId3"/>
+    <sheet name="Student Visited In Lab" sheetId="3" r:id="rId4"/>
+    <sheet name="Celeab Responsibilities" sheetId="12" r:id="rId5"/>
     <sheet name="Purchase " sheetId="4" r:id="rId6"/>
     <sheet name="Rate List" sheetId="5" r:id="rId7"/>
     <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId8"/>
@@ -19,12 +19,12 @@
     <sheet name="Training Weekend And Weekdays" sheetId="14" r:id="rId10"/>
     <sheet name="Electricity bill" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="677">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3905,24 +3905,6 @@
     <t>100+1500</t>
   </si>
   <si>
-    <t>From Date</t>
-  </si>
-  <si>
-    <t>To Date</t>
-  </si>
-  <si>
-    <t>Expenses Including given to Sir</t>
-  </si>
-  <si>
-    <t>6th Dec 20114</t>
-  </si>
-  <si>
-    <t>12th Feb 2015</t>
-  </si>
-  <si>
-    <t>Lab Income Rs/-</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -3941,9 +3923,6 @@
     <t>Tabbaco Tracking Asp.net</t>
   </si>
   <si>
-    <t>13th feb 2015</t>
-  </si>
-  <si>
     <t>Anmol singh</t>
   </si>
   <si>
@@ -3983,9 +3962,6 @@
     <t>8051 Dev Board Training</t>
   </si>
   <si>
-    <t>14th feb 2015</t>
-  </si>
-  <si>
     <t>Street light that glows on vehicle movement using pic</t>
   </si>
   <si>
@@ -4061,12 +4037,6 @@
     <t>14th Feb</t>
   </si>
   <si>
-    <t>15th feb 2015</t>
-  </si>
-  <si>
-    <t>17th feb 2015</t>
-  </si>
-  <si>
     <t>Responsibility</t>
   </si>
   <si>
@@ -4148,9 +4118,6 @@
     <t>Within 1 Month</t>
   </si>
   <si>
-    <t>18th feb 2015</t>
-  </si>
-  <si>
     <t>Prakash Pandey</t>
   </si>
   <si>
@@ -4196,9 +4163,6 @@
     <t>Ecogreen project</t>
   </si>
   <si>
-    <t>19th feb 2015</t>
-  </si>
-  <si>
     <t>7042060502, 9871025554</t>
   </si>
   <si>
@@ -4223,9 +4187,6 @@
     <t>quadcopter</t>
   </si>
   <si>
-    <t>20th feb 2015</t>
-  </si>
-  <si>
     <t>Mayank</t>
   </si>
   <si>
@@ -4235,9 +4196,6 @@
     <t>21thFeb</t>
   </si>
   <si>
-    <t>21th feb 2015</t>
-  </si>
-  <si>
     <t>22nd feb</t>
   </si>
   <si>
@@ -4256,9 +4214,6 @@
     <t>Acciedent vehicle located based on gps and gsm, Accelerometer</t>
   </si>
   <si>
-    <t>22nd feb 2015</t>
-  </si>
-  <si>
     <t>sushantkamboj10@gmail.com</t>
   </si>
   <si>
@@ -4394,9 +4349,6 @@
     <t>Surjeet Kumar</t>
   </si>
   <si>
-    <t>24th feb 2015</t>
-  </si>
-  <si>
     <t>Sourav Srivastav</t>
   </si>
   <si>
@@ -4406,15 +4358,6 @@
     <t>Wheel Chair</t>
   </si>
   <si>
-    <t>26th feb 2015</t>
-  </si>
-  <si>
-    <t>25th feb 2015</t>
-  </si>
-  <si>
-    <t>27th feb 2015</t>
-  </si>
-  <si>
     <t>MHD sobee</t>
   </si>
   <si>
@@ -4433,9 +4376,6 @@
     <t>File</t>
   </si>
   <si>
-    <t>28th feb 2015</t>
-  </si>
-  <si>
     <t>Electricity bill</t>
   </si>
   <si>
@@ -4463,29 +4403,38 @@
     <t>PAID</t>
   </si>
   <si>
-    <t>1st march 2015</t>
-  </si>
-  <si>
-    <t>2nd march 2015</t>
-  </si>
-  <si>
-    <t>3rd march 2015</t>
-  </si>
-  <si>
     <t>3rf march</t>
   </si>
   <si>
     <t>Décor india</t>
   </si>
   <si>
-    <t>4th march 2015</t>
+    <t>Lab Income</t>
+  </si>
+  <si>
+    <t>Expenses (Including given to Sir)</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenses </t>
+  </si>
+  <si>
+    <t>Given to Sir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4562,7 +4511,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4659,6 +4608,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -4749,7 +4704,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4927,7 +4882,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -4992,6 +4946,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5009,6 +4974,1973 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="0.10689814814814817"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.65498468941382326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Balance Sheet'!$A$38:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42056</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42059</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42060</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42061</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balance Sheet'!$B$38:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3080</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="327061856"/>
+        <c:axId val="327062416"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="327061856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327062416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="327062416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327061856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Balance Sheet'!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42070</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42073</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42080</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42082</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42083</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42084</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42087</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42088</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42089</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42090</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42093</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balance Sheet'!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="327228160"/>
+        <c:axId val="327227040"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="327228160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327227040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="327227040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327228160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5054,7 +6986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5086,9 +7018,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5120,6 +7053,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5295,14 +7229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -5316,7 +7250,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5348,7 +7282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="68" customFormat="1">
+    <row r="2" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>6</v>
       </c>
@@ -5370,8 +7304,8 @@
       <c r="G2" s="68">
         <v>5000</v>
       </c>
-      <c r="H2" s="84" t="s">
-        <v>551</v>
+      <c r="H2" s="83" t="s">
+        <v>543</v>
       </c>
       <c r="J2" s="68" t="s">
         <v>149</v>
@@ -5380,7 +7314,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5403,7 +7337,7 @@
         <v>5000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="I3" t="s">
         <v>432</v>
@@ -5412,18 +7346,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B4">
         <v>9971907103</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E4" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F4">
         <v>1500</v>
@@ -5432,21 +7366,21 @@
         <v>1500</v>
       </c>
       <c r="H4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B5">
         <v>9971907103</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E5" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F5">
         <v>1500</v>
@@ -5455,24 +7389,24 @@
         <v>1500</v>
       </c>
       <c r="H5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B6">
         <v>9911193134</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -5481,24 +7415,24 @@
         <v>1500</v>
       </c>
       <c r="H6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B7">
         <v>9643705662</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -5507,24 +7441,24 @@
         <v>1500</v>
       </c>
       <c r="H7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B8">
         <v>9899766120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -5533,24 +7467,24 @@
         <v>1500</v>
       </c>
       <c r="H8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B9">
         <v>9650259567</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -5559,7 +7493,7 @@
         <v>1500</v>
       </c>
       <c r="H9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -5576,139 +7510,139 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>623</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>624</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>625</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>641</v>
-      </c>
-      <c r="B5" s="107">
+        <v>626</v>
+      </c>
+      <c r="B5" s="106">
         <v>1</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>643</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>628</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="88" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B8" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>627</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>630</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>631</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>647</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>564</v>
+        <v>632</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -5717,14 +7651,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
@@ -5732,48 +7666,48 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="108" customFormat="1">
-      <c r="A1" s="108" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1" s="108" t="s">
-        <v>681</v>
-      </c>
-      <c r="C1" s="108" t="s">
-        <v>683</v>
-      </c>
-      <c r="D1" s="108" t="s">
-        <v>687</v>
-      </c>
-      <c r="E1" s="108" t="s">
-        <v>684</v>
-      </c>
-      <c r="F1" s="108" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>664</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="108">
         <v>42036</v>
       </c>
       <c r="C2">
         <v>683</v>
       </c>
       <c r="E2" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="F2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51</v>
       </c>
-      <c r="B3" s="109">
+      <c r="B3" s="108">
         <v>42036</v>
       </c>
       <c r="C3">
@@ -5783,27 +7717,27 @@
         <v>1154</v>
       </c>
       <c r="E3" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="F3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>54</v>
       </c>
-      <c r="B4" s="109">
+      <c r="B4" s="108">
         <v>42036</v>
       </c>
       <c r="C4">
         <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="F4" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -5813,14 +7747,959 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="110" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+    </row>
+    <row r="3" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110">
+        <v>42064</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2985</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110">
+        <v>42065</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="114">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>E3+B4-C4-D4</f>
+        <v>1985</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="110">
+        <v>42066</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E33" si="0">E4+B5-C5-D5</f>
+        <v>2085</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110">
+        <v>42067</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="110">
+        <v>42068</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="113">
+        <v>42069</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="113">
+        <v>42070</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="113">
+        <v>42071</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="113">
+        <v>42072</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="113">
+        <v>42073</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="113">
+        <v>42074</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="113">
+        <v>42075</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="113">
+        <v>42076</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="113">
+        <v>42077</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="113">
+        <v>42078</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="113">
+        <v>42079</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="113">
+        <v>42080</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="113">
+        <v>42081</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="113">
+        <v>42082</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="113">
+        <v>42083</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="113">
+        <v>42084</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="113">
+        <v>42085</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+      <c r="L24">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="113">
+        <v>42086</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+      <c r="L25">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="113">
+        <v>42087</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+      <c r="L26">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="113">
+        <v>42088</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+      <c r="L27">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="113">
+        <v>42089</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="113">
+        <v>42090</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="113">
+        <v>42091</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="113">
+        <v>42092</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="113">
+        <v>42093</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="113">
+        <v>42094</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="113"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="113"/>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D36" s="81" t="s">
+        <v>672</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="112" t="s">
+        <v>673</v>
+      </c>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="110">
+        <v>42047</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1969</v>
+      </c>
+      <c r="F38">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="110">
+        <v>42048</v>
+      </c>
+      <c r="B39">
+        <v>3080</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>5049</v>
+      </c>
+      <c r="F39">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="110">
+        <v>42049</v>
+      </c>
+      <c r="B40">
+        <v>5000</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>10049</v>
+      </c>
+      <c r="F40">
+        <v>10070</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="110">
+        <v>42049</v>
+      </c>
+      <c r="B41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>10000</v>
+      </c>
+      <c r="E41">
+        <v>1049</v>
+      </c>
+      <c r="F41">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="110">
+        <v>42050</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1049</v>
+      </c>
+      <c r="F42">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="110">
+        <v>42052</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1049</v>
+      </c>
+      <c r="F43">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="110">
+        <v>42053</v>
+      </c>
+      <c r="B44">
+        <v>2300</v>
+      </c>
+      <c r="D44">
+        <v>735</v>
+      </c>
+      <c r="E44">
+        <v>2614</v>
+      </c>
+      <c r="F44">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="110">
+        <v>42054</v>
+      </c>
+      <c r="B45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>3614</v>
+      </c>
+      <c r="F45">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="110">
+        <v>42055</v>
+      </c>
+      <c r="B46">
+        <v>1500</v>
+      </c>
+      <c r="D46">
+        <v>4500</v>
+      </c>
+      <c r="E46">
+        <v>814</v>
+      </c>
+      <c r="F46">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="110">
+        <v>42056</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1014</v>
+      </c>
+      <c r="F47">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="110">
+        <v>42057</v>
+      </c>
+      <c r="B48">
+        <v>1400</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2414</v>
+      </c>
+      <c r="F48">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="110">
+        <v>42059</v>
+      </c>
+      <c r="B49">
+        <v>2050</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>4464</v>
+      </c>
+      <c r="F49">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="110">
+        <v>42060</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>4434</v>
+      </c>
+      <c r="F50">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="110">
+        <v>42061</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>4434</v>
+      </c>
+      <c r="F51">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="110">
+        <v>42062</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>4434</v>
+      </c>
+      <c r="F52">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="110">
+        <v>42063</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1470</v>
+      </c>
+      <c r="E53">
+        <v>2964</v>
+      </c>
+      <c r="F53">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f>SUM(B38:B53)</f>
+        <v>17530</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -5833,7 +8712,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5859,7 +8738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5885,7 +8764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5908,7 +8787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5934,7 +8813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5960,7 +8839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5986,7 +8865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6009,7 +8888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -6032,7 +8911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -6058,7 +8937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -6084,7 +8963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>331</v>
       </c>
@@ -6110,7 +8989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="64" customFormat="1">
+    <row r="12" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>334</v>
       </c>
@@ -6133,7 +9012,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>345</v>
       </c>
@@ -6159,7 +9038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>361</v>
       </c>
@@ -6185,7 +9064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="68" customFormat="1">
+    <row r="15" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
         <v>34</v>
       </c>
@@ -6211,7 +9090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="70" customFormat="1">
+    <row r="16" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>419</v>
       </c>
@@ -6240,7 +9119,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>427</v>
       </c>
@@ -6266,7 +9145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>433</v>
       </c>
@@ -6283,7 +9162,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>9711307405</v>
       </c>
@@ -6300,7 +9179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>499</v>
       </c>
@@ -6323,18 +9202,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B21">
         <v>9838195681</v>
       </c>
       <c r="D21" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E21" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -6343,18 +9222,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B22">
         <v>9793382456</v>
       </c>
       <c r="D22" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E22" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -6363,21 +9242,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B23">
         <v>9654033937</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D23" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="E23" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F23">
         <v>800</v>
@@ -6389,21 +9268,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B24">
         <v>7053362994</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D24" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E24" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F24">
         <v>400</v>
@@ -6412,21 +9291,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B25">
         <v>8826582906</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D25" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="E25" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F25">
         <v>600</v>
@@ -6438,18 +9317,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B26">
         <v>9793382956</v>
       </c>
       <c r="D26" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="E26" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="F26">
         <v>600</v>
@@ -6461,18 +9340,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B27">
         <v>9718155292</v>
       </c>
       <c r="D27" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="E27" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="F27">
         <v>2000</v>
@@ -6484,18 +9363,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B28">
         <v>8750546916</v>
       </c>
       <c r="D28" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="E28" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -6532,15 +9411,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -6549,7 +9428,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -6569,7 +9448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -6589,7 +9468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -6609,7 +9488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -6629,7 +9508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -6649,7 +9528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -6669,7 +9548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -6689,7 +9568,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -6709,7 +9588,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>406</v>
       </c>
@@ -6729,7 +9608,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>439</v>
       </c>
@@ -6743,10 +9622,10 @@
         <v>441</v>
       </c>
       <c r="E10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>442</v>
       </c>
@@ -6763,7 +9642,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -6780,7 +9659,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -6797,7 +9676,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>489</v>
       </c>
@@ -6814,7 +9693,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>493</v>
       </c>
@@ -6831,307 +9710,307 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B16">
         <v>7042248420</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E16" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B17">
         <v>9911430369</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B18">
         <v>8130283991</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D18" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B19">
         <v>9565656535</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D19" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B20">
         <v>9958940360</v>
       </c>
       <c r="D20" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>622</v>
       </c>
       <c r="B21">
         <v>9999518201</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="E21" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B22">
         <v>8750546916</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="D22" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="E22" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B23">
         <v>8285771212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D23" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="B24">
         <v>9582374921</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="E24" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="B25">
         <v>8750179299</v>
       </c>
       <c r="E25" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="B26">
         <v>9810485613</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="E26" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="B27">
         <v>87042408494</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="E27" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="B28">
         <v>8745968272</v>
       </c>
       <c r="E28" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="B29">
         <v>9716246542</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E29" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B30">
         <v>9458402916</v>
       </c>
       <c r="E30" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="B31">
         <v>7503087307</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="E31" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="B32">
         <v>9582555570</v>
       </c>
       <c r="E32" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="B33">
         <v>8130126766</v>
       </c>
       <c r="E33" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="B34">
         <v>9650234316</v>
       </c>
       <c r="E34" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B35">
         <v>9560108369</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="D35" t="s">
         <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="B36">
         <v>9818655248</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="D36" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="E36" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -7169,242 +10048,242 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="87" customWidth="1"/>
-    <col min="2" max="2" width="15" style="89" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="89" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="89" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="90" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="86" customWidth="1"/>
+    <col min="2" max="2" width="15" style="88" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="88" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B5" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
         <v>558</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="B6" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>559</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="B7" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="B8" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="87" t="s">
+      <c r="B9" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>562</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B10" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="86" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="D2" s="88" t="s">
+      <c r="B11" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
         <v>564</v>
       </c>
-      <c r="E2" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="87" t="s">
+      <c r="B12" s="87" t="s">
+        <v>553</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="86" t="s">
         <v>565</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="87" t="s">
-        <v>566</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="87" t="s">
-        <v>567</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="87" t="s">
-        <v>568</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="87" t="s">
-        <v>569</v>
-      </c>
-      <c r="B7" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="87" t="s">
-        <v>570</v>
-      </c>
-      <c r="B8" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="87" t="s">
-        <v>571</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="87" t="s">
-        <v>572</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D10" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="87" t="s">
-        <v>573</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="87" t="s">
-        <v>574</v>
-      </c>
-      <c r="B12" s="88" t="s">
-        <v>563</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="87" t="s">
-        <v>575</v>
-      </c>
-      <c r="B13" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D13" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>564</v>
+      <c r="B13" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -7413,401 +10292,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>505</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C2">
-        <v>31253</v>
-      </c>
-      <c r="D2">
-        <v>29284</v>
-      </c>
-      <c r="E2">
-        <v>1969</v>
-      </c>
-      <c r="F2">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3">
-        <v>3080</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>5049</v>
-      </c>
-      <c r="F3">
-        <v>5070</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4">
-        <v>5000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>10049</v>
-      </c>
-      <c r="F4">
-        <v>10070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-      <c r="E5">
-        <v>1049</v>
-      </c>
-      <c r="F5">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>555</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1049</v>
-      </c>
-      <c r="F6">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1049</v>
-      </c>
-      <c r="F7">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C8">
-        <v>2300</v>
-      </c>
-      <c r="D8">
-        <v>735</v>
-      </c>
-      <c r="E8">
-        <v>2614</v>
-      </c>
-      <c r="F8">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>600</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3614</v>
-      </c>
-      <c r="F9">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>609</v>
-      </c>
-      <c r="C10">
-        <v>1500</v>
-      </c>
-      <c r="D10">
-        <v>4500</v>
-      </c>
-      <c r="E10">
-        <v>814</v>
-      </c>
-      <c r="F10">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>613</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1014</v>
-      </c>
-      <c r="F11">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>620</v>
-      </c>
-      <c r="C12">
-        <v>1400</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2414</v>
-      </c>
-      <c r="F12">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" t="s">
-        <v>666</v>
-      </c>
-      <c r="C13">
-        <v>2050</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>4464</v>
-      </c>
-      <c r="F13">
-        <v>4485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>671</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>4434</v>
-      </c>
-      <c r="F14">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>4434</v>
-      </c>
-      <c r="F15">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" t="s">
-        <v>672</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>4434</v>
-      </c>
-      <c r="F16">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>679</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1470</v>
-      </c>
-      <c r="E17">
-        <v>2964</v>
-      </c>
-      <c r="F17">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>689</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>2964</v>
-      </c>
-      <c r="F18">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>690</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1000</v>
-      </c>
-      <c r="E19">
-        <v>1964</v>
-      </c>
-      <c r="F19">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>691</v>
-      </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2064</v>
-      </c>
-      <c r="F20">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>694</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>2064</v>
-      </c>
-      <c r="F21">
-        <v>2085</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -7816,7 +10309,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -7827,7 +10320,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -7838,7 +10331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -7849,7 +10342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -7860,7 +10353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -7871,7 +10364,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>337</v>
       </c>
@@ -7882,7 +10375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -7893,7 +10386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -7904,7 +10397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>337</v>
       </c>
@@ -7915,7 +10408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>347</v>
       </c>
@@ -7926,7 +10419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>347</v>
       </c>
@@ -7937,7 +10430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>417</v>
       </c>
@@ -7948,7 +10441,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>425</v>
       </c>
@@ -7959,7 +10452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>435</v>
       </c>
@@ -7970,7 +10463,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>435</v>
       </c>
@@ -7981,7 +10474,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>435</v>
       </c>
@@ -7992,7 +10485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>445</v>
       </c>
@@ -8003,7 +10496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>446</v>
       </c>
@@ -8014,7 +10507,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>485</v>
       </c>
@@ -8025,7 +10518,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>485</v>
       </c>
@@ -8036,7 +10529,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>495</v>
       </c>
@@ -8047,7 +10540,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>495</v>
       </c>
@@ -8058,7 +10551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>495</v>
       </c>
@@ -8069,9 +10562,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
         <v>436</v>
@@ -8080,20 +10573,20 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B25" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B26" t="s">
         <v>447</v>
@@ -8102,20 +10595,20 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B27" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B28" t="s">
         <v>436</v>
@@ -8124,20 +10617,20 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="B29" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="C29">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="B30" t="s">
         <v>447</v>
@@ -8146,23 +10639,23 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="B31" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="C31">
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="B32" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -8174,19 +10667,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -8194,7 +10687,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8202,7 +10695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -8210,7 +10703,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -8218,7 +10711,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -8226,23 +10719,23 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B6">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B7">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -8250,7 +10743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -8258,7 +10751,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -8266,7 +10759,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -8274,7 +10767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -8282,7 +10775,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -8290,7 +10783,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -8298,7 +10791,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>344</v>
       </c>
@@ -8306,7 +10799,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>366</v>
       </c>
@@ -8314,7 +10807,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>367</v>
       </c>
@@ -8322,7 +10815,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -8330,7 +10823,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>370</v>
       </c>
@@ -8338,7 +10831,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>375</v>
       </c>
@@ -8346,7 +10839,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -8354,7 +10847,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>386</v>
       </c>
@@ -8362,7 +10855,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -8370,7 +10863,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>388</v>
       </c>
@@ -8378,7 +10871,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -8386,7 +10879,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>457</v>
       </c>
@@ -8394,7 +10887,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>458</v>
       </c>
@@ -8402,7 +10895,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>459</v>
       </c>
@@ -8416,7 +10909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8424,7 +10917,7 @@
       <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -9134,7 +11627,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
@@ -9170,8 +11663,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="79" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73">
         <v>1</v>
       </c>
@@ -9201,7 +11694,7 @@
       </c>
       <c r="L3" s="78"/>
     </row>
-    <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" thickBot="1">
+    <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56">
         <v>2</v>
       </c>
@@ -9233,7 +11726,7 @@
       </c>
       <c r="L4" s="62"/>
     </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -9265,7 +11758,7 @@
       </c>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -9297,7 +11790,7 @@
       </c>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -9329,7 +11822,7 @@
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>6</v>
       </c>
@@ -9361,7 +11854,7 @@
       </c>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -9391,7 +11884,7 @@
       </c>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>8</v>
       </c>
@@ -9421,7 +11914,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" s="32" customFormat="1" ht="39" thickBot="1">
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -9455,7 +11948,7 @@
       </c>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="51.75" thickBot="1">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -9487,75 +11980,75 @@
       </c>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" s="106" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A13" s="100">
+    <row r="13" spans="1:12" s="105" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="99">
         <v>11</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="101">
         <v>41947</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="101" t="s">
+      <c r="E13" s="103"/>
+      <c r="F13" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="100">
         <v>8287222934</v>
       </c>
-      <c r="H13" s="100">
+      <c r="H13" s="99">
         <v>8000</v>
       </c>
-      <c r="I13" s="100">
+      <c r="I13" s="99">
         <v>100</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="104" t="s">
+      <c r="J13" s="99"/>
+      <c r="K13" s="103" t="s">
         <v>351</v>
       </c>
-      <c r="L13" s="105"/>
-    </row>
-    <row r="14" spans="1:12" s="98" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A14" s="92">
+      <c r="L13" s="104"/>
+    </row>
+    <row r="14" spans="1:12" s="97" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="91">
         <v>12</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="93">
         <v>41947</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="99" t="s">
-        <v>602</v>
-      </c>
-      <c r="F14" s="93" t="s">
+      <c r="E14" s="98" t="s">
+        <v>590</v>
+      </c>
+      <c r="F14" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="93" t="s">
-        <v>601</v>
-      </c>
-      <c r="H14" s="92">
+      <c r="G14" s="92" t="s">
+        <v>589</v>
+      </c>
+      <c r="H14" s="91">
         <v>10000</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="91">
         <v>1500</v>
       </c>
-      <c r="J14" s="92" t="s">
-        <v>583</v>
-      </c>
-      <c r="K14" s="96" t="s">
-        <v>603</v>
-      </c>
-      <c r="L14" s="97"/>
-    </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="26.25" thickBot="1">
+      <c r="J14" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="K14" s="95" t="s">
+        <v>591</v>
+      </c>
+      <c r="L14" s="96"/>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -9587,7 +12080,7 @@
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+    <row r="16" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -9615,7 +12108,7 @@
       </c>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+    <row r="17" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -9647,7 +12140,7 @@
       </c>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="26.25" thickBot="1">
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>17</v>
       </c>
@@ -9681,7 +12174,7 @@
       </c>
       <c r="L18" s="39"/>
     </row>
-    <row r="19" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+    <row r="19" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>19</v>
       </c>
@@ -9713,27 +12206,27 @@
       </c>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1">
+    <row r="20" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>20</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H20" s="41">
         <v>5000</v>
@@ -9745,27 +12238,27 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1">
+    <row r="21" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>21</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="H21" s="41">
         <v>3000</v>
@@ -9775,31 +12268,31 @@
       </c>
       <c r="J21" s="41"/>
       <c r="K21" s="43" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L21" s="44"/>
     </row>
-    <row r="22" spans="1:12" ht="30">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="91" t="s">
-        <v>581</v>
+      <c r="E22" s="90" t="s">
+        <v>571</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H22" s="11">
         <v>3000</v>
@@ -9808,30 +12301,30 @@
         <v>1000</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="38.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>616</v>
+        <v>601</v>
+      </c>
+      <c r="E23" s="90" t="s">
+        <v>602</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>131</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="H23" s="11">
         <v>6000</v>
@@ -9840,7 +12333,7 @@
         <v>1000</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -9858,14 +12351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -9873,7 +12366,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>151</v>
       </c>
@@ -9887,13 +12380,13 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
       <c r="D2" s="15">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>154</v>
       </c>
@@ -9901,7 +12394,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>155</v>
       </c>
@@ -9912,7 +12405,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>156</v>
       </c>
@@ -9923,7 +12416,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>157</v>
       </c>
@@ -9934,7 +12427,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>158</v>
       </c>
@@ -9945,7 +12438,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>159</v>
       </c>
@@ -9956,7 +12449,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>160</v>
       </c>
@@ -9967,7 +12460,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>161</v>
       </c>
@@ -9978,7 +12471,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>162</v>
       </c>
@@ -9989,7 +12482,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>163</v>
       </c>
@@ -10000,12 +12493,12 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
         <v>165</v>
       </c>
@@ -10013,7 +12506,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>166</v>
       </c>
@@ -10021,7 +12514,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
         <v>167</v>
       </c>
@@ -10029,12 +12522,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>169</v>
       </c>
@@ -10042,7 +12535,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>170</v>
       </c>
@@ -10050,7 +12543,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>171</v>
       </c>
@@ -10058,7 +12551,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
         <v>172</v>
       </c>
@@ -10066,7 +12559,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
         <v>173</v>
       </c>
@@ -10074,7 +12567,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>174</v>
       </c>
@@ -10082,7 +12575,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
         <v>175</v>
       </c>
@@ -10090,7 +12583,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
         <v>379</v>
       </c>
@@ -10098,7 +12591,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
         <v>343</v>
       </c>
@@ -10106,7 +12599,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
         <v>348</v>
       </c>
@@ -10114,7 +12607,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="66" t="s">
         <v>349</v>
       </c>
@@ -10122,7 +12615,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="66" t="s">
         <v>350</v>
       </c>
@@ -10130,7 +12623,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="66" t="s">
         <v>380</v>
       </c>
@@ -10138,17 +12631,17 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="31" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="32" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="33" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>364</v>
       </c>
@@ -10156,7 +12649,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
         <v>365</v>
       </c>
@@ -10164,17 +12657,17 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="36" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
         <v>369</v>
       </c>
@@ -10182,7 +12675,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>371</v>
       </c>
@@ -10190,7 +12683,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>372</v>
       </c>
@@ -10198,7 +12691,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>373</v>
       </c>
@@ -10206,7 +12699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
         <v>374</v>
       </c>
@@ -10214,7 +12707,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="66" t="s">
         <v>382</v>
       </c>
@@ -10222,12 +12715,12 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="66" t="s">
         <v>383</v>
       </c>
@@ -10235,7 +12728,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
         <v>181</v>
       </c>
@@ -10243,12 +12736,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="47" t="s">
         <v>376</v>
       </c>
@@ -10256,141 +12749,141 @@
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
     </row>
-    <row r="49" spans="1:1" ht="15">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
     </row>
-    <row r="50" spans="1:1" ht="16.5">
+    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="47" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="47" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="47" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="47" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="47" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="47" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="47" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="47" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="47" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="47"/>
     </row>
-    <row r="75" spans="1:3" ht="16.5">
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="47" t="s">
         <v>208</v>
       </c>
@@ -10398,7 +12891,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="47" t="s">
         <v>389</v>
       </c>
@@ -10406,7 +12899,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="47" t="s">
         <v>390</v>
       </c>
@@ -10414,7 +12907,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="47" t="s">
         <v>209</v>
       </c>
@@ -10422,7 +12915,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="47" t="s">
         <v>391</v>
       </c>
@@ -10430,7 +12923,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="47" t="s">
         <v>210</v>
       </c>
@@ -10438,7 +12931,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="47" t="s">
         <v>392</v>
       </c>
@@ -10446,7 +12939,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="47" t="s">
         <v>393</v>
       </c>
@@ -10454,12 +12947,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="84" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="47" t="s">
         <v>394</v>
       </c>
@@ -10467,12 +12960,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="86" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="47" t="s">
         <v>213</v>
       </c>
@@ -10480,7 +12973,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="47" t="s">
         <v>395</v>
       </c>
@@ -10488,7 +12981,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="47" t="s">
         <v>396</v>
       </c>
@@ -10496,7 +12989,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="47" t="s">
         <v>397</v>
       </c>
@@ -10504,7 +12997,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="47" t="s">
         <v>398</v>
       </c>
@@ -10512,7 +13005,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="47" t="s">
         <v>399</v>
       </c>
@@ -10520,7 +13013,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="47" t="s">
         <v>400</v>
       </c>
@@ -10528,12 +13021,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="94" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="47" t="s">
         <v>401</v>
       </c>
@@ -10541,7 +13034,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="47" t="s">
         <v>402</v>
       </c>
@@ -10549,7 +13042,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="47" t="s">
         <v>403</v>
       </c>
@@ -10557,12 +13050,12 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="98" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="47" t="s">
         <v>216</v>
       </c>
@@ -10570,7 +13063,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="47" t="s">
         <v>404</v>
       </c>
@@ -10578,12 +13071,12 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="101" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="47" t="s">
         <v>405</v>
       </c>
@@ -10591,20 +13084,20 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="47"/>
     </row>
-    <row r="105" spans="1:3" ht="16.5">
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15">
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="47" t="s">
         <v>413</v>
       </c>
@@ -10612,7 +13105,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15">
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="47" t="s">
         <v>219</v>
       </c>
@@ -10620,7 +13113,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="47" t="s">
         <v>414</v>
       </c>
@@ -10628,7 +13121,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15">
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="47" t="s">
         <v>415</v>
       </c>
@@ -10636,7 +13129,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15">
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="47" t="s">
         <v>416</v>
       </c>
@@ -10644,7 +13137,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="47" t="s">
         <v>418</v>
       </c>
@@ -10652,7 +13145,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15">
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="47" t="s">
         <v>220</v>
       </c>
@@ -10660,7 +13153,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15">
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="47" t="s">
         <v>451</v>
       </c>
@@ -10668,7 +13161,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15">
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="47" t="s">
         <v>221</v>
       </c>
@@ -10676,12 +13169,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="115" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="50" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15">
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="47" t="s">
         <v>223</v>
       </c>
@@ -10689,7 +13182,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15">
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="47" t="s">
         <v>452</v>
       </c>
@@ -10697,7 +13190,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15">
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="47" t="s">
         <v>453</v>
       </c>
@@ -10705,25 +13198,25 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15">
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15">
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="47"/>
     </row>
-    <row r="121" spans="1:3" ht="16.5">
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="48" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="122" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="50" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15">
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="47" t="s">
         <v>226</v>
       </c>
@@ -10731,7 +13224,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15">
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="47" t="s">
         <v>227</v>
       </c>
@@ -10739,7 +13232,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15">
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="47" t="s">
         <v>228</v>
       </c>
@@ -10747,7 +13240,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15">
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="47" t="s">
         <v>229</v>
       </c>
@@ -10755,7 +13248,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15">
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="47" t="s">
         <v>454</v>
       </c>
@@ -10763,37 +13256,37 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="128" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="50" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="129" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="50" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="130" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="131" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="132" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="50" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="133" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="50" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15">
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="47" t="s">
         <v>236</v>
       </c>
@@ -10801,42 +13294,42 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="135" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="50" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="136" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="137" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="138" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15">
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="140" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="50" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="141" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15">
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="47" t="s">
         <v>244</v>
       </c>
@@ -10844,7 +13337,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15">
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="47" t="s">
         <v>245</v>
       </c>
@@ -10852,45 +13345,45 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="144" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="50" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="145" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="50" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="146" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="147" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="148" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="50" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="149" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="50" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15">
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="47"/>
     </row>
-    <row r="151" spans="1:3" ht="16.5">
+    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="48" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15">
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="47" t="s">
         <v>253</v>
       </c>
@@ -10898,7 +13391,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15">
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="47" t="s">
         <v>254</v>
       </c>
@@ -10906,7 +13399,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15">
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="47" t="s">
         <v>255</v>
       </c>
@@ -10914,7 +13407,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15">
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="47" t="s">
         <v>455</v>
       </c>
@@ -10922,7 +13415,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15">
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="47" t="s">
         <v>256</v>
       </c>
@@ -10930,7 +13423,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15">
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="47" t="s">
         <v>456</v>
       </c>
@@ -10938,17 +13431,17 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15">
+    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5">
+    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="48" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15">
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="47" t="s">
         <v>258</v>
       </c>
@@ -10956,7 +13449,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15">
+    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="47" t="s">
         <v>259</v>
       </c>
@@ -10964,17 +13457,17 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="162" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="163" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="50" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="164" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="50" t="s">
         <v>262</v>
       </c>
@@ -10982,7 +13475,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15">
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="47" t="s">
         <v>263</v>
       </c>
@@ -10990,62 +13483,62 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="166" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="50" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="167" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="168" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="50" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="169" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="50" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="170" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="171" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="172" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="50" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="173" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="50" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="174" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="175" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="50" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="176" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15">
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="47" t="s">
         <v>275</v>
       </c>
@@ -11053,12 +13546,12 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="178" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="50" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15">
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="47" t="s">
         <v>466</v>
       </c>
@@ -11066,7 +13559,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15">
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="47" t="s">
         <v>467</v>
       </c>
@@ -11074,12 +13567,12 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="181" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="50" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15">
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="47" t="s">
         <v>468</v>
       </c>
@@ -11087,17 +13580,17 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="183" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="184" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="50" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15">
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="47" t="s">
         <v>469</v>
       </c>
@@ -11105,55 +13598,55 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="186" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="50" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="187" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="188" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="50" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="189" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="50" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="190" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="50" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="191" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="192" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="50" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="193" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="50" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15">
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="47"/>
     </row>
-    <row r="195" spans="1:3" ht="16.5">
+    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="48" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15">
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="47" t="s">
         <v>460</v>
       </c>
@@ -11161,7 +13654,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15">
+    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="47" t="s">
         <v>289</v>
       </c>
@@ -11169,7 +13662,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15">
+    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="47" t="s">
         <v>461</v>
       </c>
@@ -11177,7 +13670,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15">
+    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="47" t="s">
         <v>470</v>
       </c>
@@ -11185,7 +13678,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15">
+    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="47" t="s">
         <v>471</v>
       </c>
@@ -11193,12 +13686,12 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="201" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="50" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15">
+    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="47" t="s">
         <v>472</v>
       </c>
@@ -11206,7 +13699,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15">
+    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="47" t="s">
         <v>473</v>
       </c>
@@ -11214,7 +13707,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15">
+    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="47" t="s">
         <v>474</v>
       </c>
@@ -11222,15 +13715,15 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15">
+    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="47"/>
     </row>
-    <row r="206" spans="1:3" ht="16.5">
+    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="48" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15">
+    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="47" t="s">
         <v>475</v>
       </c>
@@ -11238,7 +13731,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15">
+    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="47" t="s">
         <v>476</v>
       </c>
@@ -11246,7 +13739,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15">
+    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="47" t="s">
         <v>477</v>
       </c>
@@ -11254,38 +13747,38 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="210" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="50" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15">
+    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="47"/>
     </row>
-    <row r="212" spans="1:3" ht="16.5">
+    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="48" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15">
+    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="47" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15">
+    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15">
+    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="47"/>
     </row>
-    <row r="216" spans="1:3" ht="16.5">
+    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="48" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15">
+    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="47" t="s">
         <v>478</v>
       </c>
@@ -11293,12 +13786,12 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="218" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="50" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15">
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="47" t="s">
         <v>479</v>
       </c>
@@ -11306,158 +13799,158 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="220" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="50" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="221" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="50" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="222" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="50" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="223" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="50" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="224" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="50" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="55" customFormat="1" ht="15">
+    <row r="225" spans="1:1" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="50" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15">
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="47"/>
     </row>
-    <row r="227" spans="1:1" ht="16.5">
+    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="48" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15">
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="47" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15">
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="47"/>
     </row>
-    <row r="230" spans="1:1" ht="16.5">
+    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="48" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="47" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15">
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16.5">
+    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="48" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="49" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="49" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="49" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="49" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="49" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="49" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16.5">
+    <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="48" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5">
+    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="48" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5">
+    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="52" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="52" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="52" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="52" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="52" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="53" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="52" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="52" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="52" t="s">
         <v>327</v>
       </c>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,43 @@
     <sheet name="Training Weekend And Weekdays" sheetId="14" r:id="rId10"/>
     <sheet name="Electricity bill" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Induction coocker repair
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4430,11 +4465,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4509,6 +4544,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -4946,17 +4994,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4978,21 +5026,10 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5021,22 +5058,20 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1914260717410323E-2"/>
+          <c:x val="9.1914260717410337E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703417"/>
-          <c:h val="0.65498468941382326"/>
+          <c:w val="0.87753018372703406"/>
+          <c:h val="0.65498468941382348"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5178,31 +5213,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="327061856"/>
-        <c:axId val="327062416"/>
+        <c:axId val="67975424"/>
+        <c:axId val="67985408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="327061856"/>
+        <c:axId val="67975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5237,18 +5261,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327062416"/>
+        <c:crossAx val="67985408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="327062416"/>
+        <c:axId val="67985408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5266,7 +5289,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5295,7 +5317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327061856"/>
+        <c:crossAx val="67975424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5309,7 +5331,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5338,7 +5359,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5346,21 +5367,10 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5389,12 +5399,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5626,31 +5634,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="327228160"/>
-        <c:axId val="327227040"/>
+        <c:axId val="67992960"/>
+        <c:axId val="68023424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="327228160"/>
+        <c:axId val="67992960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5685,18 +5682,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327227040"/>
+        <c:crossAx val="68023424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="327227040"/>
+        <c:axId val="68023424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5714,7 +5710,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5743,7 +5738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327228160"/>
+        <c:crossAx val="67992960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5757,7 +5752,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5786,7 +5780,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6986,7 +6980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7018,10 +7012,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7053,7 +7046,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7229,14 +7221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -7250,7 +7242,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7282,7 +7274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="68" customFormat="1">
       <c r="A2" s="68" t="s">
         <v>6</v>
       </c>
@@ -7314,7 +7306,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7346,7 +7338,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>518</v>
       </c>
@@ -7369,7 +7361,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>519</v>
       </c>
@@ -7392,7 +7384,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>533</v>
       </c>
@@ -7418,7 +7410,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>537</v>
       </c>
@@ -7444,7 +7436,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>539</v>
       </c>
@@ -7470,7 +7462,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>542</v>
       </c>
@@ -7510,21 +7502,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>620</v>
       </c>
@@ -7535,7 +7527,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>623</v>
       </c>
@@ -7546,7 +7538,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -7557,7 +7549,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>625</v>
       </c>
@@ -7568,7 +7560,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>626</v>
       </c>
@@ -7579,7 +7571,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>628</v>
       </c>
@@ -7590,7 +7582,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>629</v>
       </c>
@@ -7601,7 +7593,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>627</v>
       </c>
@@ -7612,7 +7604,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>630</v>
       </c>
@@ -7623,7 +7615,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>631</v>
       </c>
@@ -7634,7 +7626,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>632</v>
       </c>
@@ -7651,14 +7643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
@@ -7666,7 +7658,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="107" customFormat="1">
       <c r="A1" s="107" t="s">
         <v>662</v>
       </c>
@@ -7686,7 +7678,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>50</v>
       </c>
@@ -7703,7 +7695,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>51</v>
       </c>
@@ -7723,7 +7715,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>54</v>
       </c>
@@ -7747,14 +7739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="110" customWidth="1"/>
     <col min="2" max="3" width="17.7109375" customWidth="1"/>
@@ -7763,8 +7755,8 @@
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:7" s="70" customFormat="1">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="70" t="s">
@@ -7780,18 +7772,18 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+    <row r="2" spans="1:7" s="111" customFormat="1">
+      <c r="A2" s="115" t="s">
         <v>674</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-    </row>
-    <row r="3" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+    </row>
+    <row r="3" spans="1:7" s="113" customFormat="1">
       <c r="A3" s="110">
         <v>42064</v>
       </c>
@@ -7809,7 +7801,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="113" customFormat="1">
       <c r="A4" s="110">
         <v>42065</v>
       </c>
@@ -7819,7 +7811,7 @@
       <c r="C4">
         <v>1000</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="113">
         <v>0</v>
       </c>
       <c r="E4">
@@ -7828,7 +7820,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="113" customFormat="1">
       <c r="A5" s="110">
         <v>42066</v>
       </c>
@@ -7847,7 +7839,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="113" customFormat="1">
       <c r="A6" s="110">
         <v>42067</v>
       </c>
@@ -7861,12 +7853,12 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>E5+B6-C6-D6</f>
         <v>2085</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="113" customFormat="1">
       <c r="A7" s="110">
         <v>42068</v>
       </c>
@@ -7885,8 +7877,8 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113">
+    <row r="8" spans="1:7" s="113" customFormat="1">
+      <c r="A8" s="112">
         <v>42069</v>
       </c>
       <c r="B8">
@@ -7903,8 +7895,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113">
+    <row r="9" spans="1:7" s="113" customFormat="1">
+      <c r="A9" s="112">
         <v>42070</v>
       </c>
       <c r="B9">
@@ -7921,8 +7913,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113">
+    <row r="10" spans="1:7" s="113" customFormat="1">
+      <c r="A10" s="112">
         <v>42071</v>
       </c>
       <c r="B10">
@@ -7939,8 +7931,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113">
+    <row r="11" spans="1:7" s="113" customFormat="1">
+      <c r="A11" s="112">
         <v>42072</v>
       </c>
       <c r="B11">
@@ -7957,8 +7949,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113">
+    <row r="12" spans="1:7" s="113" customFormat="1">
+      <c r="A12" s="112">
         <v>42073</v>
       </c>
       <c r="B12">
@@ -7975,8 +7967,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113">
+    <row r="13" spans="1:7" s="113" customFormat="1">
+      <c r="A13" s="112">
         <v>42074</v>
       </c>
       <c r="B13">
@@ -7993,8 +7985,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113">
+    <row r="14" spans="1:7" s="113" customFormat="1">
+      <c r="A14" s="112">
         <v>42075</v>
       </c>
       <c r="B14">
@@ -8011,8 +8003,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113">
+    <row r="15" spans="1:7" s="113" customFormat="1">
+      <c r="A15" s="112">
         <v>42076</v>
       </c>
       <c r="B15">
@@ -8029,8 +8021,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="113">
+    <row r="16" spans="1:7" s="113" customFormat="1">
+      <c r="A16" s="112">
         <v>42077</v>
       </c>
       <c r="B16">
@@ -8047,8 +8039,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113">
+    <row r="17" spans="1:12" s="113" customFormat="1">
+      <c r="A17" s="112">
         <v>42078</v>
       </c>
       <c r="B17">
@@ -8065,8 +8057,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="113">
+    <row r="18" spans="1:12" s="113" customFormat="1">
+      <c r="A18" s="112">
         <v>42079</v>
       </c>
       <c r="B18">
@@ -8083,8 +8075,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="113">
+    <row r="19" spans="1:12" s="113" customFormat="1">
+      <c r="A19" s="112">
         <v>42080</v>
       </c>
       <c r="B19">
@@ -8101,8 +8093,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="113">
+    <row r="20" spans="1:12" s="113" customFormat="1">
+      <c r="A20" s="112">
         <v>42081</v>
       </c>
       <c r="B20">
@@ -8119,8 +8111,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="113">
+    <row r="21" spans="1:12" s="113" customFormat="1">
+      <c r="A21" s="112">
         <v>42082</v>
       </c>
       <c r="B21">
@@ -8137,8 +8129,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113">
+    <row r="22" spans="1:12" s="113" customFormat="1">
+      <c r="A22" s="112">
         <v>42083</v>
       </c>
       <c r="B22">
@@ -8155,8 +8147,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113">
+    <row r="23" spans="1:12" s="113" customFormat="1">
+      <c r="A23" s="112">
         <v>42084</v>
       </c>
       <c r="B23">
@@ -8173,8 +8165,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="113">
+    <row r="24" spans="1:12" s="113" customFormat="1">
+      <c r="A24" s="112">
         <v>42085</v>
       </c>
       <c r="B24">
@@ -8190,12 +8182,10 @@
         <f t="shared" si="0"/>
         <v>2085</v>
       </c>
-      <c r="L24">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="113">
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" s="113" customFormat="1">
+      <c r="A25" s="112">
         <v>42086</v>
       </c>
       <c r="B25">
@@ -8211,12 +8201,10 @@
         <f t="shared" si="0"/>
         <v>2085</v>
       </c>
-      <c r="L25">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113">
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" s="113" customFormat="1">
+      <c r="A26" s="112">
         <v>42087</v>
       </c>
       <c r="B26">
@@ -8232,12 +8220,10 @@
         <f t="shared" si="0"/>
         <v>2085</v>
       </c>
-      <c r="L26">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="113">
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" s="113" customFormat="1">
+      <c r="A27" s="112">
         <v>42088</v>
       </c>
       <c r="B27">
@@ -8253,12 +8239,10 @@
         <f t="shared" si="0"/>
         <v>2085</v>
       </c>
-      <c r="L27">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="113">
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" s="113" customFormat="1">
+      <c r="A28" s="112">
         <v>42089</v>
       </c>
       <c r="B28">
@@ -8275,8 +8259,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="113">
+    <row r="29" spans="1:12" s="113" customFormat="1">
+      <c r="A29" s="112">
         <v>42090</v>
       </c>
       <c r="B29">
@@ -8293,8 +8277,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="113">
+    <row r="30" spans="1:12" s="113" customFormat="1">
+      <c r="A30" s="112">
         <v>42091</v>
       </c>
       <c r="B30">
@@ -8311,8 +8295,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="113">
+    <row r="31" spans="1:12" s="113" customFormat="1">
+      <c r="A31" s="112">
         <v>42092</v>
       </c>
       <c r="B31">
@@ -8329,8 +8313,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="113">
+    <row r="32" spans="1:12" s="113" customFormat="1">
+      <c r="A32" s="112">
         <v>42093</v>
       </c>
       <c r="B32">
@@ -8347,8 +8331,8 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="113">
+    <row r="33" spans="1:7" s="113" customFormat="1">
+      <c r="A33" s="112">
         <v>42094</v>
       </c>
       <c r="B33">
@@ -8365,17 +8349,17 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
+    <row r="34" spans="1:7" s="113" customFormat="1">
+      <c r="A34" s="112"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:7" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="113"/>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="113" customFormat="1">
+      <c r="A35" s="112"/>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1">
       <c r="A36" s="109" t="s">
         <v>15</v>
       </c>
@@ -8392,18 +8376,18 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="112" t="s">
+    <row r="37" spans="1:7" s="111" customFormat="1">
+      <c r="A37" s="115" t="s">
         <v>673</v>
       </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="110">
         <v>42047</v>
       </c>
@@ -8420,7 +8404,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="110">
         <v>42048</v>
       </c>
@@ -8437,7 +8421,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="110">
         <v>42049</v>
       </c>
@@ -8454,7 +8438,7 @@
         <v>10070</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="110">
         <v>42049</v>
       </c>
@@ -8471,7 +8455,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="110">
         <v>42050</v>
       </c>
@@ -8488,7 +8472,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="110">
         <v>42052</v>
       </c>
@@ -8505,7 +8489,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="110">
         <v>42053</v>
       </c>
@@ -8522,7 +8506,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="110">
         <v>42054</v>
       </c>
@@ -8539,7 +8523,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="110">
         <v>42055</v>
       </c>
@@ -8556,7 +8540,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="110">
         <v>42056</v>
       </c>
@@ -8573,7 +8557,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="110">
         <v>42057</v>
       </c>
@@ -8590,7 +8574,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="110">
         <v>42059</v>
       </c>
@@ -8607,7 +8591,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="110">
         <v>42060</v>
       </c>
@@ -8624,7 +8608,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="110">
         <v>42061</v>
       </c>
@@ -8641,7 +8625,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="110">
         <v>42062</v>
       </c>
@@ -8658,7 +8642,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="110">
         <v>42063</v>
       </c>
@@ -8675,7 +8659,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="B54">
         <f>SUM(B38:B53)</f>
         <v>17530</v>
@@ -8688,18 +8672,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -8712,7 +8697,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8738,7 +8723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8764,7 +8749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8787,7 +8772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -8813,7 +8798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -8839,7 +8824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -8865,7 +8850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -8888,7 +8873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -8911,7 +8896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -8937,7 +8922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>328</v>
       </c>
@@ -8963,7 +8948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>331</v>
       </c>
@@ -8989,7 +8974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="64" customFormat="1">
       <c r="A12" s="64" t="s">
         <v>334</v>
       </c>
@@ -9012,7 +8997,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>345</v>
       </c>
@@ -9038,7 +9023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>361</v>
       </c>
@@ -9064,7 +9049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="68" customFormat="1">
       <c r="A15" s="68" t="s">
         <v>34</v>
       </c>
@@ -9090,7 +9075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="70" customFormat="1">
       <c r="A16" s="70" t="s">
         <v>419</v>
       </c>
@@ -9119,7 +9104,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>427</v>
       </c>
@@ -9145,7 +9130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>433</v>
       </c>
@@ -9162,7 +9147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19">
         <v>9711307405</v>
       </c>
@@ -9179,7 +9164,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>499</v>
       </c>
@@ -9202,7 +9187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>509</v>
       </c>
@@ -9222,7 +9207,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>512</v>
       </c>
@@ -9242,7 +9227,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>566</v>
       </c>
@@ -9268,7 +9253,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>579</v>
       </c>
@@ -9291,7 +9276,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>586</v>
       </c>
@@ -9317,7 +9302,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>597</v>
       </c>
@@ -9340,7 +9325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>617</v>
       </c>
@@ -9363,7 +9348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>633</v>
       </c>
@@ -9412,14 +9397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -9428,7 +9413,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -9448,7 +9433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -9468,7 +9453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -9488,7 +9473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -9508,7 +9493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -9528,7 +9513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -9548,7 +9533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -9568,7 +9553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -9588,7 +9573,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>406</v>
       </c>
@@ -9608,7 +9593,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>439</v>
       </c>
@@ -9625,7 +9610,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>442</v>
       </c>
@@ -9642,7 +9627,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -9659,7 +9644,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -9676,7 +9661,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>489</v>
       </c>
@@ -9693,7 +9678,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>493</v>
       </c>
@@ -9710,7 +9695,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>505</v>
       </c>
@@ -9727,7 +9712,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>528</v>
       </c>
@@ -9744,7 +9729,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>574</v>
       </c>
@@ -9761,7 +9746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>583</v>
       </c>
@@ -9778,7 +9763,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>593</v>
       </c>
@@ -9792,7 +9777,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>607</v>
       </c>
@@ -9809,7 +9794,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>609</v>
       </c>
@@ -9826,7 +9811,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>613</v>
       </c>
@@ -9843,7 +9828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>636</v>
       </c>
@@ -9857,7 +9842,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>639</v>
       </c>
@@ -9868,7 +9853,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>640</v>
       </c>
@@ -9882,7 +9867,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>642</v>
       </c>
@@ -9896,7 +9881,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>644</v>
       </c>
@@ -9907,7 +9892,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>645</v>
       </c>
@@ -9921,7 +9906,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>597</v>
       </c>
@@ -9932,7 +9917,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>646</v>
       </c>
@@ -9946,7 +9931,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>648</v>
       </c>
@@ -9957,7 +9942,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>649</v>
       </c>
@@ -9968,7 +9953,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>650</v>
       </c>
@@ -9979,7 +9964,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>651</v>
       </c>
@@ -9996,7 +9981,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>654</v>
       </c>
@@ -10049,14 +10034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="86" customWidth="1"/>
     <col min="2" max="2" width="15" style="88" customWidth="1"/>
@@ -10065,7 +10050,7 @@
     <col min="5" max="5" width="13.85546875" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="54" customFormat="1">
       <c r="A1" s="84" t="s">
         <v>547</v>
       </c>
@@ -10082,7 +10067,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="86" t="s">
         <v>552</v>
       </c>
@@ -10099,7 +10084,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="86" t="s">
         <v>555</v>
       </c>
@@ -10116,7 +10101,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="86" t="s">
         <v>556</v>
       </c>
@@ -10133,7 +10118,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="86" t="s">
         <v>557</v>
       </c>
@@ -10150,7 +10135,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="86" t="s">
         <v>558</v>
       </c>
@@ -10167,7 +10152,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="86" t="s">
         <v>559</v>
       </c>
@@ -10184,7 +10169,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="86" t="s">
         <v>560</v>
       </c>
@@ -10201,7 +10186,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="86" t="s">
         <v>561</v>
       </c>
@@ -10218,7 +10203,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="86" t="s">
         <v>562</v>
       </c>
@@ -10235,7 +10220,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="86" t="s">
         <v>563</v>
       </c>
@@ -10252,7 +10237,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="86" t="s">
         <v>564</v>
       </c>
@@ -10269,7 +10254,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="86" t="s">
         <v>565</v>
       </c>
@@ -10293,14 +10278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -10309,7 +10294,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -10320,7 +10305,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -10331,7 +10316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -10342,7 +10327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -10353,7 +10338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -10364,7 +10349,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>337</v>
       </c>
@@ -10375,7 +10360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>337</v>
       </c>
@@ -10386,7 +10371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>337</v>
       </c>
@@ -10397,7 +10382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>337</v>
       </c>
@@ -10408,7 +10393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>347</v>
       </c>
@@ -10419,7 +10404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>347</v>
       </c>
@@ -10430,7 +10415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>417</v>
       </c>
@@ -10441,7 +10426,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>425</v>
       </c>
@@ -10452,7 +10437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>435</v>
       </c>
@@ -10463,7 +10448,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>435</v>
       </c>
@@ -10474,7 +10459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>435</v>
       </c>
@@ -10485,7 +10470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>445</v>
       </c>
@@ -10496,7 +10481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>446</v>
       </c>
@@ -10507,7 +10492,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>485</v>
       </c>
@@ -10518,7 +10503,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>485</v>
       </c>
@@ -10529,7 +10514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>495</v>
       </c>
@@ -10540,7 +10525,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>495</v>
       </c>
@@ -10551,7 +10536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>495</v>
       </c>
@@ -10562,7 +10547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>523</v>
       </c>
@@ -10573,7 +10558,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>531</v>
       </c>
@@ -10584,7 +10569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>577</v>
       </c>
@@ -10595,7 +10580,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>577</v>
       </c>
@@ -10606,7 +10591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>592</v>
       </c>
@@ -10617,7 +10602,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>658</v>
       </c>
@@ -10628,7 +10613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>658</v>
       </c>
@@ -10639,7 +10624,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>658</v>
       </c>
@@ -10650,7 +10635,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>669</v>
       </c>
@@ -10667,19 +10652,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -10687,7 +10672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10695,7 +10680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -10703,7 +10688,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -10711,7 +10696,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -10719,7 +10704,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>616</v>
       </c>
@@ -10727,7 +10712,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>615</v>
       </c>
@@ -10735,7 +10720,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -10743,7 +10728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -10751,7 +10736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -10759,7 +10744,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -10767,7 +10752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -10775,7 +10760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -10783,7 +10768,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -10791,7 +10776,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>344</v>
       </c>
@@ -10799,7 +10784,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>366</v>
       </c>
@@ -10807,7 +10792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>367</v>
       </c>
@@ -10815,7 +10800,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -10823,7 +10808,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>370</v>
       </c>
@@ -10831,7 +10816,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>375</v>
       </c>
@@ -10839,7 +10824,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -10847,7 +10832,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>386</v>
       </c>
@@ -10855,7 +10840,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -10863,7 +10848,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>388</v>
       </c>
@@ -10871,7 +10856,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -10879,7 +10864,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>457</v>
       </c>
@@ -10887,7 +10872,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>458</v>
       </c>
@@ -10895,7 +10880,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>459</v>
       </c>
@@ -10909,7 +10894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10917,7 +10902,7 @@
       <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -11627,7 +11612,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
@@ -11663,8 +11648,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:12" s="79" customFormat="1" ht="13.5" thickBot="1">
       <c r="A3" s="73">
         <v>1</v>
       </c>
@@ -11694,7 +11679,7 @@
       </c>
       <c r="L3" s="78"/>
     </row>
-    <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" thickBot="1">
       <c r="A4" s="56">
         <v>2</v>
       </c>
@@ -11726,7 +11711,7 @@
       </c>
       <c r="L4" s="62"/>
     </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -11758,7 +11743,7 @@
       </c>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="13.5" thickBot="1">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -11790,7 +11775,7 @@
       </c>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -11822,7 +11807,7 @@
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
       <c r="A8" s="24">
         <v>6</v>
       </c>
@@ -11854,7 +11839,7 @@
       </c>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -11884,7 +11869,7 @@
       </c>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
       <c r="A10" s="24">
         <v>8</v>
       </c>
@@ -11914,7 +11899,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" s="32" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="39" thickBot="1">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -11948,7 +11933,7 @@
       </c>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="51.75" thickBot="1">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -11980,7 +11965,7 @@
       </c>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" s="105" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="105" customFormat="1" ht="26.25" thickBot="1">
       <c r="A13" s="99">
         <v>11</v>
       </c>
@@ -12012,7 +11997,7 @@
       </c>
       <c r="L13" s="104"/>
     </row>
-    <row r="14" spans="1:12" s="97" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="97" customFormat="1" ht="45.75" thickBot="1">
       <c r="A14" s="91">
         <v>12</v>
       </c>
@@ -12048,7 +12033,7 @@
       </c>
       <c r="L14" s="96"/>
     </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="26.25" thickBot="1">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -12080,7 +12065,7 @@
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -12108,7 +12093,7 @@
       </c>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -12140,7 +12125,7 @@
       </c>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="26.25" thickBot="1">
       <c r="A18" s="36">
         <v>17</v>
       </c>
@@ -12174,7 +12159,7 @@
       </c>
       <c r="L18" s="39"/>
     </row>
-    <row r="19" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
       <c r="A19" s="24">
         <v>19</v>
       </c>
@@ -12206,7 +12191,7 @@
       </c>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1">
       <c r="A20" s="41">
         <v>20</v>
       </c>
@@ -12238,7 +12223,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1">
       <c r="A21" s="41">
         <v>21</v>
       </c>
@@ -12272,7 +12257,7 @@
       </c>
       <c r="L21" s="44"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="30">
       <c r="A22" s="11">
         <v>22</v>
       </c>
@@ -12304,7 +12289,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="38.25">
       <c r="A23" s="11">
         <v>23</v>
       </c>
@@ -12351,14 +12336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -12366,7 +12351,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="46" t="s">
         <v>151</v>
       </c>
@@ -12380,13 +12365,13 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="47"/>
       <c r="D2" s="15">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="48" t="s">
         <v>154</v>
       </c>
@@ -12394,7 +12379,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="49" t="s">
         <v>155</v>
       </c>
@@ -12405,7 +12390,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="47" t="s">
         <v>156</v>
       </c>
@@ -12416,7 +12401,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="47" t="s">
         <v>157</v>
       </c>
@@ -12427,7 +12412,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="47" t="s">
         <v>158</v>
       </c>
@@ -12438,7 +12423,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="47" t="s">
         <v>159</v>
       </c>
@@ -12449,7 +12434,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="47" t="s">
         <v>160</v>
       </c>
@@ -12460,7 +12445,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="49" t="s">
         <v>161</v>
       </c>
@@ -12471,7 +12456,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="47" t="s">
         <v>162</v>
       </c>
@@ -12482,7 +12467,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="47" t="s">
         <v>163</v>
       </c>
@@ -12493,12 +12478,12 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="50" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="47" t="s">
         <v>165</v>
       </c>
@@ -12506,7 +12491,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="47" t="s">
         <v>166</v>
       </c>
@@ -12514,7 +12499,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="47" t="s">
         <v>167</v>
       </c>
@@ -12522,12 +12507,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="50" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="49" t="s">
         <v>169</v>
       </c>
@@ -12535,7 +12520,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="47" t="s">
         <v>170</v>
       </c>
@@ -12543,7 +12528,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="47" t="s">
         <v>171</v>
       </c>
@@ -12551,7 +12536,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="47" t="s">
         <v>172</v>
       </c>
@@ -12559,7 +12544,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="47" t="s">
         <v>173</v>
       </c>
@@ -12567,7 +12552,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="47" t="s">
         <v>174</v>
       </c>
@@ -12575,7 +12560,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="47" t="s">
         <v>175</v>
       </c>
@@ -12583,7 +12568,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="66" t="s">
         <v>379</v>
       </c>
@@ -12591,7 +12576,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="47" t="s">
         <v>343</v>
       </c>
@@ -12599,7 +12584,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="66" t="s">
         <v>348</v>
       </c>
@@ -12607,7 +12592,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="66" t="s">
         <v>349</v>
       </c>
@@ -12615,7 +12600,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="66" t="s">
         <v>350</v>
       </c>
@@ -12623,7 +12608,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="66" t="s">
         <v>380</v>
       </c>
@@ -12631,17 +12616,17 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A31" s="50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A32" s="50" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A33" s="50" t="s">
         <v>364</v>
       </c>
@@ -12649,7 +12634,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="47" t="s">
         <v>365</v>
       </c>
@@ -12657,17 +12642,17 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A35" s="50" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A36" s="50" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" s="47" t="s">
         <v>369</v>
       </c>
@@ -12675,7 +12660,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15">
       <c r="A38" s="47" t="s">
         <v>371</v>
       </c>
@@ -12683,7 +12668,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" s="47" t="s">
         <v>372</v>
       </c>
@@ -12691,7 +12676,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" s="47" t="s">
         <v>373</v>
       </c>
@@ -12699,7 +12684,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" s="47" t="s">
         <v>374</v>
       </c>
@@ -12707,7 +12692,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="66" t="s">
         <v>382</v>
       </c>
@@ -12715,12 +12700,12 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A43" s="50" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="66" t="s">
         <v>383</v>
       </c>
@@ -12728,7 +12713,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="15">
       <c r="A45" s="47" t="s">
         <v>181</v>
       </c>
@@ -12736,12 +12721,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A46" s="50" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="15">
       <c r="A47" s="47" t="s">
         <v>376</v>
       </c>
@@ -12749,141 +12734,141 @@
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="15">
       <c r="A48" s="51"/>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="47"/>
     </row>
-    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="47" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" s="47" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" s="47" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="47" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="15">
       <c r="A55" s="47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="47" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="15">
       <c r="A57" s="47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" s="47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" s="47" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="15">
       <c r="A60" s="47" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="15">
       <c r="A61" s="47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="15">
       <c r="A62" s="47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="15">
       <c r="A63" s="47" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="15">
       <c r="A64" s="47" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="15">
       <c r="A65" s="47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="15">
       <c r="A66" s="47" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="15">
       <c r="A67" s="47" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="15">
       <c r="A68" s="47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="15">
       <c r="A69" s="47" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="15">
       <c r="A70" s="47" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="15">
       <c r="A71" s="47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="15">
       <c r="A72" s="47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="15">
       <c r="A73" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="15">
       <c r="A74" s="47"/>
     </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="48" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="15">
       <c r="A76" s="47" t="s">
         <v>208</v>
       </c>
@@ -12891,7 +12876,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="15">
       <c r="A77" s="47" t="s">
         <v>389</v>
       </c>
@@ -12899,7 +12884,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="15">
       <c r="A78" s="47" t="s">
         <v>390</v>
       </c>
@@ -12907,7 +12892,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="15">
       <c r="A79" s="47" t="s">
         <v>209</v>
       </c>
@@ -12915,7 +12900,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="15">
       <c r="A80" s="47" t="s">
         <v>391</v>
       </c>
@@ -12923,7 +12908,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="15">
       <c r="A81" s="47" t="s">
         <v>210</v>
       </c>
@@ -12931,7 +12916,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="15">
       <c r="A82" s="47" t="s">
         <v>392</v>
       </c>
@@ -12939,7 +12924,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="15">
       <c r="A83" s="47" t="s">
         <v>393</v>
       </c>
@@ -12947,12 +12932,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A84" s="50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="15">
       <c r="A85" s="47" t="s">
         <v>394</v>
       </c>
@@ -12960,12 +12945,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A86" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="15">
       <c r="A87" s="47" t="s">
         <v>213</v>
       </c>
@@ -12973,7 +12958,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="15">
       <c r="A88" s="47" t="s">
         <v>395</v>
       </c>
@@ -12981,7 +12966,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="15">
       <c r="A89" s="47" t="s">
         <v>396</v>
       </c>
@@ -12989,7 +12974,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="15">
       <c r="A90" s="47" t="s">
         <v>397</v>
       </c>
@@ -12997,7 +12982,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="15">
       <c r="A91" s="47" t="s">
         <v>398</v>
       </c>
@@ -13005,7 +12990,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="15">
       <c r="A92" s="47" t="s">
         <v>399</v>
       </c>
@@ -13013,7 +12998,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="15">
       <c r="A93" s="47" t="s">
         <v>400</v>
       </c>
@@ -13021,12 +13006,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A94" s="50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="15">
       <c r="A95" s="47" t="s">
         <v>401</v>
       </c>
@@ -13034,7 +13019,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="15">
       <c r="A96" s="47" t="s">
         <v>402</v>
       </c>
@@ -13042,7 +13027,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="15">
       <c r="A97" s="47" t="s">
         <v>403</v>
       </c>
@@ -13050,12 +13035,12 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A98" s="50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="15">
       <c r="A99" s="47" t="s">
         <v>216</v>
       </c>
@@ -13063,7 +13048,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="15">
       <c r="A100" s="47" t="s">
         <v>404</v>
       </c>
@@ -13071,12 +13056,12 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A101" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="15">
       <c r="A102" s="47" t="s">
         <v>405</v>
       </c>
@@ -13084,20 +13069,20 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="15">
       <c r="A103" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="15">
       <c r="A104" s="47"/>
     </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="16.5">
       <c r="A105" s="48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="15">
       <c r="A106" s="47" t="s">
         <v>413</v>
       </c>
@@ -13105,7 +13090,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="15">
       <c r="A107" s="47" t="s">
         <v>219</v>
       </c>
@@ -13113,7 +13098,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="15">
       <c r="A108" s="47" t="s">
         <v>414</v>
       </c>
@@ -13121,7 +13106,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="15">
       <c r="A109" s="47" t="s">
         <v>415</v>
       </c>
@@ -13129,7 +13114,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="15">
       <c r="A110" s="47" t="s">
         <v>416</v>
       </c>
@@ -13137,7 +13122,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="15">
       <c r="A111" s="47" t="s">
         <v>418</v>
       </c>
@@ -13145,7 +13130,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="15">
       <c r="A112" s="47" t="s">
         <v>220</v>
       </c>
@@ -13153,7 +13138,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="15">
       <c r="A113" s="47" t="s">
         <v>451</v>
       </c>
@@ -13161,7 +13146,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="15">
       <c r="A114" s="47" t="s">
         <v>221</v>
       </c>
@@ -13169,12 +13154,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A115" s="50" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="15">
       <c r="A116" s="47" t="s">
         <v>223</v>
       </c>
@@ -13182,7 +13167,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="15">
       <c r="A117" s="47" t="s">
         <v>452</v>
       </c>
@@ -13190,7 +13175,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="15">
       <c r="A118" s="47" t="s">
         <v>453</v>
       </c>
@@ -13198,25 +13183,25 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="15">
       <c r="A119" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="15">
       <c r="A120" s="47"/>
     </row>
-    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="16.5">
       <c r="A121" s="48" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A122" s="50" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="15">
       <c r="A123" s="47" t="s">
         <v>226</v>
       </c>
@@ -13224,7 +13209,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="15">
       <c r="A124" s="47" t="s">
         <v>227</v>
       </c>
@@ -13232,7 +13217,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="15">
       <c r="A125" s="47" t="s">
         <v>228</v>
       </c>
@@ -13240,7 +13225,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="15">
       <c r="A126" s="47" t="s">
         <v>229</v>
       </c>
@@ -13248,7 +13233,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="15">
       <c r="A127" s="47" t="s">
         <v>454</v>
       </c>
@@ -13256,37 +13241,37 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A128" s="50" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A129" s="50" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A130" s="50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A131" s="50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A132" s="50" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A133" s="50" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="15">
       <c r="A134" s="47" t="s">
         <v>236</v>
       </c>
@@ -13294,42 +13279,42 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A135" s="50" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A136" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A137" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A138" s="50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="15">
       <c r="A139" s="47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A140" s="50" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A141" s="50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="15">
       <c r="A142" s="47" t="s">
         <v>244</v>
       </c>
@@ -13337,7 +13322,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="15">
       <c r="A143" s="47" t="s">
         <v>245</v>
       </c>
@@ -13345,45 +13330,45 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A144" s="50" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A145" s="50" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A146" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A147" s="50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A148" s="50" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A149" s="50" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="15">
       <c r="A150" s="47"/>
     </row>
-    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="16.5">
       <c r="A151" s="48" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="15">
       <c r="A152" s="47" t="s">
         <v>253</v>
       </c>
@@ -13391,7 +13376,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="15">
       <c r="A153" s="47" t="s">
         <v>254</v>
       </c>
@@ -13399,7 +13384,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="15">
       <c r="A154" s="47" t="s">
         <v>255</v>
       </c>
@@ -13407,7 +13392,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="15">
       <c r="A155" s="47" t="s">
         <v>455</v>
       </c>
@@ -13415,7 +13400,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="15">
       <c r="A156" s="47" t="s">
         <v>256</v>
       </c>
@@ -13423,7 +13408,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="15">
       <c r="A157" s="47" t="s">
         <v>456</v>
       </c>
@@ -13431,17 +13416,17 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="15">
       <c r="A158" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="16.5">
       <c r="A159" s="48" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="15">
       <c r="A160" s="47" t="s">
         <v>258</v>
       </c>
@@ -13449,7 +13434,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="15">
       <c r="A161" s="47" t="s">
         <v>259</v>
       </c>
@@ -13457,17 +13442,17 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A162" s="50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A163" s="50" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A164" s="50" t="s">
         <v>262</v>
       </c>
@@ -13475,7 +13460,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="15">
       <c r="A165" s="47" t="s">
         <v>263</v>
       </c>
@@ -13483,62 +13468,62 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A166" s="50" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A167" s="50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A168" s="50" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A169" s="50" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A170" s="50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A171" s="50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A172" s="50" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A173" s="50" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A174" s="50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A175" s="50" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A176" s="50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="15">
       <c r="A177" s="47" t="s">
         <v>275</v>
       </c>
@@ -13546,12 +13531,12 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A178" s="50" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="15">
       <c r="A179" s="47" t="s">
         <v>466</v>
       </c>
@@ -13559,7 +13544,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="15">
       <c r="A180" s="47" t="s">
         <v>467</v>
       </c>
@@ -13567,12 +13552,12 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A181" s="50" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="15">
       <c r="A182" s="47" t="s">
         <v>468</v>
       </c>
@@ -13580,17 +13565,17 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A183" s="50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A184" s="50" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="15">
       <c r="A185" s="47" t="s">
         <v>469</v>
       </c>
@@ -13598,55 +13583,55 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A186" s="50" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A187" s="50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A188" s="50" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A189" s="50" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A190" s="50" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A191" s="50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A192" s="50" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A193" s="50" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="15">
       <c r="A194" s="47"/>
     </row>
-    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="16.5">
       <c r="A195" s="48" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="15">
       <c r="A196" s="47" t="s">
         <v>460</v>
       </c>
@@ -13654,7 +13639,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="15">
       <c r="A197" s="47" t="s">
         <v>289</v>
       </c>
@@ -13662,7 +13647,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="15">
       <c r="A198" s="47" t="s">
         <v>461</v>
       </c>
@@ -13670,7 +13655,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="15">
       <c r="A199" s="47" t="s">
         <v>470</v>
       </c>
@@ -13678,7 +13663,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="15">
       <c r="A200" s="47" t="s">
         <v>471</v>
       </c>
@@ -13686,12 +13671,12 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A201" s="50" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="15">
       <c r="A202" s="47" t="s">
         <v>472</v>
       </c>
@@ -13699,7 +13684,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="15">
       <c r="A203" s="47" t="s">
         <v>473</v>
       </c>
@@ -13707,7 +13692,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="15">
       <c r="A204" s="47" t="s">
         <v>474</v>
       </c>
@@ -13715,15 +13700,15 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="15">
       <c r="A205" s="47"/>
     </row>
-    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="16.5">
       <c r="A206" s="48" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="15">
       <c r="A207" s="47" t="s">
         <v>475</v>
       </c>
@@ -13731,7 +13716,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="15">
       <c r="A208" s="47" t="s">
         <v>476</v>
       </c>
@@ -13739,7 +13724,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="15">
       <c r="A209" s="47" t="s">
         <v>477</v>
       </c>
@@ -13747,38 +13732,38 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A210" s="50" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="15">
       <c r="A211" s="47"/>
     </row>
-    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="16.5">
       <c r="A212" s="48" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="15">
       <c r="A213" s="47" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="15">
       <c r="A214" s="47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="15">
       <c r="A215" s="47"/>
     </row>
-    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="16.5">
       <c r="A216" s="48" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="15">
       <c r="A217" s="47" t="s">
         <v>478</v>
       </c>
@@ -13786,12 +13771,12 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A218" s="50" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="15">
       <c r="A219" s="47" t="s">
         <v>479</v>
       </c>
@@ -13799,158 +13784,158 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A220" s="50" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A221" s="50" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A222" s="50" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A223" s="50" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A224" s="50" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" s="55" customFormat="1" ht="15">
       <c r="A225" s="50" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="15">
       <c r="A226" s="47"/>
     </row>
-    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="16.5">
       <c r="A227" s="48" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="15">
       <c r="A228" s="47" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="15">
       <c r="A229" s="47"/>
     </row>
-    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="16.5">
       <c r="A230" s="48" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="15">
       <c r="A231" s="47" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="15">
       <c r="A232" s="47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="16.5">
       <c r="A234" s="48" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" s="49" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" s="49" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" s="49" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" s="49" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" s="49" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" s="49" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="16.5">
       <c r="A242" s="48" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="48" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="52" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="52" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" s="52" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="52" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" s="52" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" s="53" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="52" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="52" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" s="52" t="s">
         <v>327</v>
       </c>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -5029,7 +5029,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5064,10 +5063,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1914260717410337E-2"/>
+          <c:x val="9.1914260717410351E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703406"/>
-          <c:h val="0.65498468941382348"/>
+          <c:w val="0.87753018372703395"/>
+          <c:h val="0.65498468941382371"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5214,13 +5213,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="67975424"/>
-        <c:axId val="67985408"/>
+        <c:axId val="57997184"/>
+        <c:axId val="57998720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67975424"/>
+        <c:axId val="57997184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,14 +5259,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67985408"/>
+        <c:crossAx val="57998720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67985408"/>
+        <c:axId val="57998720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5317,7 +5315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67975424"/>
+        <c:crossAx val="57997184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5359,7 +5357,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5635,13 +5633,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="67992960"/>
-        <c:axId val="68023424"/>
+        <c:axId val="58539008"/>
+        <c:axId val="58561280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67992960"/>
+        <c:axId val="58539008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5682,14 +5679,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68023424"/>
+        <c:crossAx val="58561280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68023424"/>
+        <c:axId val="58561280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5738,7 +5735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67992960"/>
+        <c:crossAx val="58539008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5780,7 +5777,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7742,8 +7739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="680">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4460,6 +4460,15 @@
   </si>
   <si>
     <t>Given to Sir</t>
+  </si>
+  <si>
+    <t>rishabh maurya</t>
+  </si>
+  <si>
+    <t>rishabhkmaurya@gmail.com</t>
+  </si>
+  <si>
+    <t>home appliance</t>
   </si>
 </sst>
 </file>
@@ -5029,6 +5038,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5063,10 +5073,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1914260717410351E-2"/>
+          <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703395"/>
-          <c:h val="0.65498468941382371"/>
+          <c:w val="0.87753018372703373"/>
+          <c:h val="0.65498468941382382"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5214,11 +5224,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57997184"/>
-        <c:axId val="57998720"/>
+        <c:axId val="64467712"/>
+        <c:axId val="64469632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57997184"/>
+        <c:axId val="64467712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5259,14 +5269,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57998720"/>
+        <c:crossAx val="64469632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57998720"/>
+        <c:axId val="64469632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,7 +5325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57997184"/>
+        <c:crossAx val="64467712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5357,7 +5367,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5634,11 +5644,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58539008"/>
-        <c:axId val="58561280"/>
+        <c:axId val="65804160"/>
+        <c:axId val="65826816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58539008"/>
+        <c:axId val="65804160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5679,14 +5689,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58561280"/>
+        <c:crossAx val="65826816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58561280"/>
+        <c:axId val="65826816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5735,7 +5745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58539008"/>
+        <c:crossAx val="65804160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5777,7 +5787,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7739,7 +7749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -9395,10 +9405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9993,6 +10003,23 @@
       </c>
       <c r="E36" t="s">
         <v>657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>677</v>
+      </c>
+      <c r="B37">
+        <v>9650044196</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D37" t="s">
+        <v>408</v>
+      </c>
+      <c r="E37" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -10025,6 +10052,7 @@
     <hyperlink ref="C31" r:id="rId26"/>
     <hyperlink ref="C35" r:id="rId27"/>
     <hyperlink ref="C36" r:id="rId28"/>
+    <hyperlink ref="C37" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="683">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4469,6 +4469,15 @@
   </si>
   <si>
     <t>home appliance</t>
+  </si>
+  <si>
+    <t>Raj shukla</t>
+  </si>
+  <si>
+    <t>rajshukla149@gmail.com</t>
+  </si>
+  <si>
+    <t>enquiry</t>
   </si>
 </sst>
 </file>
@@ -5038,7 +5047,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5075,8 +5083,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703373"/>
-          <c:h val="0.65498468941382382"/>
+          <c:w val="0.87753018372703351"/>
+          <c:h val="0.65498468941382393"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5224,11 +5232,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64467712"/>
-        <c:axId val="64469632"/>
+        <c:axId val="67945600"/>
+        <c:axId val="67947520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="64467712"/>
+        <c:axId val="67945600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5269,14 +5277,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64469632"/>
+        <c:crossAx val="67947520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="64469632"/>
+        <c:axId val="67947520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +5333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64467712"/>
+        <c:crossAx val="67945600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5367,7 +5375,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5378,7 +5386,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5644,11 +5651,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65804160"/>
-        <c:axId val="65826816"/>
+        <c:axId val="67963136"/>
+        <c:axId val="67989888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65804160"/>
+        <c:axId val="67963136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5689,14 +5696,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65826816"/>
+        <c:crossAx val="67989888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65826816"/>
+        <c:axId val="67989888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5745,7 +5752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65804160"/>
+        <c:crossAx val="67963136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5787,7 +5794,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9405,10 +9412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10020,6 +10027,23 @@
       </c>
       <c r="E37" t="s">
         <v>679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>680</v>
+      </c>
+      <c r="B38">
+        <v>9899426342</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D38" t="s">
+        <v>408</v>
+      </c>
+      <c r="E38" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -10053,6 +10077,7 @@
     <hyperlink ref="C35" r:id="rId27"/>
     <hyperlink ref="C36" r:id="rId28"/>
     <hyperlink ref="C37" r:id="rId29"/>
+    <hyperlink ref="C38" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="689">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4478,6 +4478,24 @@
   </si>
   <si>
     <t>enquiry</t>
+  </si>
+  <si>
+    <t>Mohammad sobee</t>
+  </si>
+  <si>
+    <t>10th march</t>
+  </si>
+  <si>
+    <t>Analog and digital opamp</t>
+  </si>
+  <si>
+    <t>mohadsobee33326@gmail.com</t>
+  </si>
+  <si>
+    <t>9818655248</t>
+  </si>
+  <si>
+    <t>200 Advance paid at shop</t>
   </si>
 </sst>
 </file>
@@ -5083,8 +5101,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703351"/>
-          <c:h val="0.65498468941382393"/>
+          <c:w val="0.87753018372703329"/>
+          <c:h val="0.65498468941382415"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5232,11 +5250,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67945600"/>
-        <c:axId val="67947520"/>
+        <c:axId val="53326592"/>
+        <c:axId val="53328512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67945600"/>
+        <c:axId val="53326592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5277,14 +5295,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67947520"/>
+        <c:crossAx val="53328512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67947520"/>
+        <c:axId val="53328512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,7 +5351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67945600"/>
+        <c:crossAx val="53326592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5375,7 +5393,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5651,11 +5669,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67963136"/>
-        <c:axId val="67989888"/>
+        <c:axId val="53876608"/>
+        <c:axId val="53899264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67963136"/>
+        <c:axId val="53876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5696,14 +5714,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67989888"/>
+        <c:crossAx val="53899264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67989888"/>
+        <c:axId val="53899264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5752,7 +5770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67963136"/>
+        <c:crossAx val="53876608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5794,7 +5812,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9414,8 +9432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10945,11 +10963,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12333,7 +12351,7 @@
         <v>3000</v>
       </c>
       <c r="I22" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>573</v>
@@ -12369,6 +12387,32 @@
       </c>
       <c r="J23" s="11" t="s">
         <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30">
+      <c r="B24" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="E24" s="90" t="s">
+        <v>686</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="H24" s="11">
+        <v>700</v>
+      </c>
+      <c r="I24" s="11">
+        <v>200</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -12379,9 +12423,10 @@
     <hyperlink ref="E22" r:id="rId4"/>
     <hyperlink ref="E14" r:id="rId5"/>
     <hyperlink ref="E23" r:id="rId6"/>
+    <hyperlink ref="E24" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="702">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4496,6 +4496,45 @@
   </si>
   <si>
     <t>200 Advance paid at shop</t>
+  </si>
+  <si>
+    <t>GSM based message display on lcd</t>
+  </si>
+  <si>
+    <t>11th march</t>
+  </si>
+  <si>
+    <t>Anchal</t>
+  </si>
+  <si>
+    <t>1anchu.gupta09@gmail.com</t>
+  </si>
+  <si>
+    <t>9910763789</t>
+  </si>
+  <si>
+    <t>Gesture controlled robot</t>
+  </si>
+  <si>
+    <t>Nishant</t>
+  </si>
+  <si>
+    <t>kaul.nishant22@gmail.com</t>
+  </si>
+  <si>
+    <t>9650161850</t>
+  </si>
+  <si>
+    <t>9910416703</t>
+  </si>
+  <si>
+    <t>sohaibbhat@gmail.com</t>
+  </si>
+  <si>
+    <t>sohaib</t>
+  </si>
+  <si>
+    <t>show the waveform of voice using condenser mic</t>
   </si>
 </sst>
 </file>
@@ -5101,8 +5140,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703329"/>
-          <c:h val="0.65498468941382415"/>
+          <c:w val="0.87753018372703318"/>
+          <c:h val="0.65498468941382426"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5250,11 +5289,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53326592"/>
-        <c:axId val="53328512"/>
+        <c:axId val="56079104"/>
+        <c:axId val="56081024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53326592"/>
+        <c:axId val="56079104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5295,14 +5334,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53328512"/>
+        <c:crossAx val="56081024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53328512"/>
+        <c:axId val="56081024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5351,7 +5390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53326592"/>
+        <c:crossAx val="56079104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5393,7 +5432,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5669,11 +5708,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53876608"/>
-        <c:axId val="53899264"/>
+        <c:axId val="56498048"/>
+        <c:axId val="56520704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53876608"/>
+        <c:axId val="56498048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5714,14 +5753,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53899264"/>
+        <c:crossAx val="56520704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53899264"/>
+        <c:axId val="56520704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5770,7 +5809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53876608"/>
+        <c:crossAx val="56498048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5812,7 +5851,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10963,11 +11002,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12415,6 +12454,84 @@
         <v>688</v>
       </c>
     </row>
+    <row r="25" spans="1:12" ht="30">
+      <c r="B25" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="90" t="s">
+        <v>692</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="H25" s="11">
+        <v>3500</v>
+      </c>
+      <c r="I25" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30">
+      <c r="B26" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="E26" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3500</v>
+      </c>
+      <c r="I26" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30">
+      <c r="B27" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="E27" s="90" t="s">
+        <v>699</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="H27" s="11">
+        <v>3500</v>
+      </c>
+      <c r="I27" s="11">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1"/>
@@ -12424,9 +12541,12 @@
     <hyperlink ref="E14" r:id="rId5"/>
     <hyperlink ref="E23" r:id="rId6"/>
     <hyperlink ref="E24" r:id="rId7"/>
+    <hyperlink ref="E25" r:id="rId8"/>
+    <hyperlink ref="E26" r:id="rId9"/>
+    <hyperlink ref="E27" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="703">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4535,6 +4535,9 @@
   </si>
   <si>
     <t>show the waveform of voice using condenser mic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                500+300</t>
   </si>
 </sst>
 </file>
@@ -5140,8 +5143,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703318"/>
-          <c:h val="0.65498468941382426"/>
+          <c:w val="0.87753018372703306"/>
+          <c:h val="0.65498468941382448"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5289,11 +5292,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56079104"/>
-        <c:axId val="56081024"/>
+        <c:axId val="56800000"/>
+        <c:axId val="56801920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56079104"/>
+        <c:axId val="56800000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5334,14 +5337,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56081024"/>
+        <c:crossAx val="56801920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56081024"/>
+        <c:axId val="56801920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5390,7 +5393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56079104"/>
+        <c:crossAx val="56800000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5432,7 +5435,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5708,11 +5711,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56498048"/>
-        <c:axId val="56520704"/>
+        <c:axId val="59185024"/>
+        <c:axId val="59207680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56498048"/>
+        <c:axId val="59185024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5753,14 +5756,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56520704"/>
+        <c:crossAx val="59207680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56520704"/>
+        <c:axId val="59207680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,7 +5812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56498048"/>
+        <c:crossAx val="59185024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5851,7 +5854,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8751,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9317,8 +9320,8 @@
       <c r="F23">
         <v>800</v>
       </c>
-      <c r="G23">
-        <v>300</v>
+      <c r="G23" t="s">
+        <v>702</v>
       </c>
       <c r="H23" t="s">
         <v>72</v>
@@ -11004,9 +11007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -5107,6 +5107,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5143,8 +5144,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703306"/>
-          <c:h val="0.65498468941382448"/>
+          <c:w val="0.87753018372703295"/>
+          <c:h val="0.65498468941382471"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5292,11 +5293,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56800000"/>
-        <c:axId val="56801920"/>
+        <c:axId val="56022144"/>
+        <c:axId val="56024064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56800000"/>
+        <c:axId val="56022144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5337,14 +5338,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56801920"/>
+        <c:crossAx val="56024064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56801920"/>
+        <c:axId val="56024064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5393,7 +5394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56800000"/>
+        <c:crossAx val="56022144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5435,7 +5436,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5446,6 +5447,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5644,7 +5646,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -5711,11 +5713,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59185024"/>
-        <c:axId val="59207680"/>
+        <c:axId val="57215232"/>
+        <c:axId val="57241984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="59185024"/>
+        <c:axId val="57215232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5756,14 +5758,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59207680"/>
+        <c:crossAx val="57241984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="59207680"/>
+        <c:axId val="57241984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5812,7 +5814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59185024"/>
+        <c:crossAx val="57215232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5854,7 +5856,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7816,8 +7818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8046,7 +8048,7 @@
         <v>42074</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8056,7 +8058,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="113" customFormat="1">
@@ -8074,7 +8076,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="113" customFormat="1">
@@ -8092,7 +8094,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="113" customFormat="1">
@@ -8110,7 +8112,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="113" customFormat="1">
@@ -8128,7 +8130,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="113" customFormat="1">
@@ -8146,7 +8148,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -8164,7 +8166,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -8182,7 +8184,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -8200,7 +8202,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -8218,7 +8220,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -8236,7 +8238,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -8254,7 +8256,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
       <c r="L24"/>
     </row>
@@ -8273,7 +8275,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
       <c r="L25"/>
     </row>
@@ -8292,7 +8294,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
       <c r="L26"/>
     </row>
@@ -8311,7 +8313,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
       <c r="L27"/>
     </row>
@@ -8330,7 +8332,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -8348,7 +8350,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -8366,7 +8368,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -8384,7 +8386,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -8402,7 +8404,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -8420,7 +8422,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>2085</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">
@@ -8754,7 +8756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="709">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4538,6 +4538,24 @@
   </si>
   <si>
     <t xml:space="preserve">                500+300</t>
+  </si>
+  <si>
+    <t>Rajat sharma</t>
+  </si>
+  <si>
+    <t>pwm pulse generator</t>
+  </si>
+  <si>
+    <t>12th march</t>
+  </si>
+  <si>
+    <t>Amit kumar</t>
+  </si>
+  <si>
+    <t>amitaman066@gmail.com</t>
+  </si>
+  <si>
+    <t>solar charger connection</t>
   </si>
 </sst>
 </file>
@@ -5107,7 +5125,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5144,8 +5161,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703295"/>
-          <c:h val="0.65498468941382471"/>
+          <c:w val="0.87753018372703273"/>
+          <c:h val="0.65498468941382482"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5293,11 +5310,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56022144"/>
-        <c:axId val="56024064"/>
+        <c:axId val="57984128"/>
+        <c:axId val="57986048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56022144"/>
+        <c:axId val="57984128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5338,14 +5355,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56024064"/>
+        <c:crossAx val="57986048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56024064"/>
+        <c:axId val="57986048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,7 +5411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56022144"/>
+        <c:crossAx val="57984128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5436,7 +5453,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5649,7 +5666,7 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -5713,11 +5730,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57215232"/>
-        <c:axId val="57241984"/>
+        <c:axId val="59181312"/>
+        <c:axId val="59208064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57215232"/>
+        <c:axId val="59181312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5758,14 +5775,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57241984"/>
+        <c:crossAx val="59208064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57241984"/>
+        <c:axId val="59208064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5814,7 +5831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57215232"/>
+        <c:crossAx val="59181312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5856,7 +5873,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7818,8 +7835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8066,7 +8083,7 @@
         <v>42075</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8076,7 +8093,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="113" customFormat="1">
@@ -8094,7 +8111,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="113" customFormat="1">
@@ -8112,7 +8129,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="113" customFormat="1">
@@ -8130,7 +8147,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="113" customFormat="1">
@@ -8148,7 +8165,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -8166,7 +8183,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -8184,7 +8201,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -8202,7 +8219,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -8220,7 +8237,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -8238,7 +8255,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -8256,7 +8273,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
       <c r="L24"/>
     </row>
@@ -8275,7 +8292,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
       <c r="L25"/>
     </row>
@@ -8294,7 +8311,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
       <c r="L26"/>
     </row>
@@ -8313,7 +8330,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
       <c r="L27"/>
     </row>
@@ -8332,7 +8349,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -8350,7 +8367,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -8368,7 +8385,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -8386,7 +8403,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -8404,7 +8421,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -8422,7 +8439,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>4085</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">
@@ -8754,10 +8771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9445,6 +9462,49 @@
       </c>
       <c r="H28" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>703</v>
+      </c>
+      <c r="B29">
+        <v>9899447200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>704</v>
+      </c>
+      <c r="E29" t="s">
+        <v>705</v>
+      </c>
+      <c r="F29">
+        <v>250</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>706</v>
+      </c>
+      <c r="B30">
+        <v>7503697881</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D30" t="s">
+        <v>708</v>
+      </c>
+      <c r="E30" t="s">
+        <v>705</v>
+      </c>
+      <c r="F30">
+        <v>200</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -9466,9 +9526,10 @@
     <hyperlink ref="C23" r:id="rId15"/>
     <hyperlink ref="C24" r:id="rId16"/>
     <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C30" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -5161,8 +5161,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703273"/>
-          <c:h val="0.65498468941382482"/>
+          <c:w val="0.8775301837270324"/>
+          <c:h val="0.65498468941382504"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5310,11 +5310,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57984128"/>
-        <c:axId val="57986048"/>
+        <c:axId val="56468224"/>
+        <c:axId val="56470144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57984128"/>
+        <c:axId val="56468224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5355,14 +5355,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57986048"/>
+        <c:crossAx val="56470144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57986048"/>
+        <c:axId val="56470144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,7 +5411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57984128"/>
+        <c:crossAx val="56468224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5453,7 +5453,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5666,7 +5666,7 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -5730,11 +5730,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59181312"/>
-        <c:axId val="59208064"/>
+        <c:axId val="56235904"/>
+        <c:axId val="56258560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="59181312"/>
+        <c:axId val="56235904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5775,14 +5775,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59208064"/>
+        <c:crossAx val="56258560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="59208064"/>
+        <c:axId val="56258560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5831,7 +5831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59181312"/>
+        <c:crossAx val="56235904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5873,1096 +5873,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7835,7 +6749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -8083,7 +6997,7 @@
         <v>42075</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8093,7 +7007,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="113" customFormat="1">
@@ -8111,7 +7025,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="113" customFormat="1">
@@ -8129,7 +7043,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="113" customFormat="1">
@@ -8147,7 +7061,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="113" customFormat="1">
@@ -8165,7 +7079,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -8183,7 +7097,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -8201,7 +7115,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -8219,7 +7133,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -8237,7 +7151,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -8255,7 +7169,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -8273,7 +7187,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
       <c r="L24"/>
     </row>
@@ -8292,7 +7206,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
       <c r="L25"/>
     </row>
@@ -8311,7 +7225,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
       <c r="L26"/>
     </row>
@@ -8330,7 +7244,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
       <c r="L27"/>
     </row>
@@ -8349,7 +7263,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -8367,7 +7281,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -8385,7 +7299,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -8403,7 +7317,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -8421,7 +7335,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -8439,7 +7353,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>4185</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">
@@ -8773,8 +7687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11071,8 +9985,8 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="714">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4556,6 +4556,21 @@
   </si>
   <si>
     <t>solar charger connection</t>
+  </si>
+  <si>
+    <t>density based traffic light controller using ir sensor</t>
+  </si>
+  <si>
+    <t>13th march</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>vikas6880@gmail.com</t>
+  </si>
+  <si>
+    <t>9818033534, 9999170265</t>
   </si>
 </sst>
 </file>
@@ -5125,6 +5140,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5161,8 +5177,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.8775301837270324"/>
-          <c:h val="0.65498468941382504"/>
+          <c:w val="0.87753018372703229"/>
+          <c:h val="0.65498468941382515"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5310,11 +5326,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56468224"/>
-        <c:axId val="56470144"/>
+        <c:axId val="67871488"/>
+        <c:axId val="67873408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56468224"/>
+        <c:axId val="67871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5355,14 +5371,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56470144"/>
+        <c:crossAx val="67873408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56470144"/>
+        <c:axId val="67873408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,7 +5427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56468224"/>
+        <c:crossAx val="67871488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5453,7 +5469,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5730,11 +5746,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56235904"/>
-        <c:axId val="56258560"/>
+        <c:axId val="67639168"/>
+        <c:axId val="67661824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56235904"/>
+        <c:axId val="67639168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5775,14 +5791,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56258560"/>
+        <c:crossAx val="67661824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56258560"/>
+        <c:axId val="67661824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5831,7 +5847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56235904"/>
+        <c:crossAx val="67639168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5873,7 +5889,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6749,7 +6765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -9982,11 +9998,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11409,6 +11425,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="30">
+      <c r="A24" s="11">
+        <v>24</v>
+      </c>
       <c r="B24" s="12" t="s">
         <v>685</v>
       </c>
@@ -11435,6 +11454,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="30">
+      <c r="A25" s="11">
+        <v>25</v>
+      </c>
       <c r="B25" s="12" t="s">
         <v>689</v>
       </c>
@@ -11461,6 +11483,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30">
+      <c r="A26" s="11">
+        <v>26</v>
+      </c>
       <c r="B26" s="12" t="s">
         <v>694</v>
       </c>
@@ -11487,6 +11512,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="30">
+      <c r="A27" s="11">
+        <v>27</v>
+      </c>
       <c r="B27" s="12" t="s">
         <v>701</v>
       </c>
@@ -11509,6 +11537,35 @@
         <v>3500</v>
       </c>
       <c r="I27" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30">
+      <c r="A28" s="11">
+        <v>28</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="E28" s="90" t="s">
+        <v>712</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1500</v>
+      </c>
+      <c r="I28" s="11">
         <v>500</v>
       </c>
     </row>
@@ -11524,9 +11581,10 @@
     <hyperlink ref="E25" r:id="rId8"/>
     <hyperlink ref="E26" r:id="rId9"/>
     <hyperlink ref="E27" r:id="rId10"/>
+    <hyperlink ref="E28" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="713">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4558,19 +4558,16 @@
     <t>solar charger connection</t>
   </si>
   <si>
-    <t>density based traffic light controller using ir sensor</t>
-  </si>
-  <si>
-    <t>13th march</t>
-  </si>
-  <si>
-    <t>Vikas</t>
-  </si>
-  <si>
-    <t>vikas6880@gmail.com</t>
-  </si>
-  <si>
-    <t>9818033534, 9999170265</t>
+    <t>navneetkaurbatth@gmail.com</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Garima saini</t>
+  </si>
+  <si>
+    <t>garimasaini016@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -5140,7 +5137,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5326,11 +5322,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67871488"/>
-        <c:axId val="67873408"/>
+        <c:axId val="84469248"/>
+        <c:axId val="84471168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67871488"/>
+        <c:axId val="84469248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5371,14 +5367,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67873408"/>
+        <c:crossAx val="84471168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67873408"/>
+        <c:axId val="84471168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,7 +5423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67871488"/>
+        <c:crossAx val="84469248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5480,7 +5476,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5746,11 +5741,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67639168"/>
-        <c:axId val="67661824"/>
+        <c:axId val="84506880"/>
+        <c:axId val="84509056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67639168"/>
+        <c:axId val="84506880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5791,14 +5786,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67661824"/>
+        <c:crossAx val="84509056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67661824"/>
+        <c:axId val="84509056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,7 +5842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67639168"/>
+        <c:crossAx val="84506880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6765,7 +6760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -8465,10 +8460,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9097,6 +9092,40 @@
       </c>
       <c r="E38" t="s">
         <v>682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>499</v>
+      </c>
+      <c r="B39">
+        <v>8447642041</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>711</v>
+      </c>
+      <c r="B40">
+        <v>8285515112</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -9131,6 +9160,8 @@
     <hyperlink ref="C36" r:id="rId28"/>
     <hyperlink ref="C37" r:id="rId29"/>
     <hyperlink ref="C38" r:id="rId30"/>
+    <hyperlink ref="C39" r:id="rId31"/>
+    <hyperlink ref="C40" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9998,11 +10029,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11425,9 +11456,6 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="30">
-      <c r="A24" s="11">
-        <v>24</v>
-      </c>
       <c r="B24" s="12" t="s">
         <v>685</v>
       </c>
@@ -11454,9 +11482,6 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="30">
-      <c r="A25" s="11">
-        <v>25</v>
-      </c>
       <c r="B25" s="12" t="s">
         <v>689</v>
       </c>
@@ -11483,9 +11508,6 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30">
-      <c r="A26" s="11">
-        <v>26</v>
-      </c>
       <c r="B26" s="12" t="s">
         <v>694</v>
       </c>
@@ -11512,9 +11534,6 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="30">
-      <c r="A27" s="11">
-        <v>27</v>
-      </c>
       <c r="B27" s="12" t="s">
         <v>701</v>
       </c>
@@ -11537,35 +11556,6 @@
         <v>3500</v>
       </c>
       <c r="I27" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30">
-      <c r="A28" s="11">
-        <v>28</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>712</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1500</v>
-      </c>
-      <c r="I28" s="11">
         <v>500</v>
       </c>
     </row>
@@ -11581,10 +11571,9 @@
     <hyperlink ref="E25" r:id="rId8"/>
     <hyperlink ref="E26" r:id="rId9"/>
     <hyperlink ref="E27" r:id="rId10"/>
-    <hyperlink ref="E28" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -127,7 +127,9 @@
           </rPr>
           <t xml:space="preserve">
 density based traffic light control 500/-
-advance</t>
+advance
+Solar charger connection
+100/-</t>
         </r>
       </text>
     </comment>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="708">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -5199,7 +5201,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5236,8 +5237,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703206"/>
-          <c:h val="0.65498468941382548"/>
+          <c:w val="0.87753018372703151"/>
+          <c:h val="0.65498468941382593"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5385,11 +5386,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63808256"/>
-        <c:axId val="63810176"/>
+        <c:axId val="66982656"/>
+        <c:axId val="66984576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="63808256"/>
+        <c:axId val="66982656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5430,14 +5431,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63810176"/>
+        <c:crossAx val="66984576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="63810176"/>
+        <c:axId val="66984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5486,7 +5487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63808256"/>
+        <c:crossAx val="66982656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5528,7 +5529,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5744,7 +5745,7 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -5805,11 +5806,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63575936"/>
-        <c:axId val="63598592"/>
+        <c:axId val="67004288"/>
+        <c:axId val="67018752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="63575936"/>
+        <c:axId val="67004288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,14 +5851,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63598592"/>
+        <c:crossAx val="67018752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="63598592"/>
+        <c:axId val="67018752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5906,7 +5907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63575936"/>
+        <c:crossAx val="67004288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5948,7 +5949,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6306,8 +6307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7037,7 +7038,10 @@
         <v>200</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8893,8 +8897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9159,7 +9163,7 @@
         <v>42076</v>
       </c>
       <c r="B15">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -9169,7 +9173,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="113" customFormat="1">
@@ -9187,7 +9191,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="113" customFormat="1">
@@ -9205,7 +9209,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="113" customFormat="1">
@@ -9223,7 +9227,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -9241,7 +9245,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -9259,7 +9263,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -9277,7 +9281,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9295,7 +9299,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9313,7 +9317,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9331,7 +9335,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9350,7 +9354,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9369,7 +9373,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9388,7 +9392,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9407,7 +9411,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9425,7 +9429,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9443,7 +9447,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9461,7 +9465,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9479,7 +9483,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9497,7 +9501,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -130,6 +130,57 @@
 advance
 Solar charger connection
 100/-</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Amit bhansali demo class200/-
+DTMF robot 1000/-
+Analog And digital opamp500/-</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Given To Sweeper
+1000/-</t>
         </r>
       </text>
     </comment>
@@ -5201,6 +5252,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5237,8 +5289,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703151"/>
-          <c:h val="0.65498468941382593"/>
+          <c:w val="0.8775301837270314"/>
+          <c:h val="0.65498468941382604"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5386,11 +5438,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66982656"/>
-        <c:axId val="66984576"/>
+        <c:axId val="58655488"/>
+        <c:axId val="58657408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="66982656"/>
+        <c:axId val="58655488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5431,14 +5483,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66984576"/>
+        <c:crossAx val="58657408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66984576"/>
+        <c:axId val="58657408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5487,7 +5539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66982656"/>
+        <c:crossAx val="58655488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5529,7 +5581,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5748,7 +5800,7 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -5806,11 +5858,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67004288"/>
-        <c:axId val="67018752"/>
+        <c:axId val="58681216"/>
+        <c:axId val="58695680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67004288"/>
+        <c:axId val="58681216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5851,14 +5903,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67018752"/>
+        <c:crossAx val="58695680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67018752"/>
+        <c:axId val="58695680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5907,7 +5959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67004288"/>
+        <c:crossAx val="58681216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5949,7 +6001,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8897,8 +8949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9181,17 +9233,17 @@
         <v>42077</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="113" customFormat="1">
@@ -9209,7 +9261,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="113" customFormat="1">
@@ -9227,7 +9279,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -9245,7 +9297,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -9263,7 +9315,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -9281,7 +9333,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9299,7 +9351,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9317,7 +9369,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9335,7 +9387,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9354,7 +9406,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9373,7 +9425,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9392,7 +9444,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9411,7 +9463,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9429,7 +9481,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9447,7 +9499,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9465,7 +9517,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9483,7 +9535,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9501,7 +9553,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>4885</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -180,7 +180,8 @@
           </rPr>
           <t xml:space="preserve">
 Given To Sweeper
-1000/-</t>
+1000/-
+3000/- Rent</t>
         </r>
       </text>
     </comment>
@@ -5252,7 +5253,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5289,8 +5289,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.8775301837270314"/>
-          <c:h val="0.65498468941382604"/>
+          <c:w val="0.87753018372703129"/>
+          <c:h val="0.65498468941382615"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5438,11 +5438,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58655488"/>
-        <c:axId val="58657408"/>
+        <c:axId val="56492800"/>
+        <c:axId val="56494720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58655488"/>
+        <c:axId val="56492800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5483,14 +5483,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58657408"/>
+        <c:crossAx val="56494720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58657408"/>
+        <c:axId val="56494720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,7 +5539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58655488"/>
+        <c:crossAx val="56492800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5581,7 +5581,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5858,11 +5858,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58681216"/>
-        <c:axId val="58695680"/>
+        <c:axId val="56518528"/>
+        <c:axId val="56532992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58681216"/>
+        <c:axId val="56518528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5903,14 +5903,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58695680"/>
+        <c:crossAx val="56532992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58695680"/>
+        <c:axId val="56532992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,7 +5959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58681216"/>
+        <c:crossAx val="56518528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6001,7 +6001,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8950,7 +8950,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9236,14 +9236,14 @@
         <v>1700</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="113" customFormat="1">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="113" customFormat="1">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -185,12 +185,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1500/- wireless power supply
+1500/- Alcohal sense and send message to phone</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="718">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4684,6 +4709,36 @@
   </si>
   <si>
     <t>9818033534, 9999170265</t>
+  </si>
+  <si>
+    <t>Multimeter</t>
+  </si>
+  <si>
+    <t>15th march</t>
+  </si>
+  <si>
+    <t>vikas kumar</t>
+  </si>
+  <si>
+    <t>vikashkmr429@gmail.com</t>
+  </si>
+  <si>
+    <t>V.I.E.T</t>
+  </si>
+  <si>
+    <t>9555867621</t>
+  </si>
+  <si>
+    <t>Alcohal sensor and send sms using gsm</t>
+  </si>
+  <si>
+    <t>Subham verma</t>
+  </si>
+  <si>
+    <t>9717693374</t>
+  </si>
+  <si>
+    <t>subhamverma2409@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -5289,8 +5344,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703129"/>
-          <c:h val="0.65498468941382615"/>
+          <c:w val="0.87753018372703107"/>
+          <c:h val="0.65498468941382648"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5438,11 +5493,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56492800"/>
-        <c:axId val="56494720"/>
+        <c:axId val="57475840"/>
+        <c:axId val="57477760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56492800"/>
+        <c:axId val="57475840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5483,14 +5538,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56494720"/>
+        <c:crossAx val="57477760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56494720"/>
+        <c:axId val="57477760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,7 +5594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56492800"/>
+        <c:crossAx val="57475840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5581,7 +5636,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5803,7 +5858,7 @@
                   <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5858,11 +5913,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56518528"/>
-        <c:axId val="56532992"/>
+        <c:axId val="57501568"/>
+        <c:axId val="57516032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56518528"/>
+        <c:axId val="57501568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5903,14 +5958,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56532992"/>
+        <c:crossAx val="57516032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56532992"/>
+        <c:axId val="57516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,7 +6014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56518528"/>
+        <c:crossAx val="57501568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6001,7 +6056,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7385,11 +7440,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8927,6 +8982,61 @@
         <v>500</v>
       </c>
     </row>
+    <row r="28" spans="1:12" ht="30">
+      <c r="A28" s="11">
+        <v>29</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="E28" s="90" t="s">
+        <v>711</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2500</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30">
+      <c r="B29" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="E29" s="90" t="s">
+        <v>717</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H29" s="11">
+        <v>3800</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1"/>
@@ -8939,9 +9049,11 @@
     <hyperlink ref="E25" r:id="rId8"/>
     <hyperlink ref="E26" r:id="rId9"/>
     <hyperlink ref="E27" r:id="rId10"/>
+    <hyperlink ref="E28" r:id="rId11"/>
+    <hyperlink ref="E29" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -8950,7 +9062,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9251,7 +9363,7 @@
         <v>42078</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -9261,7 +9373,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="113" customFormat="1">
@@ -9279,7 +9391,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -9297,7 +9409,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -9315,7 +9427,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -9333,7 +9445,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9351,7 +9463,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9369,7 +9481,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9387,7 +9499,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9406,7 +9518,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9425,7 +9537,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9444,7 +9556,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9463,7 +9575,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9481,7 +9593,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9499,7 +9611,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9517,7 +9629,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9535,7 +9647,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9553,7 +9665,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>2585</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">
@@ -11450,10 +11562,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11683,6 +11795,14 @@
       </c>
       <c r="B28">
         <v>1100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>708</v>
+      </c>
+      <c r="B29">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -5308,6 +5308,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5344,8 +5345,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703107"/>
-          <c:h val="0.65498468941382648"/>
+          <c:w val="0.87753018372703095"/>
+          <c:h val="0.6549846894138267"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5493,11 +5494,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57475840"/>
-        <c:axId val="57477760"/>
+        <c:axId val="60293888"/>
+        <c:axId val="60295808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57475840"/>
+        <c:axId val="60293888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5538,14 +5539,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57477760"/>
+        <c:crossAx val="60295808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57477760"/>
+        <c:axId val="60295808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5594,7 +5595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57475840"/>
+        <c:crossAx val="60293888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5636,7 +5637,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5913,11 +5914,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57501568"/>
-        <c:axId val="57516032"/>
+        <c:axId val="60323712"/>
+        <c:axId val="60334080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57501568"/>
+        <c:axId val="60323712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,14 +5959,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57516032"/>
+        <c:crossAx val="60334080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57516032"/>
+        <c:axId val="60334080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6014,7 +6015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57501568"/>
+        <c:crossAx val="60323712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6056,7 +6057,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6415,7 +6416,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9061,8 +9062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10000,7 +10001,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -206,7 +206,8 @@
           </rPr>
           <t xml:space="preserve">
 1500/- wireless power supply
-1500/- Alcohal sense and send message to phone</t>
+1500/- Alcohal sense and send message to phone
+30/- soldering</t>
         </r>
       </text>
     </comment>
@@ -5308,7 +5309,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5345,8 +5345,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703095"/>
-          <c:h val="0.6549846894138267"/>
+          <c:w val="0.87753018372703073"/>
+          <c:h val="0.65498468941382681"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5494,11 +5494,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60293888"/>
-        <c:axId val="60295808"/>
+        <c:axId val="56759040"/>
+        <c:axId val="56760960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="60293888"/>
+        <c:axId val="56759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,14 +5539,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60295808"/>
+        <c:crossAx val="56760960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="60295808"/>
+        <c:axId val="56760960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5595,7 +5595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60293888"/>
+        <c:crossAx val="56759040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5637,7 +5637,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5859,7 +5859,7 @@
                   <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3000</c:v>
+                  <c:v>3030</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5914,11 +5914,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60323712"/>
-        <c:axId val="60334080"/>
+        <c:axId val="56780672"/>
+        <c:axId val="56795136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="60323712"/>
+        <c:axId val="56780672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,14 +5959,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60334080"/>
+        <c:crossAx val="56795136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="60334080"/>
+        <c:axId val="56795136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6015,7 +6015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60323712"/>
+        <c:crossAx val="56780672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6057,7 +6057,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9062,8 +9062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9364,7 +9364,7 @@
         <v>42078</v>
       </c>
       <c r="B17">
-        <v>3000</v>
+        <v>3030</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="113" customFormat="1">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9594,7 +9594,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>5585</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="721">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4740,6 +4740,15 @@
   </si>
   <si>
     <t>subhamverma2409@gmail.com</t>
+  </si>
+  <si>
+    <t>moh anaszfar</t>
+  </si>
+  <si>
+    <t>Mangalmay</t>
+  </si>
+  <si>
+    <t>Kumar faizam</t>
   </si>
 </sst>
 </file>
@@ -5345,8 +5354,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703073"/>
-          <c:h val="0.65498468941382681"/>
+          <c:w val="0.87753018372703051"/>
+          <c:h val="0.65498468941382693"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5494,11 +5503,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56759040"/>
-        <c:axId val="56760960"/>
+        <c:axId val="55902976"/>
+        <c:axId val="55904896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56759040"/>
+        <c:axId val="55902976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,14 +5548,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56760960"/>
+        <c:crossAx val="55904896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56760960"/>
+        <c:axId val="55904896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5595,7 +5604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56759040"/>
+        <c:crossAx val="55902976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5637,7 +5646,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5914,11 +5923,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56780672"/>
-        <c:axId val="56795136"/>
+        <c:axId val="55932800"/>
+        <c:axId val="55943168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56780672"/>
+        <c:axId val="55932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,14 +5968,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56795136"/>
+        <c:crossAx val="55943168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56795136"/>
+        <c:axId val="55943168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6015,7 +6024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56780672"/>
+        <c:crossAx val="55932800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6057,7 +6066,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9062,7 +9071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -10646,10 +10655,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11277,6 +11286,34 @@
         <v>407</v>
       </c>
       <c r="E38" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>718</v>
+      </c>
+      <c r="B39">
+        <v>8510028065</v>
+      </c>
+      <c r="D39" t="s">
+        <v>719</v>
+      </c>
+      <c r="E39" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>720</v>
+      </c>
+      <c r="B40">
+        <v>7503050414</v>
+      </c>
+      <c r="D40" t="s">
+        <v>719</v>
+      </c>
+      <c r="E40" t="s">
         <v>678</v>
       </c>
     </row>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="726">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4749,6 +4749,21 @@
   </si>
   <si>
     <t>Kumar faizam</t>
+  </si>
+  <si>
+    <t>Erly Warning System For hazardious condition using wireless sensor</t>
+  </si>
+  <si>
+    <t>16th march</t>
+  </si>
+  <si>
+    <t>Garima</t>
+  </si>
+  <si>
+    <t>gariamasaini016@gmail.com</t>
+  </si>
+  <si>
+    <t>8285515112,8447642041</t>
   </si>
 </sst>
 </file>
@@ -5354,8 +5369,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703051"/>
-          <c:h val="0.65498468941382693"/>
+          <c:w val="0.8775301837270304"/>
+          <c:h val="0.65498468941382704"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5503,11 +5518,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55902976"/>
-        <c:axId val="55904896"/>
+        <c:axId val="57672448"/>
+        <c:axId val="57674368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55902976"/>
+        <c:axId val="57672448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5548,14 +5563,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55904896"/>
+        <c:crossAx val="57674368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55904896"/>
+        <c:axId val="57674368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5604,7 +5619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55902976"/>
+        <c:crossAx val="57672448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5646,7 +5661,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5657,7 +5672,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5923,11 +5937,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55932800"/>
-        <c:axId val="55943168"/>
+        <c:axId val="57702272"/>
+        <c:axId val="57712640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55932800"/>
+        <c:axId val="57702272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,14 +5982,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55943168"/>
+        <c:crossAx val="57712640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55943168"/>
+        <c:axId val="57712640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6024,7 +6038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55932800"/>
+        <c:crossAx val="57702272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6066,7 +6080,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7450,11 +7464,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9022,6 +9036,9 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="30">
+      <c r="A29" s="11">
+        <v>30</v>
+      </c>
       <c r="B29" s="12" t="s">
         <v>714</v>
       </c>
@@ -9045,6 +9062,38 @@
       </c>
       <c r="I29" s="11">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="38.25">
+      <c r="A30" s="11">
+        <v>31</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="E30" s="90" t="s">
+        <v>724</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="H30" s="11">
+        <v>5500</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1500</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -9061,9 +9110,10 @@
     <hyperlink ref="E27" r:id="rId10"/>
     <hyperlink ref="E28" r:id="rId11"/>
     <hyperlink ref="E29" r:id="rId12"/>
+    <hyperlink ref="E30" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -10657,7 +10707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -211,12 +211,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>celab
+Early Warning system for hazardoius condition using wireless sensor</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="735">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4764,6 +4779,33 @@
   </si>
   <si>
     <t>8285515112,8447642041</t>
+  </si>
+  <si>
+    <t>Advance video coding h.264</t>
+  </si>
+  <si>
+    <t>17th march</t>
+  </si>
+  <si>
+    <t>shashi</t>
+  </si>
+  <si>
+    <t>shashi25bhushan@gmail.com</t>
+  </si>
+  <si>
+    <t>I.T.S</t>
+  </si>
+  <si>
+    <t>9015142543,8287222934</t>
+  </si>
+  <si>
+    <t>Brijendra Kumar</t>
+  </si>
+  <si>
+    <t>brije92@gmail.com</t>
+  </si>
+  <si>
+    <t>8802779733</t>
   </si>
 </sst>
 </file>
@@ -5369,8 +5411,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.8775301837270304"/>
-          <c:h val="0.65498468941382704"/>
+          <c:w val="0.87753018372703018"/>
+          <c:h val="0.65498468941382726"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5518,11 +5560,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57672448"/>
-        <c:axId val="57674368"/>
+        <c:axId val="55649024"/>
+        <c:axId val="55650944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57672448"/>
+        <c:axId val="55649024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5563,14 +5605,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57674368"/>
+        <c:crossAx val="55650944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57674368"/>
+        <c:axId val="55650944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5619,7 +5661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57672448"/>
+        <c:crossAx val="55649024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5661,7 +5703,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5672,6 +5714,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5885,7 +5928,7 @@
                   <c:v>3030</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -5937,11 +5980,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57702272"/>
-        <c:axId val="57712640"/>
+        <c:axId val="55670656"/>
+        <c:axId val="55689216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57702272"/>
+        <c:axId val="55670656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5982,14 +6025,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57712640"/>
+        <c:crossAx val="55689216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57712640"/>
+        <c:axId val="55689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6038,7 +6081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57702272"/>
+        <c:crossAx val="55670656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6080,7 +6123,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7464,11 +7507,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9096,6 +9139,52 @@
         <v>600</v>
       </c>
     </row>
+    <row r="31" spans="1:12" ht="30">
+      <c r="A31" s="11">
+        <v>32</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="E31" s="90" t="s">
+        <v>729</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="H31" s="11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30">
+      <c r="C32" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="E32" s="90" t="s">
+        <v>733</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="H32" s="11">
+        <v>2800</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1"/>
@@ -9111,9 +9200,11 @@
     <hyperlink ref="E28" r:id="rId11"/>
     <hyperlink ref="E29" r:id="rId12"/>
     <hyperlink ref="E30" r:id="rId13"/>
+    <hyperlink ref="E31" r:id="rId14"/>
+    <hyperlink ref="E32" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -9121,8 +9212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9441,7 +9532,7 @@
         <v>42079</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9451,7 +9542,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="113" customFormat="1">
@@ -9469,7 +9560,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -9487,7 +9578,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -9505,7 +9596,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9523,7 +9614,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9541,7 +9632,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9559,7 +9650,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9578,7 +9669,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9597,7 +9688,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9616,7 +9707,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9635,7 +9726,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9653,7 +9744,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9671,7 +9762,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9689,7 +9780,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9707,7 +9798,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9725,7 +9816,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>5615</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -226,12 +226,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Solar panel setup
+100/-</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Given To Sir
+5000/-</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="740">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4806,6 +4856,21 @@
   </si>
   <si>
     <t>8802779733</t>
+  </si>
+  <si>
+    <t>Shashank Shekhar</t>
+  </si>
+  <si>
+    <t>shekhar.shashank27111993@gmail.com</t>
+  </si>
+  <si>
+    <t>Vineet yadav</t>
+  </si>
+  <si>
+    <t>vineetyadav141192@gmail.com</t>
+  </si>
+  <si>
+    <t>Vehicle tracking using gps and gsm</t>
   </si>
 </sst>
 </file>
@@ -5375,6 +5440,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5411,8 +5477,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703018"/>
-          <c:h val="0.65498468941382726"/>
+          <c:w val="0.87753018372703007"/>
+          <c:h val="0.65498468941382748"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5560,11 +5626,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55649024"/>
-        <c:axId val="55650944"/>
+        <c:axId val="50313856"/>
+        <c:axId val="50451200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55649024"/>
+        <c:axId val="50313856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5605,14 +5671,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55650944"/>
+        <c:crossAx val="50451200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55650944"/>
+        <c:axId val="50451200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5661,7 +5727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55649024"/>
+        <c:crossAx val="50313856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5703,7 +5769,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5980,11 +6046,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55670656"/>
-        <c:axId val="55689216"/>
+        <c:axId val="57819136"/>
+        <c:axId val="57821056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55670656"/>
+        <c:axId val="57819136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6025,14 +6091,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55689216"/>
+        <c:crossAx val="57821056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55689216"/>
+        <c:axId val="57821056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6081,7 +6147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55670656"/>
+        <c:crossAx val="57819136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6123,7 +6189,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6481,8 +6547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7511,7 +7577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9212,8 +9278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9553,14 +9619,14 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="113" customFormat="1">
@@ -9571,14 +9637,14 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -9596,7 +9662,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9614,7 +9680,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9632,7 +9698,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9650,7 +9716,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9669,7 +9735,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9688,7 +9754,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9707,7 +9773,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9726,7 +9792,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9744,7 +9810,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9762,7 +9828,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9780,7 +9846,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9798,7 +9864,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9816,7 +9882,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>7115</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">
@@ -10796,10 +10862,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10808,7 +10874,7 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -11270,7 +11336,7 @@
         <v>638</v>
       </c>
       <c r="B27">
-        <v>87042408494</v>
+        <v>8704240849</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>639</v>
@@ -11456,6 +11522,40 @@
       </c>
       <c r="E40" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>735</v>
+      </c>
+      <c r="B41">
+        <v>9716784236</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D41" t="s">
+        <v>407</v>
+      </c>
+      <c r="E41" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>737</v>
+      </c>
+      <c r="B42">
+        <v>7503847416</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D42" t="s">
+        <v>357</v>
+      </c>
+      <c r="E42" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -11490,6 +11590,8 @@
     <hyperlink ref="C36" r:id="rId28"/>
     <hyperlink ref="C37" r:id="rId29"/>
     <hyperlink ref="C38" r:id="rId30"/>
+    <hyperlink ref="C41" r:id="rId31"/>
+    <hyperlink ref="C42" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -251,7 +251,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nishant Project due pay
+9000/-</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,17 +286,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Given To Sir
+          <t>Given To Sir
 5000/-</t>
         </r>
       </text>
@@ -281,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="741">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4871,6 +4886,9 @@
   </si>
   <si>
     <t>Vehicle tracking using gps and gsm</t>
+  </si>
+  <si>
+    <t>Project Deliver</t>
   </si>
 </sst>
 </file>
@@ -4880,7 +4898,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4968,6 +4986,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -5163,7 +5194,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5416,6 +5447,20 @@
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="16" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5477,8 +5522,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372703007"/>
-          <c:h val="0.65498468941382748"/>
+          <c:w val="0.87753018372702996"/>
+          <c:h val="0.6549846894138277"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5626,11 +5671,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50313856"/>
-        <c:axId val="50451200"/>
+        <c:axId val="58872576"/>
+        <c:axId val="58874496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50313856"/>
+        <c:axId val="58872576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5671,14 +5716,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50451200"/>
+        <c:crossAx val="58874496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50451200"/>
+        <c:axId val="58874496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5727,7 +5772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50313856"/>
+        <c:crossAx val="58872576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5769,7 +5814,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6000,7 +6045,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -6046,11 +6091,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57819136"/>
-        <c:axId val="57821056"/>
+        <c:axId val="58890112"/>
+        <c:axId val="58912768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57819136"/>
+        <c:axId val="58890112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6091,14 +6136,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57821056"/>
+        <c:crossAx val="58912768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57821056"/>
+        <c:axId val="58912768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6147,7 +6192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57819136"/>
+        <c:crossAx val="58890112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6189,7 +6234,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7575,9 +7620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8999,92 +9044,107 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30">
-      <c r="A24" s="11">
+    <row r="24" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A24" s="116">
         <v>25</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="117" t="s">
         <v>683</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="117" t="s">
         <v>685</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="118" t="s">
         <v>686</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="117" t="s">
         <v>407</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="117" t="s">
         <v>687</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="116">
         <v>3500</v>
       </c>
-      <c r="I24" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30">
-      <c r="A25" s="11">
+      <c r="I24" s="116">
+        <v>3500</v>
+      </c>
+      <c r="J24" s="116" t="s">
+        <v>740</v>
+      </c>
+      <c r="K24" s="119"/>
+      <c r="L24" s="120"/>
+    </row>
+    <row r="25" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A25" s="116">
         <v>26</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="117" t="s">
         <v>688</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="117" t="s">
         <v>689</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="118" t="s">
         <v>690</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="117" t="s">
         <v>407</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="117" t="s">
         <v>691</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="116">
         <v>3500</v>
       </c>
-      <c r="I25" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30">
-      <c r="A26" s="11">
+      <c r="I25" s="116">
+        <v>3500</v>
+      </c>
+      <c r="J25" s="116" t="s">
+        <v>740</v>
+      </c>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
+    </row>
+    <row r="26" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A26" s="116">
         <v>27</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="117" t="s">
         <v>695</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="117" t="s">
         <v>694</v>
       </c>
-      <c r="E26" s="90" t="s">
+      <c r="E26" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="117" t="s">
         <v>407</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="117" t="s">
         <v>692</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="116">
         <v>3500</v>
       </c>
-      <c r="I26" s="11">
-        <v>500</v>
-      </c>
+      <c r="I26" s="116">
+        <v>3500</v>
+      </c>
+      <c r="J26" s="116" t="s">
+        <v>740</v>
+      </c>
+      <c r="K26" s="119"/>
+      <c r="L26" s="120"/>
     </row>
     <row r="27" spans="1:12" ht="30">
       <c r="A27" s="11">
@@ -9278,8 +9338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9634,17 +9694,15 @@
         <v>42081</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+        <v>9000</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20">
         <v>5000</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>2015</v>
+        <f>E19+B20-C20-D20</f>
+        <v>11015</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="113" customFormat="1">
@@ -9662,7 +9720,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9680,7 +9738,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9698,7 +9756,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9716,7 +9774,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9735,7 +9793,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9754,7 +9812,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9773,7 +9831,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9792,7 +9850,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9810,7 +9868,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9828,7 +9886,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9846,7 +9904,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9864,7 +9922,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9882,7 +9940,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">
@@ -10864,7 +10922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="745">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4889,6 +4889,18 @@
   </si>
   <si>
     <t>Project Deliver</t>
+  </si>
+  <si>
+    <t>Sumit Verma</t>
+  </si>
+  <si>
+    <t>sumitverma99999@gmail.com</t>
+  </si>
+  <si>
+    <t>Galgotias</t>
+  </si>
+  <si>
+    <t>Gesture Control robot</t>
   </si>
 </sst>
 </file>
@@ -5444,9 +5456,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5461,6 +5470,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5485,7 +5497,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5522,8 +5533,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372702996"/>
-          <c:h val="0.6549846894138277"/>
+          <c:w val="0.87753018372702984"/>
+          <c:h val="0.65498468941382781"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5671,11 +5682,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58872576"/>
-        <c:axId val="58874496"/>
+        <c:axId val="57938688"/>
+        <c:axId val="57940608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58872576"/>
+        <c:axId val="57938688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5716,14 +5727,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58874496"/>
+        <c:crossAx val="57940608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58874496"/>
+        <c:axId val="57940608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5772,7 +5783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58872576"/>
+        <c:crossAx val="57938688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5814,7 +5825,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6091,11 +6102,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58890112"/>
-        <c:axId val="58912768"/>
+        <c:axId val="57968512"/>
+        <c:axId val="57987072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58890112"/>
+        <c:axId val="57968512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6136,14 +6147,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58912768"/>
+        <c:crossAx val="57987072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58912768"/>
+        <c:axId val="57987072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6192,7 +6203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58890112"/>
+        <c:crossAx val="57968512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6234,7 +6245,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9044,107 +9055,107 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A24" s="116">
+    <row r="24" spans="1:12" s="120" customFormat="1" ht="30">
+      <c r="A24" s="115">
         <v>25</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>683</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="115" t="s">
         <v>684</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="116" t="s">
         <v>685</v>
       </c>
-      <c r="E24" s="118" t="s">
+      <c r="E24" s="117" t="s">
         <v>686</v>
       </c>
-      <c r="F24" s="117" t="s">
+      <c r="F24" s="116" t="s">
         <v>407</v>
       </c>
-      <c r="G24" s="117" t="s">
+      <c r="G24" s="116" t="s">
         <v>687</v>
       </c>
-      <c r="H24" s="116">
+      <c r="H24" s="115">
         <v>3500</v>
       </c>
-      <c r="I24" s="116">
+      <c r="I24" s="115">
         <v>3500</v>
       </c>
-      <c r="J24" s="116" t="s">
+      <c r="J24" s="115" t="s">
         <v>740</v>
       </c>
-      <c r="K24" s="119"/>
-      <c r="L24" s="120"/>
-    </row>
-    <row r="25" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A25" s="116">
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
+    </row>
+    <row r="25" spans="1:12" s="120" customFormat="1" ht="30">
+      <c r="A25" s="115">
         <v>26</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>688</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="115" t="s">
         <v>684</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="116" t="s">
         <v>689</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="117" t="s">
         <v>690</v>
       </c>
-      <c r="F25" s="117" t="s">
+      <c r="F25" s="116" t="s">
         <v>407</v>
       </c>
-      <c r="G25" s="117" t="s">
+      <c r="G25" s="116" t="s">
         <v>691</v>
       </c>
-      <c r="H25" s="116">
+      <c r="H25" s="115">
         <v>3500</v>
       </c>
-      <c r="I25" s="116">
+      <c r="I25" s="115">
         <v>3500</v>
       </c>
-      <c r="J25" s="116" t="s">
+      <c r="J25" s="115" t="s">
         <v>740</v>
       </c>
-      <c r="K25" s="119"/>
-      <c r="L25" s="120"/>
-    </row>
-    <row r="26" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A26" s="116">
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
+    </row>
+    <row r="26" spans="1:12" s="120" customFormat="1" ht="30">
+      <c r="A26" s="115">
         <v>27</v>
       </c>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="116" t="s">
         <v>695</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="115" t="s">
         <v>684</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="116" t="s">
         <v>694</v>
       </c>
-      <c r="E26" s="118" t="s">
+      <c r="E26" s="117" t="s">
         <v>693</v>
       </c>
-      <c r="F26" s="117" t="s">
+      <c r="F26" s="116" t="s">
         <v>407</v>
       </c>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="116" t="s">
         <v>692</v>
       </c>
-      <c r="H26" s="116">
+      <c r="H26" s="115">
         <v>3500</v>
       </c>
-      <c r="I26" s="116">
+      <c r="I26" s="115">
         <v>3500</v>
       </c>
-      <c r="J26" s="116" t="s">
+      <c r="J26" s="115" t="s">
         <v>740</v>
       </c>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" ht="30">
       <c r="A27" s="11">
@@ -9338,7 +9349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -9369,15 +9380,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="111" customFormat="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="121" t="s">
         <v>670</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:7" s="113" customFormat="1">
       <c r="A3" s="110">
@@ -9971,15 +9982,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="111" customFormat="1">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="121" t="s">
         <v>669</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="110">
@@ -10920,10 +10931,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11614,6 +11625,23 @@
       </c>
       <c r="E42" t="s">
         <v>739</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>741</v>
+      </c>
+      <c r="B43">
+        <v>8447632823</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D43" t="s">
+        <v>743</v>
+      </c>
+      <c r="E43" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -11650,6 +11678,7 @@
     <hyperlink ref="C38" r:id="rId30"/>
     <hyperlink ref="C41" r:id="rId31"/>
     <hyperlink ref="C42" r:id="rId32"/>
+    <hyperlink ref="C43" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="748">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4901,6 +4901,15 @@
   </si>
   <si>
     <t>Gesture Control robot</t>
+  </si>
+  <si>
+    <t>Ranbir</t>
+  </si>
+  <si>
+    <t>ranbir1256@gmail.com</t>
+  </si>
+  <si>
+    <t>Bluetooth control robot</t>
   </si>
 </sst>
 </file>
@@ -5533,8 +5542,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372702984"/>
-          <c:h val="0.65498468941382781"/>
+          <c:w val="0.87753018372702962"/>
+          <c:h val="0.65498468941382793"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5682,11 +5691,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57938688"/>
-        <c:axId val="57940608"/>
+        <c:axId val="47649536"/>
+        <c:axId val="47651456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57938688"/>
+        <c:axId val="47649536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5727,14 +5736,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57940608"/>
+        <c:crossAx val="47651456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57940608"/>
+        <c:axId val="47651456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5783,7 +5792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57938688"/>
+        <c:crossAx val="47649536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5825,7 +5834,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5836,7 +5845,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6102,11 +6110,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57968512"/>
-        <c:axId val="57987072"/>
+        <c:axId val="47679360"/>
+        <c:axId val="47697920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57968512"/>
+        <c:axId val="47679360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6147,14 +6155,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57987072"/>
+        <c:crossAx val="47697920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57987072"/>
+        <c:axId val="47697920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6203,7 +6211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57968512"/>
+        <c:crossAx val="47679360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6245,7 +6253,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10931,10 +10939,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11642,6 +11650,23 @@
       </c>
       <c r="E43" t="s">
         <v>744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>745</v>
+      </c>
+      <c r="B44">
+        <v>9411845068</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -11679,6 +11704,7 @@
     <hyperlink ref="C41" r:id="rId31"/>
     <hyperlink ref="C42" r:id="rId32"/>
     <hyperlink ref="C43" r:id="rId33"/>
+    <hyperlink ref="C44" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -291,12 +291,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+solar powered street light with auto intesity control.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="762">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4846,9 +4870,6 @@
     <t>8285515112,8447642041</t>
   </si>
   <si>
-    <t>Advance video coding h.264</t>
-  </si>
-  <si>
     <t>17th march</t>
   </si>
   <si>
@@ -4910,6 +4931,51 @@
   </si>
   <si>
     <t>Bluetooth control robot</t>
+  </si>
+  <si>
+    <t>Vikash</t>
+  </si>
+  <si>
+    <t>vikash95400@gmail.com</t>
+  </si>
+  <si>
+    <t>D.G.I</t>
+  </si>
+  <si>
+    <t>Project Soldering</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>felurio85@gmail.com</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Solar Powered led street light with auto intesity control</t>
+  </si>
+  <si>
+    <t>Within 10 Days</t>
+  </si>
+  <si>
+    <t>Rajeev</t>
+  </si>
+  <si>
+    <t>itsmerajiv13@gmail.com</t>
+  </si>
+  <si>
+    <t>Power line carrier comm</t>
+  </si>
+  <si>
+    <t>shikhar</t>
+  </si>
+  <si>
+    <t>shikhar_rajendra@yahoo.com</t>
+  </si>
+  <si>
+    <t>racing robot</t>
   </si>
 </sst>
 </file>
@@ -5542,8 +5608,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372702962"/>
-          <c:h val="0.65498468941382793"/>
+          <c:w val="0.87753018372702929"/>
+          <c:h val="0.65498468941382815"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5691,11 +5757,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47649536"/>
-        <c:axId val="47651456"/>
+        <c:axId val="59609856"/>
+        <c:axId val="59611776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="47649536"/>
+        <c:axId val="59609856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5736,14 +5802,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47651456"/>
+        <c:crossAx val="59611776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="47651456"/>
+        <c:axId val="59611776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5792,7 +5858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47649536"/>
+        <c:crossAx val="59609856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5834,7 +5900,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5845,6 +5911,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6067,7 +6134,7 @@
                   <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -6110,11 +6177,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47679360"/>
-        <c:axId val="47697920"/>
+        <c:axId val="65537920"/>
+        <c:axId val="65560576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="47679360"/>
+        <c:axId val="65537920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6155,14 +6222,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47697920"/>
+        <c:crossAx val="65560576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="47697920"/>
+        <c:axId val="65560576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6211,7 +6278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47679360"/>
+        <c:crossAx val="65537920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6253,7 +6320,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7639,9 +7706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9092,7 +9159,7 @@
         <v>3500</v>
       </c>
       <c r="J24" s="115" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K24" s="118"/>
       <c r="L24" s="119"/>
@@ -9126,7 +9193,7 @@
         <v>3500</v>
       </c>
       <c r="J25" s="115" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K25" s="118"/>
       <c r="L25" s="119"/>
@@ -9160,7 +9227,7 @@
         <v>3500</v>
       </c>
       <c r="J26" s="115" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K26" s="118"/>
       <c r="L26" s="119"/>
@@ -9289,42 +9356,48 @@
         <v>32</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="E31" s="90" t="s">
         <v>728</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="F31" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>731</v>
-      </c>
       <c r="H31" s="11">
-        <v>6000</v>
+        <v>3800</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="C32" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="E32" s="90" t="s">
         <v>732</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>733</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H32" s="11">
         <v>2800</v>
@@ -9357,8 +9430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9729,7 +9802,7 @@
         <v>42082</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9739,7 +9812,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9757,7 +9830,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9775,7 +9848,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9793,7 +9866,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9812,7 +9885,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9831,7 +9904,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9850,7 +9923,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9869,7 +9942,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9887,7 +9960,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9905,7 +9978,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9923,7 +9996,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -9941,7 +10014,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -9959,7 +10032,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>11015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">
@@ -10939,10 +11012,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11603,13 +11676,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B41">
         <v>9716784236</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D41" t="s">
         <v>407</v>
@@ -11620,53 +11693,121 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B42">
         <v>7503847416</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D42" t="s">
         <v>357</v>
       </c>
       <c r="E42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B43">
         <v>8447632823</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D43" t="s">
         <v>742</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>743</v>
-      </c>
-      <c r="E43" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B44">
         <v>9411845068</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
       <c r="E44" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>747</v>
+      </c>
+      <c r="B45">
+        <v>9540054959</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D45" t="s">
+        <v>749</v>
+      </c>
+      <c r="E45" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>751</v>
+      </c>
+      <c r="B46">
+        <v>8527423557</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>756</v>
+      </c>
+      <c r="B47">
+        <v>7503342149</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D47" t="s">
+        <v>729</v>
+      </c>
+      <c r="E47" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>759</v>
+      </c>
+      <c r="B48">
+        <v>9718671942</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D48" t="s">
+        <v>729</v>
+      </c>
+      <c r="E48" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -11705,6 +11846,10 @@
     <hyperlink ref="C42" r:id="rId32"/>
     <hyperlink ref="C43" r:id="rId33"/>
     <hyperlink ref="C44" r:id="rId34"/>
+    <hyperlink ref="C45" r:id="rId35"/>
+    <hyperlink ref="C46" r:id="rId36"/>
+    <hyperlink ref="C47" r:id="rId37"/>
+    <hyperlink ref="C48" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -311,7 +311,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-solar powered street light with auto intesity control.</t>
+solar powered street light with auto intesity control.1000/-
+Function generator
+500/-</t>
         </r>
       </text>
     </comment>
@@ -320,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="764">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4976,6 +4978,12 @@
   </si>
   <si>
     <t>racing robot</t>
+  </si>
+  <si>
+    <t>Function generator using fet</t>
+  </si>
+  <si>
+    <t>19th march</t>
   </si>
 </sst>
 </file>
@@ -5572,6 +5580,7 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5608,8 +5617,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372702929"/>
-          <c:h val="0.65498468941382815"/>
+          <c:w val="0.87753018372702918"/>
+          <c:h val="0.65498468941382826"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5757,11 +5766,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59609856"/>
-        <c:axId val="59611776"/>
+        <c:axId val="66818816"/>
+        <c:axId val="66820736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="59609856"/>
+        <c:axId val="66818816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5802,14 +5811,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59611776"/>
+        <c:crossAx val="66820736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="59611776"/>
+        <c:axId val="66820736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,7 +5867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59609856"/>
+        <c:crossAx val="66818816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5900,7 +5909,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6134,7 +6143,7 @@
                   <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -6177,11 +6186,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65537920"/>
-        <c:axId val="65560576"/>
+        <c:axId val="66983808"/>
+        <c:axId val="67002368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65537920"/>
+        <c:axId val="66983808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6222,14 +6231,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65560576"/>
+        <c:crossAx val="67002368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="65560576"/>
+        <c:axId val="67002368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,7 +6287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65537920"/>
+        <c:crossAx val="66983808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6320,7 +6329,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7704,11 +7713,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9384,6 +9393,12 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30">
+      <c r="A32" s="11">
+        <v>33</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>762</v>
+      </c>
       <c r="C32" s="11" t="s">
         <v>726</v>
       </c>
@@ -9400,7 +9415,21 @@
         <v>733</v>
       </c>
       <c r="H32" s="11">
-        <v>2800</v>
+        <v>1500</v>
+      </c>
+      <c r="I32" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11">
+        <v>34</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -9430,7 +9459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -9802,7 +9831,7 @@
         <v>42082</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9812,7 +9841,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="113" customFormat="1">
@@ -9830,7 +9859,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1">
@@ -9848,7 +9877,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1">
@@ -9866,7 +9895,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
       <c r="L24"/>
     </row>
@@ -9885,7 +9914,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
       <c r="L25"/>
     </row>
@@ -9904,7 +9933,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
       <c r="L26"/>
     </row>
@@ -9923,7 +9952,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
       <c r="L27"/>
     </row>
@@ -9942,7 +9971,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1">
@@ -9960,7 +9989,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1">
@@ -9978,7 +10007,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1">
@@ -9996,7 +10025,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1">
@@ -10014,7 +10043,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1">
@@ -10032,7 +10061,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>12015</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1">

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="768">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4984,6 +4984,18 @@
   </si>
   <si>
     <t>19th march</t>
+  </si>
+  <si>
+    <t>20th march</t>
+  </si>
+  <si>
+    <t>vikash</t>
+  </si>
+  <si>
+    <t>vikomatrey28192@gmail.com</t>
+  </si>
+  <si>
+    <t>galgotiya</t>
   </si>
 </sst>
 </file>
@@ -5617,8 +5629,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372702918"/>
-          <c:h val="0.65498468941382826"/>
+          <c:w val="0.87753018372702907"/>
+          <c:h val="0.65498468941382848"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5766,11 +5778,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66818816"/>
-        <c:axId val="66820736"/>
+        <c:axId val="94192000"/>
+        <c:axId val="94193920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="66818816"/>
+        <c:axId val="94192000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5811,14 +5823,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66820736"/>
+        <c:crossAx val="94193920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66820736"/>
+        <c:axId val="94193920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5867,7 +5879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66818816"/>
+        <c:crossAx val="94192000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5909,7 +5921,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6186,11 +6198,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66983808"/>
-        <c:axId val="67002368"/>
+        <c:axId val="94205056"/>
+        <c:axId val="94206976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="66983808"/>
+        <c:axId val="94205056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6231,14 +6243,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67002368"/>
+        <c:crossAx val="94206976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67002368"/>
+        <c:axId val="94206976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,7 +6299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66983808"/>
+        <c:crossAx val="94205056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6329,7 +6341,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9459,7 +9471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -10393,10 +10405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10758,6 +10770,17 @@
       </c>
       <c r="C32">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>764</v>
+      </c>
+      <c r="B33" t="s">
+        <v>672</v>
+      </c>
+      <c r="C33">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
@@ -11041,10 +11064,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11837,6 +11860,23 @@
       </c>
       <c r="E48" t="s">
         <v>761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>765</v>
+      </c>
+      <c r="B49">
+        <v>9717825655</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D49" t="s">
+        <v>767</v>
+      </c>
+      <c r="E49" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -11879,8 +11919,10 @@
     <hyperlink ref="C46" r:id="rId36"/>
     <hyperlink ref="C47" r:id="rId37"/>
     <hyperlink ref="C48" r:id="rId38"/>
+    <hyperlink ref="C49" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="769">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4996,6 +4996,9 @@
   </si>
   <si>
     <t>galgotiya</t>
+  </si>
+  <si>
+    <t>shikhar srivastav</t>
   </si>
 </sst>
 </file>
@@ -5592,7 +5595,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5629,8 +5631,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.1914260717410365E-2"/>
           <c:y val="0.10689814814814817"/>
-          <c:w val="0.87753018372702907"/>
-          <c:h val="0.65498468941382848"/>
+          <c:w val="0.87753018372702896"/>
+          <c:h val="0.6549846894138287"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5778,11 +5780,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94192000"/>
-        <c:axId val="94193920"/>
+        <c:axId val="83489920"/>
+        <c:axId val="83491840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94192000"/>
+        <c:axId val="83489920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,14 +5825,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94193920"/>
+        <c:crossAx val="83491840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94193920"/>
+        <c:axId val="83491840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5879,7 +5881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94192000"/>
+        <c:crossAx val="83489920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5921,7 +5923,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5932,7 +5934,6 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6198,11 +6199,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94205056"/>
-        <c:axId val="94206976"/>
+        <c:axId val="83580800"/>
+        <c:axId val="83591168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94205056"/>
+        <c:axId val="83580800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,14 +6244,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94206976"/>
+        <c:crossAx val="83591168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94206976"/>
+        <c:axId val="83591168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,7 +6300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94205056"/>
+        <c:crossAx val="83580800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6341,7 +6342,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7725,11 +7726,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9433,7 +9434,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:9">
       <c r="A33" s="11">
         <v>34</v>
       </c>
@@ -9442,6 +9443,26 @@
       </c>
       <c r="C33" s="11" t="s">
         <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="11">
+        <v>35</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -11066,7 +11087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
@@ -19,7 +19,7 @@
     <sheet name="Training Weekend And Weekdays" sheetId="14" r:id="rId10"/>
     <sheet name="Electricity bill" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0">
+    <comment ref="D20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="774">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4983,9 +4983,6 @@
     <t>Function generator using fet</t>
   </si>
   <si>
-    <t>19th march</t>
-  </si>
-  <si>
     <t>20th march</t>
   </si>
   <si>
@@ -4999,16 +4996,34 @@
   </si>
   <si>
     <t>shikhar srivastav</t>
+  </si>
+  <si>
+    <t>Mobile Signal Jammer for GSM/CDMA/3G</t>
+  </si>
+  <si>
+    <t>Raman Pathak/Rahul Chauhan</t>
+  </si>
+  <si>
+    <t>9675874258/8191849523</t>
+  </si>
+  <si>
+    <t>JP IET Meruth</t>
+  </si>
+  <si>
+    <t>ramanpathak1416@gmail.com</t>
+  </si>
+  <si>
+    <t>upto 31 March</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5304,7 +5319,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5571,6 +5586,9 @@
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5592,9 +5610,20 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5623,6 +5652,7 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -5637,6 +5667,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5778,19 +5809,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="83489920"/>
-        <c:axId val="83491840"/>
+        <c:smooth val="0"/>
+        <c:axId val="259017120"/>
+        <c:axId val="259013984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83489920"/>
+        <c:axId val="259017120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5825,17 +5868,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83491840"/>
+        <c:crossAx val="259013984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83491840"/>
+        <c:axId val="259013984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5853,6 +5897,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5881,7 +5926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83489920"/>
+        <c:crossAx val="259017120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5895,6 +5940,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5931,9 +5977,20 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5962,10 +6019,12 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6197,19 +6256,31 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="83580800"/>
-        <c:axId val="83591168"/>
+        <c:smooth val="0"/>
+        <c:axId val="259019080"/>
+        <c:axId val="259018688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83580800"/>
+        <c:axId val="259019080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6244,17 +6315,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83591168"/>
+        <c:crossAx val="259018688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83591168"/>
+        <c:axId val="259018688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6272,6 +6344,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6300,7 +6373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83580800"/>
+        <c:crossAx val="259019080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6314,6 +6387,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6456,7 +6530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6488,9 +6562,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6522,6 +6597,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6697,14 +6773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -6717,7 +6793,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6743,7 +6819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -6769,7 +6845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -6792,7 +6868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -6818,7 +6894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6844,7 +6920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -6870,7 +6946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6893,7 +6969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -6916,7 +6992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -6942,7 +7018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>327</v>
       </c>
@@ -6968,7 +7044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>330</v>
       </c>
@@ -6994,7 +7070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="64" customFormat="1">
+    <row r="12" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>333</v>
       </c>
@@ -7017,7 +7093,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>344</v>
       </c>
@@ -7043,7 +7119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>360</v>
       </c>
@@ -7069,7 +7145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="68" customFormat="1">
+    <row r="15" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
         <v>34</v>
       </c>
@@ -7095,7 +7171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="70" customFormat="1">
+    <row r="16" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>418</v>
       </c>
@@ -7124,7 +7200,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>426</v>
       </c>
@@ -7150,7 +7226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>430</v>
       </c>
@@ -7167,7 +7243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>9711307405</v>
       </c>
@@ -7184,7 +7260,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>495</v>
       </c>
@@ -7207,7 +7283,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -7227,7 +7303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -7247,7 +7323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>562</v>
       </c>
@@ -7273,7 +7349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>575</v>
       </c>
@@ -7296,7 +7372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>582</v>
       </c>
@@ -7322,7 +7398,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>593</v>
       </c>
@@ -7345,7 +7421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>613</v>
       </c>
@@ -7368,7 +7444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>629</v>
       </c>
@@ -7391,7 +7467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>697</v>
       </c>
@@ -7411,7 +7487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>700</v>
       </c>
@@ -7437,7 +7513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>679</v>
       </c>
@@ -7488,21 +7564,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>616</v>
       </c>
@@ -7513,7 +7589,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>619</v>
       </c>
@@ -7524,7 +7600,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>620</v>
       </c>
@@ -7535,7 +7611,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>621</v>
       </c>
@@ -7546,7 +7622,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>622</v>
       </c>
@@ -7557,7 +7633,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>624</v>
       </c>
@@ -7568,7 +7644,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>625</v>
       </c>
@@ -7579,7 +7655,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>623</v>
       </c>
@@ -7590,7 +7666,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>626</v>
       </c>
@@ -7601,7 +7677,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>627</v>
       </c>
@@ -7612,7 +7688,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>628</v>
       </c>
@@ -7629,14 +7705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
@@ -7644,7 +7720,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="107" customFormat="1">
+    <row r="1" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>658</v>
       </c>
@@ -7664,7 +7740,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
@@ -7681,7 +7757,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51</v>
       </c>
@@ -7701,7 +7777,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>54</v>
       </c>
@@ -7725,15 +7801,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -8443,7 +8519,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
@@ -8479,8 +8555,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="79" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73">
         <v>1</v>
       </c>
@@ -8510,7 +8586,7 @@
       </c>
       <c r="L3" s="78"/>
     </row>
-    <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" thickBot="1">
+    <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56">
         <v>2</v>
       </c>
@@ -8542,7 +8618,7 @@
       </c>
       <c r="L4" s="62"/>
     </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -8574,7 +8650,7 @@
       </c>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -8606,7 +8682,7 @@
       </c>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -8638,7 +8714,7 @@
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>6</v>
       </c>
@@ -8670,7 +8746,7 @@
       </c>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -8700,7 +8776,7 @@
       </c>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>8</v>
       </c>
@@ -8730,7 +8806,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" s="32" customFormat="1" ht="39" thickBot="1">
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -8764,7 +8840,7 @@
       </c>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="51.75" thickBot="1">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -8796,7 +8872,7 @@
       </c>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" s="105" customFormat="1" ht="26.25" thickBot="1">
+    <row r="13" spans="1:12" s="105" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="99">
         <v>11</v>
       </c>
@@ -8828,7 +8904,7 @@
       </c>
       <c r="L13" s="104"/>
     </row>
-    <row r="14" spans="1:12" s="97" customFormat="1" ht="45.75" thickBot="1">
+    <row r="14" spans="1:12" s="97" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>12</v>
       </c>
@@ -8864,7 +8940,7 @@
       </c>
       <c r="L14" s="96"/>
     </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="26.25" thickBot="1">
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -8896,7 +8972,7 @@
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+    <row r="16" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -8924,7 +9000,7 @@
       </c>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+    <row r="17" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -8956,7 +9032,7 @@
       </c>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="26.25" thickBot="1">
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>17</v>
       </c>
@@ -8990,7 +9066,7 @@
       </c>
       <c r="L18" s="39"/>
     </row>
-    <row r="19" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+    <row r="19" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>19</v>
       </c>
@@ -9022,7 +9098,7 @@
       </c>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1">
+    <row r="20" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>20</v>
       </c>
@@ -9054,7 +9130,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1">
+    <row r="21" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>21</v>
       </c>
@@ -9088,7 +9164,7 @@
       </c>
       <c r="L21" s="44"/>
     </row>
-    <row r="22" spans="1:12" ht="30">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>22</v>
       </c>
@@ -9120,7 +9196,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="38.25">
+    <row r="23" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>23</v>
       </c>
@@ -9152,7 +9228,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="120" customFormat="1" ht="30">
+    <row r="24" spans="1:12" s="120" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="115">
         <v>25</v>
       </c>
@@ -9186,7 +9262,7 @@
       <c r="K24" s="118"/>
       <c r="L24" s="119"/>
     </row>
-    <row r="25" spans="1:12" s="120" customFormat="1" ht="30">
+    <row r="25" spans="1:12" s="120" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="115">
         <v>26</v>
       </c>
@@ -9220,7 +9296,7 @@
       <c r="K25" s="118"/>
       <c r="L25" s="119"/>
     </row>
-    <row r="26" spans="1:12" s="120" customFormat="1" ht="30">
+    <row r="26" spans="1:12" s="120" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="115">
         <v>27</v>
       </c>
@@ -9254,7 +9330,7 @@
       <c r="K26" s="118"/>
       <c r="L26" s="119"/>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>28</v>
       </c>
@@ -9283,7 +9359,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>29</v>
       </c>
@@ -9312,7 +9388,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>30</v>
       </c>
@@ -9341,7 +9417,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="38.25">
+    <row r="30" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>31</v>
       </c>
@@ -9373,7 +9449,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>32</v>
       </c>
@@ -9405,7 +9481,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>33</v>
       </c>
@@ -9434,18 +9510,39 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>34</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>762</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>768</v>
+      </c>
+      <c r="C33" s="122">
+        <v>42084</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="E33" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="H33" s="11">
+        <v>3300</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>35</v>
       </c>
@@ -9453,10 +9550,10 @@
         <v>761</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H34" s="11">
         <v>2000</v>
@@ -9482,21 +9579,22 @@
     <hyperlink ref="E30" r:id="rId13"/>
     <hyperlink ref="E31" r:id="rId14"/>
     <hyperlink ref="E32" r:id="rId15"/>
+    <hyperlink ref="E33" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="110" customWidth="1"/>
     <col min="2" max="3" width="17.7109375" customWidth="1"/>
@@ -9505,7 +9603,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="70" customFormat="1">
+    <row r="1" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
@@ -9522,7 +9620,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="111" customFormat="1">
+    <row r="2" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="121" t="s">
         <v>670</v>
       </c>
@@ -9533,7 +9631,7 @@
       <c r="F2" s="121"/>
       <c r="G2" s="121"/>
     </row>
-    <row r="3" spans="1:7" s="113" customFormat="1">
+    <row r="3" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110">
         <v>42064</v>
       </c>
@@ -9551,7 +9649,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" s="113" customFormat="1">
+    <row r="4" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="110">
         <v>42065</v>
       </c>
@@ -9570,7 +9668,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7" s="113" customFormat="1">
+    <row r="5" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="110">
         <v>42066</v>
       </c>
@@ -9589,7 +9687,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7" s="113" customFormat="1">
+    <row r="6" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="110">
         <v>42067</v>
       </c>
@@ -9608,7 +9706,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7" s="113" customFormat="1">
+    <row r="7" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110">
         <v>42068</v>
       </c>
@@ -9627,7 +9725,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" s="113" customFormat="1">
+    <row r="8" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="112">
         <v>42069</v>
       </c>
@@ -9645,7 +9743,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="113" customFormat="1">
+    <row r="9" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="112">
         <v>42070</v>
       </c>
@@ -9663,7 +9761,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="113" customFormat="1">
+    <row r="10" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="112">
         <v>42071</v>
       </c>
@@ -9681,7 +9779,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="113" customFormat="1">
+    <row r="11" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="112">
         <v>42072</v>
       </c>
@@ -9699,7 +9797,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="113" customFormat="1">
+    <row r="12" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="112">
         <v>42073</v>
       </c>
@@ -9717,7 +9815,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="113" customFormat="1">
+    <row r="13" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="112">
         <v>42074</v>
       </c>
@@ -9735,7 +9833,7 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="113" customFormat="1">
+    <row r="14" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="112">
         <v>42075</v>
       </c>
@@ -9753,7 +9851,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="113" customFormat="1">
+    <row r="15" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="112">
         <v>42076</v>
       </c>
@@ -9771,7 +9869,7 @@
         <v>4885</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="113" customFormat="1">
+    <row r="16" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112">
         <v>42077</v>
       </c>
@@ -9789,7 +9887,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="113" customFormat="1">
+    <row r="17" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="112">
         <v>42078</v>
       </c>
@@ -9807,7 +9905,7 @@
         <v>5615</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="113" customFormat="1">
+    <row r="18" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="112">
         <v>42079</v>
       </c>
@@ -9825,7 +9923,7 @@
         <v>7115</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="113" customFormat="1">
+    <row r="19" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="112">
         <v>42080</v>
       </c>
@@ -9843,7 +9941,7 @@
         <v>7015</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="113" customFormat="1">
+    <row r="20" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112">
         <v>42081</v>
       </c>
@@ -9859,7 +9957,7 @@
         <v>11015</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="113" customFormat="1">
+    <row r="21" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112">
         <v>42082</v>
       </c>
@@ -9877,7 +9975,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="113" customFormat="1">
+    <row r="22" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112">
         <v>42083</v>
       </c>
@@ -9895,7 +9993,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="113" customFormat="1">
+    <row r="23" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="112">
         <v>42084</v>
       </c>
@@ -9913,7 +10011,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="113" customFormat="1">
+    <row r="24" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="112">
         <v>42085</v>
       </c>
@@ -9932,7 +10030,7 @@
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" s="113" customFormat="1">
+    <row r="25" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="112">
         <v>42086</v>
       </c>
@@ -9951,7 +10049,7 @@
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" s="113" customFormat="1">
+    <row r="26" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112">
         <v>42087</v>
       </c>
@@ -9970,7 +10068,7 @@
       </c>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" s="113" customFormat="1">
+    <row r="27" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="112">
         <v>42088</v>
       </c>
@@ -9989,7 +10087,7 @@
       </c>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" s="113" customFormat="1">
+    <row r="28" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="112">
         <v>42089</v>
       </c>
@@ -10007,7 +10105,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="113" customFormat="1">
+    <row r="29" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="112">
         <v>42090</v>
       </c>
@@ -10025,7 +10123,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="113" customFormat="1">
+    <row r="30" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="112">
         <v>42091</v>
       </c>
@@ -10043,7 +10141,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="113" customFormat="1">
+    <row r="31" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="112">
         <v>42092</v>
       </c>
@@ -10061,7 +10159,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="113" customFormat="1">
+    <row r="32" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="112">
         <v>42093</v>
       </c>
@@ -10079,7 +10177,7 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="113" customFormat="1">
+    <row r="33" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="112">
         <v>42094</v>
       </c>
@@ -10097,17 +10195,17 @@
         <v>12515</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="113" customFormat="1">
+    <row r="34" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="112"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:7" s="113" customFormat="1">
+    <row r="35" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="112"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1">
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>15</v>
       </c>
@@ -10124,7 +10222,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="111" customFormat="1">
+    <row r="37" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="121" t="s">
         <v>669</v>
       </c>
@@ -10135,7 +10233,7 @@
       <c r="F37" s="121"/>
       <c r="G37" s="121"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="110">
         <v>42047</v>
       </c>
@@ -10152,7 +10250,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="110">
         <v>42048</v>
       </c>
@@ -10169,7 +10267,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="110">
         <v>42049</v>
       </c>
@@ -10186,7 +10284,7 @@
         <v>10070</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="110">
         <v>42049</v>
       </c>
@@ -10203,7 +10301,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="110">
         <v>42050</v>
       </c>
@@ -10220,7 +10318,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="110">
         <v>42052</v>
       </c>
@@ -10237,7 +10335,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="110">
         <v>42053</v>
       </c>
@@ -10254,7 +10352,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="110">
         <v>42054</v>
       </c>
@@ -10271,7 +10369,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="110">
         <v>42055</v>
       </c>
@@ -10288,7 +10386,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="110">
         <v>42056</v>
       </c>
@@ -10305,7 +10403,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="110">
         <v>42057</v>
       </c>
@@ -10322,7 +10420,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="110">
         <v>42059</v>
       </c>
@@ -10339,7 +10437,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="110">
         <v>42060</v>
       </c>
@@ -10356,7 +10454,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="110">
         <v>42061</v>
       </c>
@@ -10373,7 +10471,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="110">
         <v>42062</v>
       </c>
@@ -10390,7 +10488,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="110">
         <v>42063</v>
       </c>
@@ -10407,7 +10505,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <f>SUM(B38:B53)</f>
         <v>17530</v>
@@ -10425,14 +10523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -10441,7 +10539,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -10452,7 +10550,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -10463,7 +10561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -10474,7 +10572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -10485,7 +10583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -10496,7 +10594,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>336</v>
       </c>
@@ -10507,7 +10605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>336</v>
       </c>
@@ -10518,7 +10616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>336</v>
       </c>
@@ -10529,7 +10627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>336</v>
       </c>
@@ -10540,7 +10638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>346</v>
       </c>
@@ -10551,7 +10649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>346</v>
       </c>
@@ -10562,7 +10660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>416</v>
       </c>
@@ -10573,7 +10671,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>424</v>
       </c>
@@ -10584,7 +10682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>432</v>
       </c>
@@ -10595,7 +10693,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>432</v>
       </c>
@@ -10606,7 +10704,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>432</v>
       </c>
@@ -10617,7 +10715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>442</v>
       </c>
@@ -10628,7 +10726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>443</v>
       </c>
@@ -10639,7 +10737,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>481</v>
       </c>
@@ -10650,7 +10748,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>481</v>
       </c>
@@ -10661,7 +10759,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>491</v>
       </c>
@@ -10672,7 +10770,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>491</v>
       </c>
@@ -10683,7 +10781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>491</v>
       </c>
@@ -10694,7 +10792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>519</v>
       </c>
@@ -10705,7 +10803,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>527</v>
       </c>
@@ -10716,7 +10814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>573</v>
       </c>
@@ -10727,7 +10825,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>573</v>
       </c>
@@ -10738,7 +10836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>588</v>
       </c>
@@ -10749,7 +10847,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>654</v>
       </c>
@@ -10760,7 +10858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>654</v>
       </c>
@@ -10771,7 +10869,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>654</v>
       </c>
@@ -10782,7 +10880,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>665</v>
       </c>
@@ -10793,9 +10891,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B33" t="s">
         <v>672</v>
@@ -10810,14 +10908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -10830,7 +10928,7 @@
     <col min="10" max="10" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10859,7 +10957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="68" customFormat="1">
+    <row r="2" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>6</v>
       </c>
@@ -10891,7 +10989,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10920,7 +11018,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>514</v>
       </c>
@@ -10943,7 +11041,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>515</v>
       </c>
@@ -10966,7 +11064,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>529</v>
       </c>
@@ -10992,7 +11090,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>533</v>
       </c>
@@ -11018,7 +11116,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>535</v>
       </c>
@@ -11044,7 +11142,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>538</v>
       </c>
@@ -11084,14 +11182,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -11100,7 +11198,7 @@
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -11120,7 +11218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -11140,7 +11238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -11160,7 +11258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -11180,7 +11278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -11200,7 +11298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -11220,7 +11318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -11240,7 +11338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>355</v>
       </c>
@@ -11260,7 +11358,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>405</v>
       </c>
@@ -11280,7 +11378,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>436</v>
       </c>
@@ -11297,7 +11395,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>439</v>
       </c>
@@ -11314,7 +11412,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>459</v>
       </c>
@@ -11331,7 +11429,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>477</v>
       </c>
@@ -11348,7 +11446,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>485</v>
       </c>
@@ -11365,7 +11463,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>489</v>
       </c>
@@ -11382,7 +11480,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>501</v>
       </c>
@@ -11399,7 +11497,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>524</v>
       </c>
@@ -11416,7 +11514,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>570</v>
       </c>
@@ -11433,7 +11531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>579</v>
       </c>
@@ -11450,7 +11548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>589</v>
       </c>
@@ -11464,7 +11562,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>603</v>
       </c>
@@ -11481,7 +11579,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>605</v>
       </c>
@@ -11498,7 +11596,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>609</v>
       </c>
@@ -11515,7 +11613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>632</v>
       </c>
@@ -11529,7 +11627,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>635</v>
       </c>
@@ -11540,7 +11638,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>636</v>
       </c>
@@ -11554,7 +11652,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>638</v>
       </c>
@@ -11568,7 +11666,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>640</v>
       </c>
@@ -11579,7 +11677,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>641</v>
       </c>
@@ -11593,7 +11691,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>593</v>
       </c>
@@ -11604,7 +11702,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>642</v>
       </c>
@@ -11618,7 +11716,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>644</v>
       </c>
@@ -11629,7 +11727,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>645</v>
       </c>
@@ -11640,7 +11738,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>646</v>
       </c>
@@ -11651,7 +11749,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>647</v>
       </c>
@@ -11668,7 +11766,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>650</v>
       </c>
@@ -11685,7 +11783,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>673</v>
       </c>
@@ -11702,7 +11800,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>676</v>
       </c>
@@ -11719,7 +11817,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>718</v>
       </c>
@@ -11733,7 +11831,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>720</v>
       </c>
@@ -11747,7 +11845,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>734</v>
       </c>
@@ -11764,7 +11862,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>736</v>
       </c>
@@ -11781,7 +11879,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>740</v>
       </c>
@@ -11798,7 +11896,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>744</v>
       </c>
@@ -11815,7 +11913,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>747</v>
       </c>
@@ -11832,7 +11930,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>751</v>
       </c>
@@ -11849,7 +11947,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>756</v>
       </c>
@@ -11866,7 +11964,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>759</v>
       </c>
@@ -11883,18 +11981,18 @@
         <v>761</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B49">
         <v>9717825655</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D49" t="s">
         <v>766</v>
-      </c>
-      <c r="D49" t="s">
-        <v>767</v>
       </c>
       <c r="E49" t="s">
         <v>678</v>
@@ -11948,14 +12046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="86" customWidth="1"/>
     <col min="2" max="2" width="15" style="88" customWidth="1"/>
@@ -11964,7 +12062,7 @@
     <col min="5" max="5" width="13.85546875" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1">
+    <row r="1" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>543</v>
       </c>
@@ -11981,7 +12079,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>548</v>
       </c>
@@ -11998,7 +12096,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
         <v>551</v>
       </c>
@@ -12015,7 +12113,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="86" t="s">
         <v>552</v>
       </c>
@@ -12032,7 +12130,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>553</v>
       </c>
@@ -12049,7 +12147,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>554</v>
       </c>
@@ -12066,7 +12164,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
         <v>555</v>
       </c>
@@ -12083,7 +12181,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
         <v>556</v>
       </c>
@@ -12100,7 +12198,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="s">
         <v>557</v>
       </c>
@@ -12117,7 +12215,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="s">
         <v>558</v>
       </c>
@@ -12134,7 +12232,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="86" t="s">
         <v>559</v>
       </c>
@@ -12151,7 +12249,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="86" t="s">
         <v>560</v>
       </c>
@@ -12168,7 +12266,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>561</v>
       </c>
@@ -12192,19 +12290,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -12212,7 +12310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -12220,7 +12318,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -12228,7 +12326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -12236,7 +12334,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -12244,7 +12342,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>612</v>
       </c>
@@ -12252,7 +12350,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>611</v>
       </c>
@@ -12260,7 +12358,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -12268,7 +12366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -12276,7 +12374,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -12284,7 +12382,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -12292,7 +12390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -12300,7 +12398,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -12308,7 +12406,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -12316,7 +12414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>343</v>
       </c>
@@ -12324,7 +12422,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>365</v>
       </c>
@@ -12332,7 +12430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>366</v>
       </c>
@@ -12340,7 +12438,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>367</v>
       </c>
@@ -12348,7 +12446,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -12356,7 +12454,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>374</v>
       </c>
@@ -12364,7 +12462,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>380</v>
       </c>
@@ -12372,7 +12470,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>385</v>
       </c>
@@ -12380,7 +12478,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>386</v>
       </c>
@@ -12388,7 +12486,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -12396,7 +12494,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -12404,7 +12502,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>454</v>
       </c>
@@ -12412,7 +12510,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>455</v>
       </c>
@@ -12420,7 +12518,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>456</v>
       </c>
@@ -12428,7 +12526,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>708</v>
       </c>
@@ -12442,14 +12540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -12457,7 +12555,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>150</v>
       </c>
@@ -12471,13 +12569,13 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
       <c r="D2" s="15">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>153</v>
       </c>
@@ -12485,7 +12583,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>154</v>
       </c>
@@ -12496,7 +12594,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>155</v>
       </c>
@@ -12507,7 +12605,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>156</v>
       </c>
@@ -12518,7 +12616,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>157</v>
       </c>
@@ -12529,7 +12627,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>158</v>
       </c>
@@ -12540,7 +12638,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>159</v>
       </c>
@@ -12551,7 +12649,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
         <v>160</v>
       </c>
@@ -12562,7 +12660,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>161</v>
       </c>
@@ -12573,7 +12671,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>162</v>
       </c>
@@ -12584,12 +12682,12 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
         <v>164</v>
       </c>
@@ -12597,7 +12695,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>165</v>
       </c>
@@ -12605,7 +12703,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
         <v>166</v>
       </c>
@@ -12613,12 +12711,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
         <v>168</v>
       </c>
@@ -12626,7 +12724,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>169</v>
       </c>
@@ -12634,7 +12732,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>170</v>
       </c>
@@ -12642,7 +12740,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="47" t="s">
         <v>171</v>
       </c>
@@ -12650,7 +12748,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
         <v>172</v>
       </c>
@@ -12658,7 +12756,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
         <v>173</v>
       </c>
@@ -12666,7 +12764,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
         <v>174</v>
       </c>
@@ -12674,7 +12772,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
         <v>378</v>
       </c>
@@ -12682,7 +12780,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="47" t="s">
         <v>342</v>
       </c>
@@ -12690,7 +12788,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
         <v>347</v>
       </c>
@@ -12698,7 +12796,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="66" t="s">
         <v>348</v>
       </c>
@@ -12706,7 +12804,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="66" t="s">
         <v>349</v>
       </c>
@@ -12714,7 +12812,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="66" t="s">
         <v>379</v>
       </c>
@@ -12722,17 +12820,17 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="31" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="32" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="33" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
         <v>363</v>
       </c>
@@ -12740,7 +12838,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="47" t="s">
         <v>364</v>
       </c>
@@ -12748,17 +12846,17 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="36" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="47" t="s">
         <v>368</v>
       </c>
@@ -12766,7 +12864,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="47" t="s">
         <v>370</v>
       </c>
@@ -12774,7 +12872,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
         <v>371</v>
       </c>
@@ -12782,7 +12880,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="47" t="s">
         <v>372</v>
       </c>
@@ -12790,7 +12888,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="47" t="s">
         <v>373</v>
       </c>
@@ -12798,7 +12896,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="66" t="s">
         <v>381</v>
       </c>
@@ -12806,12 +12904,12 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="66" t="s">
         <v>382</v>
       </c>
@@ -12819,7 +12917,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
         <v>180</v>
       </c>
@@ -12827,12 +12925,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="47" t="s">
         <v>375</v>
       </c>
@@ -12840,141 +12938,141 @@
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
     </row>
-    <row r="49" spans="1:1" ht="15">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
     </row>
-    <row r="50" spans="1:1" ht="16.5">
+    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="47" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="47" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="47" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="47" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="47" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="47" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="47" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="47" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="47" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="47" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="47" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="47" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="47" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="47"/>
     </row>
-    <row r="75" spans="1:3" ht="16.5">
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="47" t="s">
         <v>207</v>
       </c>
@@ -12982,7 +13080,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="47" t="s">
         <v>388</v>
       </c>
@@ -12990,7 +13088,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="47" t="s">
         <v>389</v>
       </c>
@@ -12998,7 +13096,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="47" t="s">
         <v>208</v>
       </c>
@@ -13006,7 +13104,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="47" t="s">
         <v>390</v>
       </c>
@@ -13014,7 +13112,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="47" t="s">
         <v>209</v>
       </c>
@@ -13022,7 +13120,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="47" t="s">
         <v>391</v>
       </c>
@@ -13030,7 +13128,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="47" t="s">
         <v>392</v>
       </c>
@@ -13038,12 +13136,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="84" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="47" t="s">
         <v>393</v>
       </c>
@@ -13051,12 +13149,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="86" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="47" t="s">
         <v>212</v>
       </c>
@@ -13064,7 +13162,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="47" t="s">
         <v>394</v>
       </c>
@@ -13072,7 +13170,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="47" t="s">
         <v>395</v>
       </c>
@@ -13080,7 +13178,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="47" t="s">
         <v>396</v>
       </c>
@@ -13088,7 +13186,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="47" t="s">
         <v>397</v>
       </c>
@@ -13096,7 +13194,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="47" t="s">
         <v>398</v>
       </c>
@@ -13104,7 +13202,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="47" t="s">
         <v>399</v>
       </c>
@@ -13112,12 +13210,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="94" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="50" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="47" t="s">
         <v>400</v>
       </c>
@@ -13125,7 +13223,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="47" t="s">
         <v>401</v>
       </c>
@@ -13133,7 +13231,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="47" t="s">
         <v>402</v>
       </c>
@@ -13141,12 +13239,12 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="98" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="47" t="s">
         <v>215</v>
       </c>
@@ -13154,7 +13252,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="47" t="s">
         <v>403</v>
       </c>
@@ -13162,12 +13260,12 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="101" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="50" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="47" t="s">
         <v>404</v>
       </c>
@@ -13175,20 +13273,20 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="47"/>
     </row>
-    <row r="105" spans="1:3" ht="16.5">
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="48" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15">
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="47" t="s">
         <v>412</v>
       </c>
@@ -13196,7 +13294,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15">
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="47" t="s">
         <v>218</v>
       </c>
@@ -13204,7 +13302,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="47" t="s">
         <v>413</v>
       </c>
@@ -13212,7 +13310,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15">
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="47" t="s">
         <v>414</v>
       </c>
@@ -13220,7 +13318,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15">
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="47" t="s">
         <v>415</v>
       </c>
@@ -13228,7 +13326,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="47" t="s">
         <v>417</v>
       </c>
@@ -13236,7 +13334,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15">
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="47" t="s">
         <v>219</v>
       </c>
@@ -13244,7 +13342,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15">
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="47" t="s">
         <v>448</v>
       </c>
@@ -13252,7 +13350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15">
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="47" t="s">
         <v>220</v>
       </c>
@@ -13260,12 +13358,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="115" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="50" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15">
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="47" t="s">
         <v>222</v>
       </c>
@@ -13273,7 +13371,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15">
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="47" t="s">
         <v>449</v>
       </c>
@@ -13281,7 +13379,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15">
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="47" t="s">
         <v>450</v>
       </c>
@@ -13289,25 +13387,25 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15">
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15">
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="47"/>
     </row>
-    <row r="121" spans="1:3" ht="16.5">
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="48" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="122" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="50" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15">
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="47" t="s">
         <v>225</v>
       </c>
@@ -13315,7 +13413,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15">
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="47" t="s">
         <v>226</v>
       </c>
@@ -13323,7 +13421,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15">
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="47" t="s">
         <v>227</v>
       </c>
@@ -13331,7 +13429,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15">
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="47" t="s">
         <v>228</v>
       </c>
@@ -13339,7 +13437,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15">
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="47" t="s">
         <v>451</v>
       </c>
@@ -13347,37 +13445,37 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="128" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="50" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="129" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="50" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="130" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="50" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="131" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="132" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="133" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="50" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15">
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="47" t="s">
         <v>235</v>
       </c>
@@ -13385,42 +13483,42 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="135" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="50" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="136" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="50" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="137" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="138" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15">
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="140" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="50" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="141" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="50" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15">
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="47" t="s">
         <v>243</v>
       </c>
@@ -13428,7 +13526,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15">
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="47" t="s">
         <v>244</v>
       </c>
@@ -13436,45 +13534,45 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="144" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="50" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="145" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="50" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="146" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="50" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="147" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="148" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="149" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="50" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15">
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="47"/>
     </row>
-    <row r="151" spans="1:3" ht="16.5">
+    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="48" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15">
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="47" t="s">
         <v>252</v>
       </c>
@@ -13482,7 +13580,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15">
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="47" t="s">
         <v>253</v>
       </c>
@@ -13490,7 +13588,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15">
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="47" t="s">
         <v>254</v>
       </c>
@@ -13498,7 +13596,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15">
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="47" t="s">
         <v>452</v>
       </c>
@@ -13506,7 +13604,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15">
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="47" t="s">
         <v>255</v>
       </c>
@@ -13514,7 +13612,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15">
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="47" t="s">
         <v>453</v>
       </c>
@@ -13522,17 +13620,17 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15">
+    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5">
+    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="48" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15">
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="47" t="s">
         <v>257</v>
       </c>
@@ -13540,7 +13638,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15">
+    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="47" t="s">
         <v>258</v>
       </c>
@@ -13548,17 +13646,17 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="162" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="50" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="163" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="50" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="164" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="50" t="s">
         <v>261</v>
       </c>
@@ -13566,7 +13664,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15">
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="47" t="s">
         <v>262</v>
       </c>
@@ -13574,62 +13672,62 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="166" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="50" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="167" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="50" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="168" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="169" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="50" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="170" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="50" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="171" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="172" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="173" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="50" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="174" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="50" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="175" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="176" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="50" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15">
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="47" t="s">
         <v>274</v>
       </c>
@@ -13637,12 +13735,12 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="178" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="50" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15">
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="47" t="s">
         <v>463</v>
       </c>
@@ -13650,7 +13748,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15">
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="47" t="s">
         <v>464</v>
       </c>
@@ -13658,12 +13756,12 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="181" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="50" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15">
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="47" t="s">
         <v>465</v>
       </c>
@@ -13671,17 +13769,17 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="183" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="50" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="184" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15">
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="47" t="s">
         <v>466</v>
       </c>
@@ -13689,55 +13787,55 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="186" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="50" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="187" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="50" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="188" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="189" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="50" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="190" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="50" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="191" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="50" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="192" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="193" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="50" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15">
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="47"/>
     </row>
-    <row r="195" spans="1:3" ht="16.5">
+    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="48" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15">
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="47" t="s">
         <v>457</v>
       </c>
@@ -13745,7 +13843,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15">
+    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="47" t="s">
         <v>288</v>
       </c>
@@ -13753,7 +13851,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15">
+    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="47" t="s">
         <v>458</v>
       </c>
@@ -13761,7 +13859,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15">
+    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="47" t="s">
         <v>467</v>
       </c>
@@ -13769,7 +13867,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15">
+    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="47" t="s">
         <v>468</v>
       </c>
@@ -13777,12 +13875,12 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="201" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="50" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15">
+    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="47" t="s">
         <v>469</v>
       </c>
@@ -13790,7 +13888,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15">
+    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="47" t="s">
         <v>470</v>
       </c>
@@ -13798,7 +13896,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15">
+    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="47" t="s">
         <v>471</v>
       </c>
@@ -13806,15 +13904,15 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15">
+    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="47"/>
     </row>
-    <row r="206" spans="1:3" ht="16.5">
+    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="48" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15">
+    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="47" t="s">
         <v>472</v>
       </c>
@@ -13822,7 +13920,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15">
+    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="47" t="s">
         <v>473</v>
       </c>
@@ -13830,7 +13928,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15">
+    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="47" t="s">
         <v>474</v>
       </c>
@@ -13838,38 +13936,38 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="210" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="50" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15">
+    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="47"/>
     </row>
-    <row r="212" spans="1:3" ht="16.5">
+    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="48" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15">
+    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="47" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15">
+    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="47" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15">
+    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="47"/>
     </row>
-    <row r="216" spans="1:3" ht="16.5">
+    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="48" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15">
+    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="47" t="s">
         <v>475</v>
       </c>
@@ -13877,12 +13975,12 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="218" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="50" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15">
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="47" t="s">
         <v>476</v>
       </c>
@@ -13890,158 +13988,158 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="220" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="50" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="221" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="50" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="222" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="50" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="223" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="50" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="55" customFormat="1" ht="15">
+    <row r="224" spans="1:3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="50" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="55" customFormat="1" ht="15">
+    <row r="225" spans="1:1" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="50" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15">
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="47"/>
     </row>
-    <row r="227" spans="1:1" ht="16.5">
+    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="48" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15">
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="47" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15">
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="47"/>
     </row>
-    <row r="230" spans="1:1" ht="16.5">
+    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="48" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="47" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15">
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="47" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16.5">
+    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="48" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="49" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="49" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="49" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="49" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="49" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="49" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16.5">
+    <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="48" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5">
+    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="48" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5">
+    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="48" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="52" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="52" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="52" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="52" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="52" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="53" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="52" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="52" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="52" t="s">
         <v>326</v>
       </c>

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="776">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -5014,6 +5014,12 @@
   </si>
   <si>
     <t>upto 31 March</t>
+  </si>
+  <si>
+    <t>8750641646</t>
+  </si>
+  <si>
+    <t>ITS</t>
   </si>
 </sst>
 </file>
@@ -5583,11 +5589,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5623,6 +5629,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5821,11 +5828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259017120"/>
-        <c:axId val="259013984"/>
+        <c:axId val="245465856"/>
+        <c:axId val="245472520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259017120"/>
+        <c:axId val="245465856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5868,14 +5875,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259013984"/>
+        <c:crossAx val="245472520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259013984"/>
+        <c:axId val="245472520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5926,7 +5933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259017120"/>
+        <c:crossAx val="245465856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5990,6 +5997,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6268,11 +6276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259019080"/>
-        <c:axId val="259018688"/>
+        <c:axId val="245466248"/>
+        <c:axId val="245467032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="259019080"/>
+        <c:axId val="245466248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6315,14 +6323,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259018688"/>
+        <c:crossAx val="245467032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="259018688"/>
+        <c:axId val="245467032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6373,7 +6381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259019080"/>
+        <c:crossAx val="245466248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7805,8 +7813,8 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9517,7 +9525,7 @@
       <c r="B33" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="C33" s="122">
+      <c r="C33" s="121">
         <v>42084</v>
       </c>
       <c r="D33" s="12" t="s">
@@ -9555,8 +9563,14 @@
       <c r="D34" s="12" t="s">
         <v>767</v>
       </c>
+      <c r="F34" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>774</v>
+      </c>
       <c r="H34" s="11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I34" s="11">
         <v>1000</v>
@@ -9590,8 +9604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9621,15 +9635,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="122" t="s">
         <v>670</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="110">
@@ -10223,15 +10237,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="122" t="s">
         <v>669</v>
       </c>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="110">

--- a/documents/training/daily_status.xlsx
+++ b/documents/training/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId1"/>
@@ -317,12 +317,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>street light project - 2000
+ jammer project - 1500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>sweeper</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="776">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4263,9 +4292,6 @@
     <t>G.C.E.T</t>
   </si>
   <si>
-    <t>Deliver up to 25th feb</t>
-  </si>
-  <si>
     <t>Dileep Sharma</t>
   </si>
   <si>
@@ -5020,6 +5046,9 @@
   </si>
   <si>
     <t>ITS</t>
+  </si>
+  <si>
+    <t>200 pending for project gauidance</t>
   </si>
 </sst>
 </file>
@@ -5325,7 +5354,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5595,6 +5624,20 @@
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5629,7 +5672,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5828,11 +5870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245465856"/>
-        <c:axId val="245472520"/>
+        <c:axId val="282106520"/>
+        <c:axId val="282107696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="245465856"/>
+        <c:axId val="282106520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5875,14 +5917,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245472520"/>
+        <c:crossAx val="282107696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="245472520"/>
+        <c:axId val="282107696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5933,7 +5975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245465856"/>
+        <c:crossAx val="282106520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6229,7 +6271,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -6276,11 +6318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245466248"/>
-        <c:axId val="245467032"/>
+        <c:axId val="282106912"/>
+        <c:axId val="283933200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="245466248"/>
+        <c:axId val="282106912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6323,14 +6365,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245467032"/>
+        <c:crossAx val="283933200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="245467032"/>
+        <c:axId val="283933200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6381,7 +6423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245466248"/>
+        <c:crossAx val="282106912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7333,25 +7375,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B23">
         <v>9654033937</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D23" t="s">
         <v>563</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>564</v>
-      </c>
-      <c r="E23" t="s">
-        <v>565</v>
       </c>
       <c r="F23">
         <v>800</v>
       </c>
       <c r="G23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H23" t="s">
         <v>71</v>
@@ -7359,19 +7401,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B24">
         <v>7053362994</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D24" t="s">
         <v>576</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>577</v>
-      </c>
-      <c r="E24" t="s">
-        <v>578</v>
       </c>
       <c r="F24">
         <v>400</v>
@@ -7382,19 +7424,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B25">
         <v>8826582906</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D25" t="s">
         <v>583</v>
       </c>
-      <c r="D25" t="s">
-        <v>584</v>
-      </c>
       <c r="E25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F25">
         <v>600</v>
@@ -7408,16 +7450,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B26">
         <v>9793382956</v>
       </c>
       <c r="D26" t="s">
+        <v>593</v>
+      </c>
+      <c r="E26" t="s">
         <v>594</v>
-      </c>
-      <c r="E26" t="s">
-        <v>595</v>
       </c>
       <c r="F26">
         <v>600</v>
@@ -7431,16 +7473,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B27">
         <v>9718155292</v>
       </c>
       <c r="D27" t="s">
+        <v>613</v>
+      </c>
+      <c r="E27" t="s">
         <v>614</v>
-      </c>
-      <c r="E27" t="s">
-        <v>615</v>
       </c>
       <c r="F27">
         <v>2000</v>
@@ -7454,16 +7496,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B28">
         <v>8750546916</v>
       </c>
       <c r="D28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -7477,16 +7519,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B29">
         <v>9899447200</v>
       </c>
       <c r="D29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E29" t="s">
         <v>698</v>
-      </c>
-      <c r="E29" t="s">
-        <v>699</v>
       </c>
       <c r="F29">
         <v>250</v>
@@ -7497,19 +7539,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B30">
         <v>7503697881</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D30" t="s">
         <v>701</v>
       </c>
-      <c r="D30" t="s">
-        <v>702</v>
-      </c>
       <c r="E30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F30">
         <v>200</v>
@@ -7523,19 +7565,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B31">
         <v>9818655248</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F31">
         <v>700</v>
@@ -7588,123 +7630,123 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B4" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>549</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B5" s="106">
         <v>1</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B9" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>549</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C10" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B11" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="87" t="s">
         <v>549</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -7730,22 +7772,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="107" t="s">
-        <v>657</v>
-      </c>
-      <c r="C1" s="107" t="s">
+      <c r="D1" s="107" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="107" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="107" t="s">
-        <v>663</v>
-      </c>
-      <c r="E1" s="107" t="s">
+      <c r="F1" s="107" t="s">
         <v>660</v>
-      </c>
-      <c r="F1" s="107" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7759,10 +7801,10 @@
         <v>683</v>
       </c>
       <c r="E2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7779,10 +7821,10 @@
         <v>1154</v>
       </c>
       <c r="E3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7796,10 +7838,10 @@
         <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -7812,9 +7854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8926,13 +8968,13 @@
         <v>129</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F14" s="92" t="s">
         <v>130</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H14" s="91">
         <v>10000</v>
@@ -8941,10 +8983,10 @@
         <v>1500</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K14" s="95" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L14" s="96"/>
     </row>
@@ -9138,61 +9180,61 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+    <row r="21" spans="1:12" s="128" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="123">
         <v>21</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="124" t="s">
         <v>518</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="123" t="s">
         <v>519</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="124" t="s">
         <v>520</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="125" t="s">
         <v>521</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="124" t="s">
         <v>522</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>631</v>
-      </c>
-      <c r="H21" s="41">
+      <c r="G21" s="124" t="s">
+        <v>630</v>
+      </c>
+      <c r="H21" s="123">
         <v>3000</v>
       </c>
-      <c r="I21" s="41">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="43" t="s">
-        <v>523</v>
-      </c>
-      <c r="L21" s="44"/>
+      <c r="I21" s="123">
+        <v>3000</v>
+      </c>
+      <c r="J21" s="123"/>
+      <c r="K21" s="126" t="s">
+        <v>775</v>
+      </c>
+      <c r="L21" s="127"/>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>116</v>
       </c>
       <c r="E22" s="90" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>121</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H22" s="11">
         <v>3000</v>
@@ -9201,7 +9243,7 @@
         <v>2000</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -9209,22 +9251,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="90" t="s">
         <v>597</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>598</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>130</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H23" s="11">
         <v>6000</v>
@@ -9233,7 +9275,7 @@
         <v>1000</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="120" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -9241,22 +9283,22 @@
         <v>25</v>
       </c>
       <c r="B24" s="116" t="s">
+        <v>682</v>
+      </c>
+      <c r="C24" s="115" t="s">
         <v>683</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="D24" s="116" t="s">
         <v>684</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="E24" s="117" t="s">
         <v>685</v>
-      </c>
-      <c r="E24" s="117" t="s">
-        <v>686</v>
       </c>
       <c r="F24" s="116" t="s">
         <v>407</v>
       </c>
       <c r="G24" s="116" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H24" s="115">
         <v>3500</v>
@@ -9265,7 +9307,7 @@
         <v>3500</v>
       </c>
       <c r="J24" s="115" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K24" s="118"/>
       <c r="L24" s="119"/>
@@ -9275,22 +9317,22 @@
         <v>26</v>
       </c>
       <c r="B25" s="116" t="s">
+        <v>687</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>683</v>
+      </c>
+      <c r="D25" s="116" t="s">
         <v>688</v>
       </c>
-      <c r="C25" s="115" t="s">
-        <v>684</v>
-      </c>
-      <c r="D25" s="116" t="s">
+      <c r="E25" s="117" t="s">
         <v>689</v>
-      </c>
-      <c r="E25" s="117" t="s">
-        <v>690</v>
       </c>
       <c r="F25" s="116" t="s">
         <v>407</v>
       </c>
       <c r="G25" s="116" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H25" s="115">
         <v>3500</v>
@@ -9299,7 +9341,7 @@
         <v>3500</v>
       </c>
       <c r="J25" s="115" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K25" s="118"/>
       <c r="L25" s="119"/>
@@ -9309,22 +9351,22 @@
         <v>27</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F26" s="116" t="s">
         <v>407</v>
       </c>
       <c r="G26" s="116" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H26" s="115">
         <v>3500</v>
@@ -9333,7 +9375,7 @@
         <v>3500</v>
       </c>
       <c r="J26" s="115" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K26" s="118"/>
       <c r="L26" s="119"/>
@@ -9343,22 +9385,22 @@
         <v>28</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="90" t="s">
         <v>705</v>
-      </c>
-      <c r="E27" s="90" t="s">
-        <v>706</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H27" s="11">
         <v>1500</v>
@@ -9375,19 +9417,19 @@
         <v>117</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="90" t="s">
         <v>710</v>
       </c>
-      <c r="E28" s="90" t="s">
+      <c r="F28" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>712</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>713</v>
       </c>
       <c r="H28" s="11">
         <v>2500</v>
@@ -9401,22 +9443,22 @@
         <v>30</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="E29" s="90" t="s">
+        <v>716</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>715</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>717</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>716</v>
       </c>
       <c r="H29" s="11">
         <v>3800</v>
@@ -9430,22 +9472,22 @@
         <v>31</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="90" t="s">
         <v>723</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>724</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H30" s="11">
         <v>5500</v>
@@ -9454,7 +9496,7 @@
         <v>1500</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -9462,22 +9504,22 @@
         <v>32</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="E31" s="90" t="s">
         <v>727</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="F31" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>729</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>730</v>
       </c>
       <c r="H31" s="11">
         <v>3800</v>
@@ -9486,7 +9528,7 @@
         <v>1000</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -9494,22 +9536,22 @@
         <v>33</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="E32" s="90" t="s">
         <v>731</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>732</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H32" s="11">
         <v>1500</v>
@@ -9523,22 +9565,22 @@
         <v>34</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C33" s="121">
         <v>42084</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="E33" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>769</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>772</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>770</v>
       </c>
       <c r="H33" s="11">
         <v>3300</v>
@@ -9547,7 +9589,7 @@
         <v>1500</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -9555,19 +9597,19 @@
         <v>35</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H34" s="11">
         <v>3000</v>
@@ -9604,8 +9646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9622,13 +9664,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C1" s="70" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>671</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>672</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>499</v>
@@ -9636,7 +9678,7 @@
     </row>
     <row r="2" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="122" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
@@ -10000,11 +10042,11 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
@@ -10012,17 +10054,17 @@
         <v>42084</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
@@ -10040,7 +10082,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
       <c r="L24"/>
     </row>
@@ -10059,7 +10101,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
       <c r="L25"/>
     </row>
@@ -10078,7 +10120,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
       <c r="L26"/>
     </row>
@@ -10097,7 +10139,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
       <c r="L27"/>
     </row>
@@ -10116,7 +10158,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
@@ -10134,7 +10176,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
@@ -10152,7 +10194,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
@@ -10170,7 +10212,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="113" customFormat="1" x14ac:dyDescent="0.25">
@@ -10188,7 +10230,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
@@ -10206,7 +10248,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>12515</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
@@ -10224,10 +10266,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D36" s="81" t="s">
         <v>667</v>
-      </c>
-      <c r="D36" s="81" t="s">
-        <v>668</v>
       </c>
       <c r="E36" s="54" t="s">
         <v>499</v>
@@ -10238,7 +10280,7 @@
     </row>
     <row r="37" spans="1:7" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="122" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B37" s="122"/>
       <c r="C37" s="122"/>
@@ -10538,10 +10580,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10819,10 +10861,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" t="s">
         <v>527</v>
-      </c>
-      <c r="B25" t="s">
-        <v>528</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -10830,7 +10872,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B26" t="s">
         <v>444</v>
@@ -10841,10 +10883,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B27" t="s">
         <v>573</v>
-      </c>
-      <c r="B27" t="s">
-        <v>574</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -10852,7 +10894,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B28" t="s">
         <v>433</v>
@@ -10863,10 +10905,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>653</v>
+      </c>
+      <c r="B29" t="s">
         <v>654</v>
-      </c>
-      <c r="B29" t="s">
-        <v>655</v>
       </c>
       <c r="C29">
         <v>70</v>
@@ -10874,7 +10916,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B30" t="s">
         <v>444</v>
@@ -10885,10 +10927,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B31" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C31">
         <v>1100</v>
@@ -10896,10 +10938,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>664</v>
+      </c>
+      <c r="B32" t="s">
         <v>665</v>
-      </c>
-      <c r="B32" t="s">
-        <v>666</v>
       </c>
       <c r="C32">
         <v>1000</v>
@@ -10907,13 +10949,24 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C33">
         <v>11000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="72">
+        <v>42084</v>
+      </c>
+      <c r="B34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -10994,7 +11047,7 @@
         <v>5000</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I2" s="68" t="s">
         <v>148</v>
@@ -11026,7 +11079,7 @@
         <v>5000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I3" t="s">
         <v>149</v>
@@ -11052,7 +11105,7 @@
         <v>1500</v>
       </c>
       <c r="H4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11075,24 +11128,24 @@
         <v>1500</v>
       </c>
       <c r="H5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B6">
         <v>9911193134</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -11101,24 +11154,24 @@
         <v>1500</v>
       </c>
       <c r="H6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B7">
         <v>9643705662</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -11127,24 +11180,24 @@
         <v>1500</v>
       </c>
       <c r="H7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8">
         <v>9899766120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -11153,24 +11206,24 @@
         <v>1500</v>
       </c>
       <c r="H8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B9">
         <v>9650259567</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -11179,7 +11232,7 @@
         <v>1500</v>
       </c>
       <c r="H9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -11406,7 +11459,7 @@
         <v>438</v>
       </c>
       <c r="E10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11513,33 +11566,33 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B17">
         <v>9911430369</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B18">
         <v>8130283991</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D18" t="s">
         <v>571</v>
-      </c>
-      <c r="D18" t="s">
-        <v>572</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -11547,16 +11600,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B19">
         <v>9565656535</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D19" t="s">
         <v>580</v>
-      </c>
-      <c r="D19" t="s">
-        <v>581</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -11564,64 +11617,64 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B20">
         <v>9958940360</v>
       </c>
       <c r="D20" t="s">
+        <v>589</v>
+      </c>
+      <c r="E20" t="s">
         <v>590</v>
-      </c>
-      <c r="E20" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B21">
         <v>9999518201</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B22">
         <v>8750546916</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D22" t="s">
         <v>606</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>607</v>
-      </c>
-      <c r="E22" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B23">
         <v>8285771212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -11629,71 +11682,71 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B24">
         <v>9582374921</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E24" t="s">
         <v>633</v>
-      </c>
-      <c r="E24" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B25">
         <v>8750179299</v>
       </c>
       <c r="E25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B26">
         <v>9810485613</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B27">
         <v>8704240849</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B28">
         <v>8745968272</v>
       </c>
       <c r="E28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B29">
         <v>9716246542</v>
@@ -11702,314 +11755,314 @@
         <v>512</v>
       </c>
       <c r="E29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B30">
         <v>9458402916</v>
       </c>
       <c r="E30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B31">
         <v>7503087307</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B32">
         <v>9582555570</v>
       </c>
       <c r="E32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B33">
         <v>8130126766</v>
       </c>
       <c r="E33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B34">
         <v>9650234316</v>
       </c>
       <c r="E34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B35">
         <v>9560108369</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D35" t="s">
         <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B36">
         <v>9818655248</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D36" t="s">
         <v>651</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>652</v>
-      </c>
-      <c r="E36" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B37">
         <v>9650044196</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D37" t="s">
         <v>407</v>
       </c>
       <c r="E37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B38">
         <v>9899426342</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D38" t="s">
         <v>407</v>
       </c>
       <c r="E38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B39">
         <v>8510028065</v>
       </c>
       <c r="D39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E39" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B40">
         <v>7503050414</v>
       </c>
       <c r="D40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B41">
         <v>9716784236</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D41" t="s">
         <v>407</v>
       </c>
       <c r="E41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B42">
         <v>7503847416</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D42" t="s">
         <v>357</v>
       </c>
       <c r="E42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B43">
         <v>8447632823</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D43" t="s">
         <v>741</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>742</v>
-      </c>
-      <c r="E43" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B44">
         <v>9411845068</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B45">
         <v>9540054959</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D45" t="s">
         <v>748</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>749</v>
-      </c>
-      <c r="E45" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B46">
         <v>8527423557</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D46" t="s">
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B47">
         <v>7503342149</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="D47" t="s">
+        <v>728</v>
+      </c>
+      <c r="E47" t="s">
         <v>757</v>
-      </c>
-      <c r="D47" t="s">
-        <v>729</v>
-      </c>
-      <c r="E47" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B48">
         <v>9718671942</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D48" t="s">
+        <v>728</v>
+      </c>
+      <c r="E48" t="s">
         <v>760</v>
-      </c>
-      <c r="D48" t="s">
-        <v>729</v>
-      </c>
-      <c r="E48" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B49">
         <v>9717825655</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D49" t="s">
         <v>765</v>
       </c>
-      <c r="D49" t="s">
-        <v>766</v>
-      </c>
       <c r="E49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -12078,223 +12131,223 @@
   <sheetData>
     <row r="1" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="85" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="C1" s="85" t="s">
         <v>544</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="D1" s="85" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="E1" s="84" t="s">
         <v>546</v>
-      </c>
-      <c r="E1" s="84" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="C2" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>549</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>549</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>550</v>
-      </c>
       <c r="E2" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B3" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>550</v>
-      </c>
       <c r="D3" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="86" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B4" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>550</v>
-      </c>
       <c r="D4" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C5" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="E5" s="87" t="s">
         <v>549</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>549</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C6" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="E6" s="87" t="s">
         <v>549</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>549</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B9" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>549</v>
       </c>
-      <c r="C9" s="87" t="s">
-        <v>550</v>
-      </c>
       <c r="D9" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="86" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B10" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>549</v>
       </c>
-      <c r="C10" s="87" t="s">
-        <v>550</v>
-      </c>
       <c r="D10" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="86" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B11" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="87" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="87" t="s">
-        <v>550</v>
-      </c>
       <c r="D11" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="86" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B12" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="C12" s="87" t="s">
         <v>549</v>
       </c>
-      <c r="C12" s="87" t="s">
-        <v>550</v>
-      </c>
       <c r="D12" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -12358,7 +12411,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B6">
         <v>325</v>
@@ -12366,7 +12419,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B7">
         <v>450</v>
@@ -12542,7 +12595,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B29">
         <v>175</v>
